--- a/Projects/CCRU_SAND/Data/KPI_Source.xlsx
+++ b/Projects/CCRU_SAND/Data/KPI_Source.xlsx
@@ -5,11 +5,20 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Pos 2018 - FT" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="Pos 2018 - MT - Convenience Big" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Pos 2018 - MT - Convenience Small" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="Pos 2018 - MT - Hypermarket" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="Pos 2018 - MT - Supermarket" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="Pos 2018 - HoReCa - Bar Tavern Night Clubs" sheetId="6" state="visible" r:id="rId7"/>
+    <sheet name="Pos 2018 - HoReCa - Coffee Tea Shops" sheetId="7" state="visible" r:id="rId8"/>
+    <sheet name="Pos 2018 - HoReCa - Restaurant Cafe" sheetId="8" state="visible" r:id="rId9"/>
+    <sheet name="Pos 2018 - Canteen" sheetId="9" state="visible" r:id="rId10"/>
+    <sheet name="Pos 2018 - Petroleum" sheetId="10" state="visible" r:id="rId11"/>
+    <sheet name="Pos 2018 - QSR" sheetId="11" state="visible" r:id="rId12"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -21,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="60">
   <si>
     <t xml:space="preserve">SOURCE</t>
   </si>
@@ -41,7 +50,7 @@
     <t xml:space="preserve">Pos 2018 - FT</t>
   </si>
   <si>
-    <t xml:space="preserve">KPIs_2018\FT PoS 2018.xlsx</t>
+    <t xml:space="preserve">KPIs_2018/FT PoS 2018.xlsx</t>
   </si>
   <si>
     <t xml:space="preserve">GAPS</t>
@@ -50,7 +59,7 @@
     <t xml:space="preserve">Top Gaps</t>
   </si>
   <si>
-    <t xml:space="preserve">KPIs_2018\gaps_guide_2018.xlsx</t>
+    <t xml:space="preserve">KPIs_2018/gaps_guide_2018.xlsx</t>
   </si>
   <si>
     <t xml:space="preserve">TARGET</t>
@@ -59,7 +68,7 @@
     <t xml:space="preserve">Target Execution 2018</t>
   </si>
   <si>
-    <t xml:space="preserve">KPIs_2018\Target Execution 2018.xlsx</t>
+    <t xml:space="preserve">KPIs_2018/Target Execution 2018.xlsx</t>
   </si>
   <si>
     <t xml:space="preserve">MARKETING</t>
@@ -68,7 +77,7 @@
     <t xml:space="preserve">Marketing 2017</t>
   </si>
   <si>
-    <t xml:space="preserve">KPIs_2018\Marketing.xlsx</t>
+    <t xml:space="preserve">KPIs_2018/Marketing.xlsx</t>
   </si>
   <si>
     <t xml:space="preserve">SPIRITS</t>
@@ -77,7 +86,7 @@
     <t xml:space="preserve">Spirits 2018 - FT</t>
   </si>
   <si>
-    <t xml:space="preserve">KPIs_2018\FT Spirits 2018.xlsx</t>
+    <t xml:space="preserve">KPIs_2018/FT Spirits 2018.xlsx</t>
   </si>
   <si>
     <t xml:space="preserve">CONTRACT</t>
@@ -86,7 +95,7 @@
     <t xml:space="preserve">Contract Execution</t>
   </si>
   <si>
-    <t xml:space="preserve">KPIs_2018\Contract Execution 2018.xlsx</t>
+    <t xml:space="preserve">KPIs_2018/Contract Execution 2018.xlsx</t>
   </si>
   <si>
     <t xml:space="preserve">EQUIPMENT</t>
@@ -107,7 +116,100 @@
     <t xml:space="preserve">Top SKU</t>
   </si>
   <si>
+    <t xml:space="preserve">KPI_CONVERTION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KPI Conversion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KPIs_2018/KPIConversion.xlsx</t>
+  </si>
+  <si>
     <t xml:space="preserve">Pos 2018 - MT - Convenience Big</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KPIs_2018/Convenience Big PoS 2018.xlsx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spirits 2018 - MT - Convenience</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KPIs_2018/Convenience Spirits 2018.xlsx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pos 2018 - MT - Convenience Small</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KPIs_2018/Convenience Small PoS 2018.xlsx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pos 2018 - MT - Hypermarket</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KPIs_2018/Hypermarket PoS 2018.xlsx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KPIs_2018/Hypermarket Spirits 2018.xlsx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pos 2018 - MT - Supermarket</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KPIs_2018/Supermarket PoS 2018.xlsx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spirits 2018 - MT - Supermarket</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KPIs_2018/Supermarket Spirits 2018.xlsx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pos 2018 - HoReCa - Bar Tavern Night Clubs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KPIs_2018/HoReCa Bar Tavern_Night Club PoS 2018.xlsx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pos 2018 - HoReCa Bar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KPIs_2018/HoReCa Spirits 2018.xlsx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pos 2018 - HoReCa - Coffee Tea Shops</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KPIs_2018/HoReCa Cofee_Tea Shops PoS 2018.xlsx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pos 2018 - HoReCa Tea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pos 2018 - HoReCa - Restaurant Cafe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KPIs_2018/HoReCa Restaurant_Cafe PoS 2018.xlsx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pos 2018 - Horeca cafe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pos 2018 - Canteen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KPIs_2018/Canteen PoS 2018.xlsx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pos 2018 - Petroleum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KPIs_2018/Petroleum PoS 2018.xlsx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pos 2018 - QSR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KPIs_2018/QSR PoS 2018.xlsx</t>
   </si>
 </sst>
 </file>
@@ -140,19 +242,49 @@
       <family val="0"/>
     </font>
     <font>
-      <sz val="11.5"/>
-      <color rgb="FFA5C261"/>
+      <b val="true"/>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDDDDDD"/>
+        <bgColor rgb="FFCCFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF99"/>
+        <bgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF33FF99"/>
+        <bgColor rgb="FF00FFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC00"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF66CCFF"/>
+        <bgColor rgb="FF9999FF"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -189,12 +321,28 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -232,7 +380,7 @@
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF8080"/>
       <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FFDDDDDD"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FFFFFF00"/>
@@ -245,13 +393,13 @@
       <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FFCCFFCC"/>
       <rgbColor rgb="FFFFFF99"/>
-      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FF66CCFF"/>
       <rgbColor rgb="FFFF99CC"/>
       <rgbColor rgb="FFCC99FF"/>
       <rgbColor rgb="FFFFCC99"/>
       <rgbColor rgb="FF3366FF"/>
-      <rgbColor rgb="FF33CCCC"/>
-      <rgbColor rgb="FFA5C261"/>
+      <rgbColor rgb="FF33FF99"/>
+      <rgbColor rgb="FF99CC00"/>
       <rgbColor rgb="FFFFCC00"/>
       <rgbColor rgb="FFFF9900"/>
       <rgbColor rgb="FFFF6600"/>
@@ -275,32 +423,32 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A11" activeCellId="0" sqref="A11"/>
+      <selection pane="topLeft" activeCell="C17" activeCellId="0" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.3826530612245"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.3775510204082"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="42.5204081632653"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="16.1989795918367"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.5714285714286"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.5663265306122"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="41.0357142857143"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.5255102040816"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
@@ -308,10 +456,10 @@
       <c r="A2" s="0" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" s="3" t="s">
         <v>6</v>
       </c>
     </row>
@@ -325,7 +473,7 @@
       <c r="C3" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="D3" s="4" t="s">
         <v>5</v>
       </c>
     </row>
@@ -355,10 +503,10 @@
       <c r="A6" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="B6" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="C6" s="3" t="s">
         <v>18</v>
       </c>
     </row>
@@ -372,7 +520,7 @@
       <c r="C7" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="0" t="s">
+      <c r="D7" s="2" t="s">
         <v>5</v>
       </c>
     </row>
@@ -398,12 +546,315 @@
       </c>
       <c r="B10" s="0" t="s">
         <v>27</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:D11"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C15" activeCellId="0" sqref="C15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.5714285714286"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="41.5765306122449"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="53.1887755102041"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="41.5765306122449"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="5"/>
+      <c r="C6" s="3"/>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="2"/>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:D11"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C12" activeCellId="0" sqref="C12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.5714285714286"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="41.5765306122449"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="53.1887755102041"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="41.5765306122449"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="5"/>
+      <c r="C6" s="3"/>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="2"/>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -416,47 +867,47 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B10" activeCellId="0" sqref="B10"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A11" activeCellId="0" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.3826530612245"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="32.1377551020408"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="42.5204081632653"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="16.1989795918367"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.5714285714286"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="31.3163265306122"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="41.0357142857143"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="38.7448979591837"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C2" s="0" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
         <v>7</v>
       </c>
@@ -466,8 +917,8 @@
       <c r="C3" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>28</v>
+      <c r="D3" s="4" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -496,14 +947,14 @@
       <c r="A6" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B6" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
         <v>19</v>
       </c>
@@ -513,8 +964,8 @@
       <c r="C7" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>28</v>
+      <c r="D7" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -541,10 +992,1079 @@
         <v>27</v>
       </c>
     </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>30</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:D11"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B15" activeCellId="0" sqref="B15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.5714285714286"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="33.6122448979592"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="41.0357142857143"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="38.7448979591837"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:D11"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B38" activeCellId="0" sqref="B38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.5714285714286"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="33.6122448979592"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="41.0357142857143"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="38.7448979591837"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:D11"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.5714285714286"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="33.6122448979592"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="41.0357142857143"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="38.7448979591837"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:D11"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.5714285714286"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="41.5765306122449"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="53.1887755102041"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="41.5765306122449"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:D11"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.5714285714286"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="41.5765306122449"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="53.1887755102041"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="41.5765306122449"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:D11"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D15" activeCellId="0" sqref="D15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.5714285714286"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="41.5765306122449"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="53.1887755102041"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="41.5765306122449"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:D11"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D7" activeCellId="0" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.5714285714286"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="41.5765306122449"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="53.1887755102041"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="41.5765306122449"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="5"/>
+      <c r="C6" s="3"/>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="2"/>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>

--- a/Projects/CCRU_SAND/Data/KPI_Source.xlsx
+++ b/Projects/CCRU_SAND/Data/KPI_Source.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Pos 2018 - FT" sheetId="1" state="visible" r:id="rId2"/>
@@ -92,7 +92,7 @@
     <t xml:space="preserve">CONTRACT</t>
   </si>
   <si>
-    <t xml:space="preserve">Contract Execution</t>
+    <t xml:space="preserve">Contract Execution 2018</t>
   </si>
   <si>
     <t xml:space="preserve">KPIs_2018/Contract Execution 2018.xlsx</t>
@@ -101,7 +101,7 @@
     <t xml:space="preserve">EQUIPMENT</t>
   </si>
   <si>
-    <t xml:space="preserve">Equipment Execution</t>
+    <t xml:space="preserve">Equipment Execution 2018</t>
   </si>
   <si>
     <t xml:space="preserve">INTEGRATION</t>
@@ -116,13 +116,13 @@
     <t xml:space="preserve">Top SKU</t>
   </si>
   <si>
-    <t xml:space="preserve">KPI_CONVERTION</t>
+    <t xml:space="preserve">KPI_CONVERSION</t>
   </si>
   <si>
     <t xml:space="preserve">KPI Conversion</t>
   </si>
   <si>
-    <t xml:space="preserve">KPIs_2018/KPIConversion.xlsx</t>
+    <t xml:space="preserve">KPIs_2018/KPIConversion2018.xlsx</t>
   </si>
   <si>
     <t xml:space="preserve">Pos 2018 - MT - Convenience Big</t>
@@ -425,17 +425,17 @@
   </sheetPr>
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C17" activeCellId="0" sqref="C17"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B17" activeCellId="0" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.5714285714286"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.5663265306122"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="41.0357142857143"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.5255102040816"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.765306122449"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.4897959183673"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="39.5510204081633"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.1173469387755"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -583,11 +583,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.5714285714286"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="41.5765306122449"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="53.1887755102041"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="41.5765306122449"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.765306122449"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="39.9591836734694"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="51.4336734693878"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="39.9591836734694"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -729,11 +729,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.5714285714286"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="41.5765306122449"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="53.1887755102041"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="41.5765306122449"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.765306122449"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="39.9591836734694"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="51.4336734693878"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="39.9591836734694"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -875,11 +875,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.5714285714286"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="31.3163265306122"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="41.0357142857143"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="38.7448979591837"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.765306122449"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="30.2397959183673"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="39.5510204081633"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="37.2602040816326"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1021,17 +1021,17 @@
   </sheetPr>
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B15" activeCellId="0" sqref="B15"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C11" activeCellId="0" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.5714285714286"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="33.6122448979592"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="41.0357142857143"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="38.7448979591837"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.765306122449"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="32.265306122449"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="39.5510204081633"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="37.2602040816326"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1179,11 +1179,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.5714285714286"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="33.6122448979592"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="41.0357142857143"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="38.7448979591837"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.765306122449"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="32.265306122449"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="39.5510204081633"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="37.2602040816326"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1331,11 +1331,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.5714285714286"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="33.6122448979592"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="41.0357142857143"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="38.7448979591837"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.765306122449"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="32.265306122449"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="39.5510204081633"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="37.2602040816326"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1483,11 +1483,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.5714285714286"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="41.5765306122449"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="53.1887755102041"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="41.5765306122449"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.765306122449"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="39.9591836734694"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="51.4336734693878"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="39.9591836734694"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1635,11 +1635,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.5714285714286"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="41.5765306122449"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="53.1887755102041"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="41.5765306122449"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.765306122449"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="39.9591836734694"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="51.4336734693878"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="39.9591836734694"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1787,11 +1787,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.5714285714286"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="41.5765306122449"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="53.1887755102041"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="41.5765306122449"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.765306122449"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="39.9591836734694"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="51.4336734693878"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="39.9591836734694"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1939,11 +1939,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.5714285714286"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="41.5765306122449"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="53.1887755102041"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="41.5765306122449"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.765306122449"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="39.9591836734694"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="51.4336734693878"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="39.9591836734694"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/Projects/CCRU_SAND/Data/KPI_Source.xlsx
+++ b/Projects/CCRU_SAND/Data/KPI_Source.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="60">
   <si>
     <t xml:space="preserve">SOURCE</t>
   </si>
@@ -276,14 +276,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC00"/>
-        <bgColor rgb="FFFFFF00"/>
+        <fgColor rgb="FF66CCFF"/>
+        <bgColor rgb="FF9999FF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF66CCFF"/>
-        <bgColor rgb="FF9999FF"/>
+        <fgColor rgb="FFFFCC00"/>
+        <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
   </fills>
@@ -426,16 +426,16 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B17" activeCellId="0" sqref="B17"/>
+      <selection pane="topLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.765306122449"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.4897959183673"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="39.5510204081633"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.1173469387755"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.4948979591837"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.0816326530612"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="39.1479591836735"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="14.8469387755102"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -473,7 +473,7 @@
       <c r="C3" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="2" t="s">
         <v>5</v>
       </c>
     </row>
@@ -503,7 +503,7 @@
       <c r="A6" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="4" t="s">
         <v>17</v>
       </c>
       <c r="C6" s="3" t="s">
@@ -530,6 +530,12 @@
       </c>
       <c r="B8" s="0" t="s">
         <v>23</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -583,11 +589,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.765306122449"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="39.9591836734694"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="51.4336734693878"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="39.9591836734694"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.4948979591837"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="39.5510204081633"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="50.7551020408163"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="39.5510204081633"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -625,7 +631,7 @@
       <c r="C3" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="5" t="s">
         <v>56</v>
       </c>
     </row>
@@ -655,7 +661,7 @@
       <c r="A6" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="5"/>
+      <c r="B6" s="4"/>
       <c r="C6" s="3"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -676,6 +682,9 @@
       </c>
       <c r="B8" s="0" t="s">
         <v>23</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -724,16 +733,16 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C12" activeCellId="0" sqref="C12"/>
+      <selection pane="topLeft" activeCell="D12" activeCellId="0" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.765306122449"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="39.9591836734694"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="51.4336734693878"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="39.9591836734694"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.4948979591837"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="39.5510204081633"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="50.7551020408163"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="39.5510204081633"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -771,7 +780,7 @@
       <c r="C3" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="5" t="s">
         <v>58</v>
       </c>
     </row>
@@ -801,7 +810,7 @@
       <c r="A6" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="5"/>
+      <c r="B6" s="4"/>
       <c r="C6" s="3"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -814,7 +823,9 @@
       <c r="C7" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="2"/>
+      <c r="D7" s="2" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
@@ -822,6 +833,12 @@
       </c>
       <c r="B8" s="0" t="s">
         <v>23</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -870,16 +887,16 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A11" activeCellId="0" sqref="A11"/>
+      <selection pane="topLeft" activeCell="D8" activeCellId="0" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.765306122449"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="30.2397959183673"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="39.5510204081633"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="37.2602040816326"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.4948979591837"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.8316326530612"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="39.1479591836735"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="36.8520408163265"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -917,7 +934,7 @@
       <c r="C3" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="5" t="s">
         <v>31</v>
       </c>
     </row>
@@ -947,7 +964,7 @@
       <c r="A6" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="4" t="s">
         <v>33</v>
       </c>
       <c r="C6" s="3" t="s">
@@ -974,6 +991,12 @@
       </c>
       <c r="B8" s="0" t="s">
         <v>23</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1022,16 +1045,16 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C11" activeCellId="0" sqref="C11"/>
+      <selection pane="topLeft" activeCell="D13" activeCellId="0" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.765306122449"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="32.265306122449"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="39.5510204081633"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="37.2602040816326"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.4948979591837"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="31.8571428571429"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="39.1479591836735"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="36.8520408163265"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1069,7 +1092,7 @@
       <c r="C3" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="5" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1099,7 +1122,7 @@
       <c r="A6" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="4" t="s">
         <v>33</v>
       </c>
       <c r="C6" s="3" t="s">
@@ -1126,6 +1149,12 @@
       </c>
       <c r="B8" s="0" t="s">
         <v>23</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1174,16 +1203,16 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B38" activeCellId="0" sqref="B38"/>
+      <selection pane="topLeft" activeCell="D8" activeCellId="0" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.765306122449"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="32.265306122449"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="39.5510204081633"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="37.2602040816326"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.4948979591837"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="31.8571428571429"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="39.1479591836735"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="36.8520408163265"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1221,7 +1250,7 @@
       <c r="C3" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="5" t="s">
         <v>37</v>
       </c>
     </row>
@@ -1251,7 +1280,7 @@
       <c r="A6" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="4" t="s">
         <v>33</v>
       </c>
       <c r="C6" s="3" t="s">
@@ -1278,6 +1307,12 @@
       </c>
       <c r="B8" s="0" t="s">
         <v>23</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1326,16 +1361,16 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="D8" activeCellId="0" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.765306122449"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="32.265306122449"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="39.5510204081633"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="37.2602040816326"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.4948979591837"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="31.8571428571429"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="39.1479591836735"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="36.8520408163265"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1373,7 +1408,7 @@
       <c r="C3" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="5" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1403,7 +1438,7 @@
       <c r="A6" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="4" t="s">
         <v>42</v>
       </c>
       <c r="C6" s="3" t="s">
@@ -1430,6 +1465,12 @@
       </c>
       <c r="B8" s="0" t="s">
         <v>23</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1478,16 +1519,16 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="D8" activeCellId="0" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.765306122449"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="39.9591836734694"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="51.4336734693878"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="39.9591836734694"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.4948979591837"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="39.5510204081633"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="50.7551020408163"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="39.5510204081633"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1525,7 +1566,7 @@
       <c r="C3" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="5" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1555,7 +1596,7 @@
       <c r="A6" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="4" t="s">
         <v>42</v>
       </c>
       <c r="C6" s="3" t="s">
@@ -1582,6 +1623,12 @@
       </c>
       <c r="B8" s="0" t="s">
         <v>23</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1635,11 +1682,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.765306122449"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="39.9591836734694"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="51.4336734693878"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="39.9591836734694"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.4948979591837"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="39.5510204081633"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="50.7551020408163"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="39.5510204081633"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1677,7 +1724,7 @@
       <c r="C3" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="5" t="s">
         <v>50</v>
       </c>
     </row>
@@ -1707,7 +1754,7 @@
       <c r="A6" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="4" t="s">
         <v>42</v>
       </c>
       <c r="C6" s="3" t="s">
@@ -1734,6 +1781,9 @@
       </c>
       <c r="B8" s="0" t="s">
         <v>23</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1787,11 +1837,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.765306122449"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="39.9591836734694"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="51.4336734693878"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="39.9591836734694"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.4948979591837"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="39.5510204081633"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="50.7551020408163"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="39.5510204081633"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1829,7 +1879,7 @@
       <c r="C3" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="5" t="s">
         <v>53</v>
       </c>
     </row>
@@ -1859,7 +1909,7 @@
       <c r="A6" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="4" t="s">
         <v>42</v>
       </c>
       <c r="C6" s="3" t="s">
@@ -1886,6 +1936,9 @@
       </c>
       <c r="B8" s="0" t="s">
         <v>23</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1939,11 +1992,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.765306122449"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="39.9591836734694"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="51.4336734693878"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="39.9591836734694"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.4948979591837"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="39.5510204081633"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="50.7551020408163"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="39.5510204081633"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1981,7 +2034,7 @@
       <c r="C3" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="5" t="s">
         <v>54</v>
       </c>
     </row>
@@ -2011,7 +2064,7 @@
       <c r="A6" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="5"/>
+      <c r="B6" s="4"/>
       <c r="C6" s="3"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2032,6 +2085,9 @@
       </c>
       <c r="B8" s="0" t="s">
         <v>23</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/Projects/CCRU_SAND/Data/KPI_Source.xlsx
+++ b/Projects/CCRU_SAND/Data/KPI_Source.xlsx
@@ -5,14 +5,14 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Pos 2018 - FT" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Pos 2018 - MT - Convenience Big" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="Pos 2018 - MT - Convenience Small" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="Pos 2018 - MT - Hypermarket" sheetId="4" state="visible" r:id="rId5"/>
-    <sheet name="Pos 2018 - MT - Supermarket" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="Pos 2018 - MT - Hypermarket" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Pos 2018 - MT - Supermarket" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="Pos 2018 - MT - Convenience Big" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="Pos 2018 - MT - Convenience Small" sheetId="5" state="visible" r:id="rId6"/>
     <sheet name="Pos 2018 - HoReCa - Bar Tavern Night Clubs" sheetId="6" state="visible" r:id="rId7"/>
     <sheet name="Pos 2018 - HoReCa - Coffee Tea Shops" sheetId="7" state="visible" r:id="rId8"/>
     <sheet name="Pos 2018 - HoReCa - Restaurant Cafe" sheetId="8" state="visible" r:id="rId9"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="57">
   <si>
     <t xml:space="preserve">SOURCE</t>
   </si>
@@ -125,15 +125,36 @@
     <t xml:space="preserve">KPIs_2018/KPIConversion2018.xlsx</t>
   </si>
   <si>
+    <t xml:space="preserve">Pos 2018 - MT - Hypermarket</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KPIs_2018/Hypermarket PoS 2018.xlsx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spirits 2018 - MT - Convenience</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KPIs_2018/Hypermarket Spirits 2018.xlsx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pos 2018 - MT - Supermarket</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KPIs_2018/Supermarket PoS 2018.xlsx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spirits 2018 - MT - Supermarket</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KPIs_2018/Supermarket Spirits 2018.xlsx</t>
+  </si>
+  <si>
     <t xml:space="preserve">Pos 2018 - MT - Convenience Big</t>
   </si>
   <si>
     <t xml:space="preserve">KPIs_2018/Convenience Big PoS 2018.xlsx</t>
   </si>
   <si>
-    <t xml:space="preserve">Spirits 2018 - MT - Convenience</t>
-  </si>
-  <si>
     <t xml:space="preserve">KPIs_2018/Convenience Spirits 2018.xlsx</t>
   </si>
   <si>
@@ -143,36 +164,12 @@
     <t xml:space="preserve">KPIs_2018/Convenience Small PoS 2018.xlsx</t>
   </si>
   <si>
-    <t xml:space="preserve">Pos 2018 - MT - Hypermarket</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KPIs_2018/Hypermarket PoS 2018.xlsx</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KPIs_2018/Hypermarket Spirits 2018.xlsx</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pos 2018 - MT - Supermarket</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KPIs_2018/Supermarket PoS 2018.xlsx</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spirits 2018 - MT - Supermarket</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KPIs_2018/Supermarket Spirits 2018.xlsx</t>
-  </si>
-  <si>
     <t xml:space="preserve">Pos 2018 - HoReCa - Bar Tavern Night Clubs</t>
   </si>
   <si>
     <t xml:space="preserve">KPIs_2018/HoReCa Bar Tavern_Night Club PoS 2018.xlsx</t>
   </si>
   <si>
-    <t xml:space="preserve">Pos 2018 - HoReCa Bar</t>
-  </si>
-  <si>
     <t xml:space="preserve">KPIs_2018/HoReCa Spirits 2018.xlsx</t>
   </si>
   <si>
@@ -182,16 +179,10 @@
     <t xml:space="preserve">KPIs_2018/HoReCa Cofee_Tea Shops PoS 2018.xlsx</t>
   </si>
   <si>
-    <t xml:space="preserve">Pos 2018 - HoReCa Tea</t>
-  </si>
-  <si>
     <t xml:space="preserve">Pos 2018 - HoReCa - Restaurant Cafe</t>
   </si>
   <si>
     <t xml:space="preserve">KPIs_2018/HoReCa Restaurant_Cafe PoS 2018.xlsx</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pos 2018 - Horeca cafe</t>
   </si>
   <si>
     <t xml:space="preserve">Pos 2018 - Canteen</t>
@@ -282,8 +273,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC00"/>
-        <bgColor rgb="FFFFFF00"/>
+        <fgColor rgb="FF99FFFF"/>
+        <bgColor rgb="FFCCFFFF"/>
       </patternFill>
     </fill>
   </fills>
@@ -376,7 +367,7 @@
       <rgbColor rgb="FF9999FF"/>
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FFFFFFCC"/>
-      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF99FFFF"/>
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF8080"/>
       <rgbColor rgb="FF0066CC"/>
@@ -426,16 +417,16 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
+      <selection pane="topLeft" activeCell="C8" activeCellId="0" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.4948979591837"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.0816326530612"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="39.1479591836735"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="14.8469387755102"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.2244897959184"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.8112244897959"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="38.6071428571429"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="14.5816326530612"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -506,7 +497,7 @@
       <c r="B6" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="5" t="s">
         <v>18</v>
       </c>
     </row>
@@ -584,16 +575,16 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C15" activeCellId="0" sqref="C15"/>
+      <selection pane="topLeft" activeCell="D19" activeCellId="0" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.4948979591837"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="39.5510204081633"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="50.7551020408163"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="39.5510204081633"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.2244897959184"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="39.1479591836735"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="50.0816326530612"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="39.1479591836735"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -615,10 +606,10 @@
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -631,8 +622,8 @@
       <c r="C3" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="5" t="s">
-        <v>56</v>
+      <c r="D3" s="2" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -661,8 +652,6 @@
       <c r="A6" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="3"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
@@ -674,7 +663,9 @@
       <c r="C7" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="2"/>
+      <c r="D7" s="2" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
@@ -685,6 +676,9 @@
       </c>
       <c r="C8" s="0" t="s">
         <v>21</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -733,16 +727,16 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D12" activeCellId="0" sqref="D12"/>
+      <selection pane="topLeft" activeCell="C20" activeCellId="0" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.4948979591837"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="39.5510204081633"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="50.7551020408163"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="39.5510204081633"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.2244897959184"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="39.1479591836735"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="50.0816326530612"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="39.1479591836735"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -764,10 +758,10 @@
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -780,8 +774,8 @@
       <c r="C3" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="5" t="s">
-        <v>58</v>
+      <c r="D3" s="2" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -810,8 +804,6 @@
       <c r="A6" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="3"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
@@ -824,7 +816,7 @@
         <v>21</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -838,7 +830,7 @@
         <v>21</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -886,17 +878,17 @@
   </sheetPr>
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D8" activeCellId="0" sqref="D8"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.4948979591837"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.8316326530612"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="39.1479591836735"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="36.8520408163265"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.2244897959184"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="31.4540816326531"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="38.6071428571429"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="36.4489795918367"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -934,7 +926,7 @@
       <c r="C3" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="2" t="s">
         <v>31</v>
       </c>
     </row>
@@ -967,7 +959,7 @@
       <c r="B6" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="5" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1044,17 +1036,17 @@
   </sheetPr>
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D13" activeCellId="0" sqref="D13"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D16" activeCellId="0" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.4948979591837"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="31.8571428571429"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="39.1479591836735"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="36.8520408163265"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.2244897959184"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="31.4540816326531"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="38.6071428571429"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="36.4489795918367"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1092,7 +1084,7 @@
       <c r="C3" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="2" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1123,10 +1115,10 @@
         <v>16</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>34</v>
+        <v>37</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1202,17 +1194,17 @@
   </sheetPr>
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D8" activeCellId="0" sqref="D8"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.4948979591837"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="31.8571428571429"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="39.1479591836735"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="36.8520408163265"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.2244897959184"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.4285714285714"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="38.6071428571429"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="36.4489795918367"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1234,10 +1226,10 @@
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1250,8 +1242,8 @@
       <c r="C3" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="5" t="s">
-        <v>37</v>
+      <c r="D3" s="2" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1283,8 +1275,8 @@
       <c r="B6" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>39</v>
+      <c r="C6" s="5" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1298,7 +1290,7 @@
         <v>21</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1312,7 +1304,7 @@
         <v>21</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1360,17 +1352,17 @@
   </sheetPr>
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D8" activeCellId="0" sqref="D8"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.4948979591837"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="31.8571428571429"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="39.1479591836735"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="36.8520408163265"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.2244897959184"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="31.4540816326531"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="38.6071428571429"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="36.4489795918367"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1392,10 +1384,10 @@
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1408,8 +1400,8 @@
       <c r="C3" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="5" t="s">
-        <v>40</v>
+      <c r="D3" s="2" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1439,10 +1431,10 @@
         <v>16</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>43</v>
+        <v>33</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1456,7 +1448,7 @@
         <v>21</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1470,7 +1462,7 @@
         <v>21</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1518,17 +1510,17 @@
   </sheetPr>
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D8" activeCellId="0" sqref="D8"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.4948979591837"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="39.5510204081633"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="50.7551020408163"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="39.5510204081633"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.2244897959184"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="39.1479591836735"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="50.0816326530612"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="39.1479591836735"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1566,8 +1558,8 @@
       <c r="C3" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="5" t="s">
-        <v>46</v>
+      <c r="D3" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1597,10 +1589,10 @@
         <v>16</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>47</v>
+        <v>37</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1676,17 +1668,17 @@
   </sheetPr>
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D11" activeCellId="0" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.4948979591837"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="39.5510204081633"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="50.7551020408163"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="39.5510204081633"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.2244897959184"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="39.1479591836735"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="50.0816326530612"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="39.1479591836735"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1708,10 +1700,10 @@
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>48</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1724,8 +1716,8 @@
       <c r="C3" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="5" t="s">
-        <v>50</v>
+      <c r="D3" s="2" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1755,10 +1747,10 @@
         <v>16</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>47</v>
+        <v>37</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1772,7 +1764,7 @@
         <v>21</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1784,6 +1776,9 @@
       </c>
       <c r="C8" s="0" t="s">
         <v>21</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1831,17 +1826,17 @@
   </sheetPr>
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D15" activeCellId="0" sqref="D15"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C15" activeCellId="0" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.4948979591837"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="39.5510204081633"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="50.7551020408163"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="39.5510204081633"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.2244897959184"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="39.1479591836735"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="50.0816326530612"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="39.1479591836735"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1863,10 +1858,10 @@
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1879,8 +1874,8 @@
       <c r="C3" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="5" t="s">
-        <v>53</v>
+      <c r="D3" s="2" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1910,10 +1905,10 @@
         <v>16</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>47</v>
+        <v>37</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1927,7 +1922,7 @@
         <v>21</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1939,6 +1934,9 @@
       </c>
       <c r="C8" s="0" t="s">
         <v>21</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1987,16 +1985,16 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D7" activeCellId="0" sqref="D7"/>
+      <selection pane="topLeft" activeCell="C17" activeCellId="0" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.4948979591837"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="39.5510204081633"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="50.7551020408163"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="39.5510204081633"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.2244897959184"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="39.1479591836735"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="50.0816326530612"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="39.1479591836735"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2018,10 +2016,10 @@
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2034,8 +2032,8 @@
       <c r="C3" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="5" t="s">
-        <v>54</v>
+      <c r="D3" s="2" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2064,8 +2062,6 @@
       <c r="A6" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="3"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
@@ -2077,7 +2073,9 @@
       <c r="C7" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="2"/>
+      <c r="D7" s="2" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
@@ -2088,6 +2086,9 @@
       </c>
       <c r="C8" s="0" t="s">
         <v>21</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/Projects/CCRU_SAND/Data/KPI_Source.xlsx
+++ b/Projects/CCRU_SAND/Data/KPI_Source.xlsx
@@ -5,20 +5,41 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="11" activeTab="11"/>
   </bookViews>
   <sheets>
-    <sheet name="Pos 2018 - FT" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Pos 2018 - MT - Hypermarket" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="Pos 2018 - MT - Supermarket" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="Pos 2018 - MT - Convenience Big" sheetId="4" state="visible" r:id="rId5"/>
-    <sheet name="Pos 2018 - MT - Convenience Small" sheetId="5" state="visible" r:id="rId6"/>
-    <sheet name="Pos 2018 - HoReCa - Bar Tavern Night Clubs" sheetId="6" state="visible" r:id="rId7"/>
-    <sheet name="Pos 2018 - HoReCa - Coffee Tea Shops" sheetId="7" state="visible" r:id="rId8"/>
-    <sheet name="Pos 2018 - HoReCa - Restaurant Cafe" sheetId="8" state="visible" r:id="rId9"/>
-    <sheet name="Pos 2018 - Canteen" sheetId="9" state="visible" r:id="rId10"/>
-    <sheet name="Pos 2018 - Petroleum" sheetId="10" state="visible" r:id="rId11"/>
-    <sheet name="Pos 2018 - QSR" sheetId="11" state="visible" r:id="rId12"/>
+    <sheet name="Pos 2018 - FT" sheetId="1" state="hidden" r:id="rId2"/>
+    <sheet name="Pos 2018 - MT - Hypermarket" sheetId="2" state="hidden" r:id="rId3"/>
+    <sheet name="Pos 2018 - MT - Supermarket" sheetId="3" state="hidden" r:id="rId4"/>
+    <sheet name="Pos 2018 - MT - Convenience Big" sheetId="4" state="hidden" r:id="rId5"/>
+    <sheet name="Pos 2018 - MT - Convenience Small" sheetId="5" state="hidden" r:id="rId6"/>
+    <sheet name="Pos 2018 - HoReCa - Bar Tavern Night Clubs" sheetId="6" state="hidden" r:id="rId7"/>
+    <sheet name="Pos 2018 - HoReCa - Coffee Tea Shops" sheetId="7" state="hidden" r:id="rId8"/>
+    <sheet name="Pos 2018 - HoReCa - Restaurant Cafe" sheetId="8" state="hidden" r:id="rId9"/>
+    <sheet name="Pos 2018 - Canteen" sheetId="9" state="hidden" r:id="rId10"/>
+    <sheet name="Pos 2018 - Petroleum" sheetId="10" state="hidden" r:id="rId11"/>
+    <sheet name="Pos 2018 - QSR" sheetId="11" state="hidden" r:id="rId12"/>
+    <sheet name="PoS 2019 - FT - CAP" sheetId="12" state="visible" r:id="rId13"/>
+    <sheet name="PoS 2019 - FT - REG" sheetId="13" state="visible" r:id="rId14"/>
+    <sheet name="PoS 2019 - FT NS - CAP" sheetId="14" state="visible" r:id="rId15"/>
+    <sheet name="PoS 2019 - FT NS - REG" sheetId="15" state="visible" r:id="rId16"/>
+    <sheet name="PoS 2019 - IC Canteen - EDU" sheetId="16" state="visible" r:id="rId17"/>
+    <sheet name="PoS 2019 - IC Canteen - OTH" sheetId="17" state="visible" r:id="rId18"/>
+    <sheet name="PoS 2019 - IC HoReCa BarTavernClub - CAP" sheetId="18" state="visible" r:id="rId19"/>
+    <sheet name="PoS 2019 - IC HoReCa BarTavernClub - REG" sheetId="19" state="visible" r:id="rId20"/>
+    <sheet name="PoS 2019 - IC HoReCa RestCafeTea - CAP" sheetId="20" state="visible" r:id="rId21"/>
+    <sheet name="PoS 2019 - IC HoReCa RestCafeTea - REG" sheetId="21" state="visible" r:id="rId22"/>
+    <sheet name="PoS 2019 - IC Petroleum - CAP" sheetId="22" state="visible" r:id="rId23"/>
+    <sheet name="PoS 2019 - IC Petroleum - REG" sheetId="23" state="visible" r:id="rId24"/>
+    <sheet name="PoS 2019 - IC QSR" sheetId="24" state="visible" r:id="rId25"/>
+    <sheet name="PoS 2019 - MT Conv Big - CAP" sheetId="25" state="visible" r:id="rId26"/>
+    <sheet name="PoS 2019 - MT Conv Big - REG" sheetId="26" state="visible" r:id="rId27"/>
+    <sheet name="PoS 2019 - MT Conv Small - CAP" sheetId="27" state="visible" r:id="rId28"/>
+    <sheet name="PoS 2019 - MT Conv Small - REG" sheetId="28" state="visible" r:id="rId29"/>
+    <sheet name="PoS 2019 - MT Hypermarket - CAP" sheetId="29" state="visible" r:id="rId30"/>
+    <sheet name="PoS 2019 - MT Hypermarket - REG" sheetId="30" state="visible" r:id="rId31"/>
+    <sheet name="PoS 2019 - MT Supermarket - CAP" sheetId="31" state="visible" r:id="rId32"/>
+    <sheet name="PoS 2019 - MT Supermarket - REG" sheetId="32" state="visible" r:id="rId33"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -30,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1104" uniqueCount="101">
   <si>
     <t xml:space="preserve">SOURCE</t>
   </si>
@@ -131,30 +152,33 @@
     <t xml:space="preserve">KPIs_2018/Hypermarket PoS 2018.xlsx</t>
   </si>
   <si>
+    <t xml:space="preserve">Spirits 2018 - MT - Hypermarket</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KPIs_2018/Hypermarket Spirits 2018.xlsx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pos 2018 - MT - Supermarket</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KPIs_2018/Supermarket PoS 2018.xlsx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spirits 2018 - MT - Supermarket</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KPIs_2018/Supermarket Spirits 2018.xlsx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pos 2018 - MT - Convenience Big</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KPIs_2018/Convenience Big PoS 2018.xlsx</t>
+  </si>
+  <si>
     <t xml:space="preserve">Spirits 2018 - MT - Convenience</t>
   </si>
   <si>
-    <t xml:space="preserve">KPIs_2018/Hypermarket Spirits 2018.xlsx</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pos 2018 - MT - Supermarket</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KPIs_2018/Supermarket PoS 2018.xlsx</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spirits 2018 - MT - Supermarket</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KPIs_2018/Supermarket Spirits 2018.xlsx</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pos 2018 - MT - Convenience Big</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KPIs_2018/Convenience Big PoS 2018.xlsx</t>
-  </si>
-  <si>
     <t xml:space="preserve">KPIs_2018/Convenience Spirits 2018.xlsx</t>
   </si>
   <si>
@@ -170,6 +194,9 @@
     <t xml:space="preserve">KPIs_2018/HoReCa Bar Tavern_Night Club PoS 2018.xlsx</t>
   </si>
   <si>
+    <t xml:space="preserve">Spirits 2018 - MT - HoReCa</t>
+  </si>
+  <si>
     <t xml:space="preserve">KPIs_2018/HoReCa Spirits 2018.xlsx</t>
   </si>
   <si>
@@ -201,6 +228,132 @@
   </si>
   <si>
     <t xml:space="preserve">KPIs_2018/QSR PoS 2018.xlsx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PoS 2019 - FT - CAP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KPIs_2019/PoS 2019 - FT - CAP.xlsx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PoS 2019 - FT - REG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KPIs_2019/PoS 2019 - FT - REG.xlsx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PoS 2019 - FT NS - CAP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KPIs_2019/PoS 2019 - FT NS - CAP.xlsx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PoS 2019 - FT NS - REG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KPIs_2019/PoS 2019 - FT NS - REG.xlsx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PoS 2019 - IC Canteen - EDU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KPIs_2019/PoS 2019 - IC Canteen - EDU.xlsx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PoS 2019 - IC Canteen - OTH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KPIs_2019/PoS 2019 - IC Canteen - OTH.xlsx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PoS 2019 - IC HoReCa BarTavernClub - CAP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KPIs_2019/PoS 2019 - IC HoReCa BarTavernClub - CAP.xlsx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PoS 2019 - IC HoReCa BarTavernClub - REG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KPIs_2019/PoS 2019 - IC HoReCa BarTavernClub - REG.xlsx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PoS 2019 - IC HoReCa RestCafeTea - CAP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KPIs_2019/PoS 2019 - IC HoReCa RestCafeTea - CAP.xlsx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PoS 2019 - IC HoReCa RestCafeTea - REG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KPIs_2019/PoS 2019 - IC HoReCa RestCafeTea - REG.xlsx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PoS 2019 - IC Petroleum - CAP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KPIs_2019/PoS 2019 - IC Petroleum - CAP.xlsx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PoS 2019 - IC Petroleum - REG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KPIs_2019/PoS 2019 - IC Petroleum - REG.xlsx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PoS 2019 - IC QSR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KPIs_2019/PoS 2019 - IC QSR.xlsx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PoS 2019 - MT Conv Big - CAP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KPIs_2019/PoS 2019 - MT Conv Big - CAP.xlsx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PoS 2019 - MT Conv Big - REG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KPIs_2019/PoS 2019 - MT Conv Big - REG.xlsx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PoS 2019 - MT Conv Small - CAP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KPIs_2019/PoS 2019 - MT Conv Small - CAP.xlsx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PoS 2019 - MT Conv Small - REG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KPIs_2019/PoS 2019 - MT Conv Small - REG.xlsx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PoS 2019 - MT Hypermarket - CAP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KPIs_2019/PoS 2019 - MT Hypermarket - CAP.xlsx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PoS 2019 - MT Hypermarket - REG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KPIs_2019/PoS 2019 - MT Hypermarket - REG.xlsx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PoS 2019 - MT Supermarket - CAP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KPIs_2019/PoS 2019 - MT Supermarket - CAP.xlsx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PoS 2019 - MT Supermarket - REG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KPIs_2019/PoS 2019 - MT Supermarket - REG.xlsx</t>
   </si>
 </sst>
 </file>
@@ -416,17 +569,17 @@
   </sheetPr>
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C8" activeCellId="0" sqref="C8"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.2244897959184"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.8112244897959"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="38.6071428571429"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="14.5816326530612"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.8214285714286"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.2755102040816"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="37.5255102040816"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="14.0408163265306"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -580,11 +733,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.2244897959184"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="39.1479591836735"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="50.0816326530612"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="39.1479591836735"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.8214285714286"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="38.0663265306122"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="49"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="38.0663265306122"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -606,10 +759,10 @@
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -623,7 +776,7 @@
         <v>9</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -664,7 +817,7 @@
         <v>21</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -678,7 +831,7 @@
         <v>21</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -732,11 +885,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.2244897959184"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="39.1479591836735"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="50.0816326530612"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="39.1479591836735"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.8214285714286"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="38.0663265306122"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="49"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="38.0663265306122"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -758,10 +911,10 @@
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -775,7 +928,7 @@
         <v>9</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -816,7 +969,7 @@
         <v>21</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -830,7 +983,1259 @@
         <v>21</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:D11"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.4132653061224"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.9489795918367"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="34.2857142857143"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.9591836734694"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="11.3418367346939"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:D11"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.4132653061224"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.9489795918367"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="34.2857142857143"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.9591836734694"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="11.3418367346939"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:D11"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F9" activeCellId="0" sqref="F9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.4132653061224"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.9489795918367"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="34.2857142857143"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.9591836734694"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="11.3418367346939"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:D11"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.4132653061224"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.9489795918367"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="34.2857142857143"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.9591836734694"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="11.3418367346939"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:D11"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E13" activeCellId="0" sqref="E13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.4132653061224"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.2448979591837"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="42.6581632653061"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.9591836734694"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="11.3418367346939"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:D11"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C14" activeCellId="0" sqref="C14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.4132653061224"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.2448979591837"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="42.6581632653061"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.9591836734694"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="11.3418367346939"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:D11"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C11" activeCellId="0" sqref="C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.4132653061224"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="37.3928571428571"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="50.6224489795918"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.9591836734694"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="11.3418367346939"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:D11"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E31" activeCellId="0" sqref="E31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.4132653061224"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="37.3928571428571"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="50.6224489795918"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.9591836734694"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="11.3418367346939"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -878,17 +2283,17 @@
   </sheetPr>
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.2244897959184"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="31.4540816326531"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="38.6071428571429"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="36.4489795918367"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.8214285714286"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="30.6428571428571"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="37.5255102040816"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="35.3673469387755"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -914,6 +2319,1568 @@
       </c>
       <c r="C2" s="3" t="s">
         <v>32</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:D11"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D8" activeCellId="0" sqref="D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.4132653061224"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="37.3928571428571"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="50.6224489795918"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.9591836734694"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="11.3418367346939"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:D11"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.4132653061224"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="37.3928571428571"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="50.6224489795918"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.9591836734694"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="11.3418367346939"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:D11"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.8214285714286"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="38.0663265306122"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="49"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="38.0663265306122"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.50510204081633"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:D11"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C10" activeCellId="0" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.8214285714286"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="38.0663265306122"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="49"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="38.0663265306122"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.50510204081633"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:D11"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.8214285714286"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="38.0663265306122"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="49"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="38.0663265306122"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.50510204081633"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:D11"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.8214285714286"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="28.6173469387755"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="39.5510204081633"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="35.3673469387755"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.50510204081633"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:D11"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.8214285714286"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="28.6173469387755"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="39.5510204081633"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="35.3673469387755"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.50510204081633"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:D11"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D15" activeCellId="0" sqref="D15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.8214285714286"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="28.6173469387755"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="41.4438775510204"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="35.3673469387755"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.50510204081633"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:D11"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C19" activeCellId="0" sqref="C19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.8214285714286"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="28.6173469387755"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="41.4438775510204"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="35.3673469387755"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.50510204081633"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:D11"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.8214285714286"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="30.6428571428571"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="37.5255102040816"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="35.3673469387755"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.50510204081633"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1036,17 +4003,17 @@
   </sheetPr>
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D16" activeCellId="0" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.2244897959184"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="31.4540816326531"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="38.6071428571429"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="36.4489795918367"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.8214285714286"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="30.6428571428571"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="37.5255102040816"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="35.3673469387755"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1072,6 +4039,480 @@
       </c>
       <c r="C2" s="3" t="s">
         <v>36</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:D11"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.8214285714286"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="30.6428571428571"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="37.5255102040816"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="35.3673469387755"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.50510204081633"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:D11"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.8214285714286"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="30.6428571428571"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="42.9285714285714"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="35.3673469387755"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.50510204081633"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:D11"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.8214285714286"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="30.6428571428571"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="43.3316326530612"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="35.3673469387755"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.50510204081633"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1194,17 +4635,17 @@
   </sheetPr>
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.2244897959184"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.4285714285714"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="38.6071428571429"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="36.4489795918367"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.8214285714286"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="28.6173469387755"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="37.5255102040816"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="35.3673469387755"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1273,10 +4714,10 @@
         <v>16</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1352,17 +4793,17 @@
   </sheetPr>
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.2244897959184"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="31.4540816326531"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="38.6071428571429"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="36.4489795918367"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.8214285714286"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="30.6428571428571"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="37.5255102040816"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="35.3673469387755"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1384,10 +4825,10 @@
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1401,7 +4842,7 @@
         <v>9</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1431,10 +4872,10 @@
         <v>16</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1448,7 +4889,7 @@
         <v>21</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1462,7 +4903,7 @@
         <v>21</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1510,17 +4951,17 @@
   </sheetPr>
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.2244897959184"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="39.1479591836735"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="50.0816326530612"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="39.1479591836735"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.8214285714286"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="38.0663265306122"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="49"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="38.0663265306122"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1542,10 +4983,10 @@
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1559,7 +5000,7 @@
         <v>9</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1589,10 +5030,10 @@
         <v>16</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1606,7 +5047,7 @@
         <v>21</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1620,7 +5061,7 @@
         <v>21</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1668,17 +5109,17 @@
   </sheetPr>
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D11" activeCellId="0" sqref="D11"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.2244897959184"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="39.1479591836735"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="50.0816326530612"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="39.1479591836735"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.8214285714286"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="38.0663265306122"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="49"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="38.0663265306122"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1700,10 +5141,10 @@
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1717,7 +5158,7 @@
         <v>9</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1747,10 +5188,10 @@
         <v>16</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1764,7 +5205,7 @@
         <v>21</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1778,7 +5219,7 @@
         <v>21</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1826,17 +5267,17 @@
   </sheetPr>
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C15" activeCellId="0" sqref="C15"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.2244897959184"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="39.1479591836735"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="50.0816326530612"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="39.1479591836735"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.8214285714286"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="38.0663265306122"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="49"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="38.0663265306122"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1858,10 +5299,10 @@
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1875,7 +5316,7 @@
         <v>9</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1905,10 +5346,10 @@
         <v>16</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1922,7 +5363,7 @@
         <v>21</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1936,7 +5377,7 @@
         <v>21</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1985,16 +5426,16 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C17" activeCellId="0" sqref="C17"/>
+      <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.2244897959184"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="39.1479591836735"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="50.0816326530612"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="39.1479591836735"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.8214285714286"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="38.0663265306122"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="49"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="38.0663265306122"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2016,10 +5457,10 @@
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2033,7 +5474,7 @@
         <v>9</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2074,7 +5515,7 @@
         <v>21</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2088,7 +5529,7 @@
         <v>21</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/Projects/CCRU_SAND/Data/KPI_Source.xlsx
+++ b/Projects/CCRU_SAND/Data/KPI_Source.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="11" activeTab="11"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="11" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="Pos 2018 - FT" sheetId="1" state="hidden" r:id="rId2"/>
@@ -194,7 +194,7 @@
     <t xml:space="preserve">KPIs_2018/HoReCa Bar Tavern_Night Club PoS 2018.xlsx</t>
   </si>
   <si>
-    <t xml:space="preserve">Spirits 2018 - MT - HoReCa</t>
+    <t xml:space="preserve">Spirits 2018 - HoReCa</t>
   </si>
   <si>
     <t xml:space="preserve">KPIs_2018/HoReCa Spirits 2018.xlsx</t>
@@ -575,11 +575,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.8214285714286"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.2755102040816"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="37.5255102040816"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="14.0408163265306"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.5510204081633"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.0051020408163"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="37.1224489795918"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.7704081632653"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -733,11 +733,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.8214285714286"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="38.0663265306122"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="49"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="38.0663265306122"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.5510204081633"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="37.5255102040816"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="48.4642857142857"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="37.5255102040816"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -885,11 +885,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.8214285714286"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="38.0663265306122"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="49"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="38.0663265306122"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.5510204081633"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="37.5255102040816"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="48.4642857142857"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="37.5255102040816"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1032,16 +1032,15 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.4132653061224"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.9489795918367"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="34.2857142857143"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.9591836734694"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.1428571428571"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.6785714285714"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="33.8826530612245"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.8265306122449"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1195,11 +1194,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.4132653061224"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.9489795918367"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="34.2857142857143"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.9591836734694"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.1428571428571"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.6785714285714"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="33.8826530612245"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.8265306122449"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1353,11 +1351,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.4132653061224"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.9489795918367"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="34.2857142857143"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.9591836734694"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.1428571428571"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.6785714285714"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="33.8826530612245"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.8265306122449"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1511,11 +1508,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.4132653061224"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.9489795918367"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="34.2857142857143"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.9591836734694"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.1428571428571"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.6785714285714"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="33.8826530612245"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.8265306122449"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1669,11 +1665,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.4132653061224"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.2448979591837"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="42.6581632653061"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.9591836734694"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.1428571428571"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.9744897959184"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="42.25"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.8265306122449"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1821,11 +1816,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.4132653061224"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.2448979591837"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="42.6581632653061"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.9591836734694"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.1428571428571"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.9744897959184"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="42.25"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.8265306122449"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1968,16 +1962,15 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C11" activeCellId="0" sqref="C11"/>
+      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.4132653061224"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="37.3928571428571"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="50.6224489795918"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.9591836734694"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.1428571428571"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="36.9897959183673"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="49.9489795918367"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.8265306122449"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2126,16 +2119,15 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E31" activeCellId="0" sqref="E31"/>
+      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.4132653061224"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="37.3928571428571"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="50.6224489795918"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.9591836734694"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.1428571428571"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="36.9897959183673"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="49.9489795918367"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.8265306122449"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2289,11 +2281,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.8214285714286"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="30.6428571428571"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="37.5255102040816"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="35.3673469387755"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.5510204081633"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="30.2397959183673"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="37.1224489795918"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="34.9642857142857"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2442,16 +2434,15 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D8" activeCellId="0" sqref="D8"/>
+      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.4132653061224"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="37.3928571428571"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="50.6224489795918"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.9591836734694"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.1428571428571"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="36.9897959183673"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="49.9489795918367"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.8265306122449"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2600,16 +2591,15 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
+      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.4132653061224"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="37.3928571428571"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="50.6224489795918"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.9591836734694"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.1428571428571"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="36.9897959183673"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="49.9489795918367"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.8265306122449"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2763,11 +2753,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.8214285714286"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="38.0663265306122"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="49"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="38.0663265306122"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.5510204081633"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="37.5255102040816"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="48.4642857142857"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="37.5255102040816"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2915,11 +2905,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.8214285714286"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="38.0663265306122"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="49"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="38.0663265306122"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.5510204081633"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="37.5255102040816"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="48.4642857142857"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="37.5255102040816"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3067,11 +3057,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.8214285714286"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="38.0663265306122"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="49"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="38.0663265306122"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.5510204081633"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="37.5255102040816"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="48.4642857142857"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="37.5255102040816"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3219,11 +3209,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.8214285714286"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="28.6173469387755"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="39.5510204081633"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="35.3673469387755"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.5510204081633"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="28.2142857142857"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="39.1479591836735"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="34.9642857142857"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3377,11 +3367,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.8214285714286"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="28.6173469387755"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="39.5510204081633"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="35.3673469387755"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.5510204081633"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="28.2142857142857"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="39.1479591836735"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="34.9642857142857"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3535,11 +3525,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.8214285714286"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="28.6173469387755"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="41.4438775510204"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="35.3673469387755"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.5510204081633"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="28.2142857142857"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="40.9030612244898"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="34.9642857142857"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3693,11 +3683,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.8214285714286"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="28.6173469387755"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="41.4438775510204"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="35.3673469387755"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.5510204081633"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="28.2142857142857"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="40.9030612244898"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="34.9642857142857"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3851,11 +3841,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.8214285714286"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="30.6428571428571"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="37.5255102040816"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="35.3673469387755"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.5510204081633"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="30.2397959183673"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="37.1224489795918"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="34.9642857142857"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4009,11 +3999,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.8214285714286"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="30.6428571428571"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="37.5255102040816"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="35.3673469387755"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.5510204081633"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="30.2397959183673"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="37.1224489795918"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="34.9642857142857"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4167,11 +4157,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.8214285714286"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="30.6428571428571"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="37.5255102040816"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="35.3673469387755"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.5510204081633"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="30.2397959183673"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="37.1224489795918"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="34.9642857142857"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4325,11 +4315,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.8214285714286"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="30.6428571428571"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="42.9285714285714"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="35.3673469387755"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.5510204081633"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="30.2397959183673"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="42.3877551020408"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="34.9642857142857"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4483,11 +4473,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.8214285714286"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="30.6428571428571"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="43.3316326530612"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="35.3673469387755"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.5510204081633"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="30.2397959183673"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="42.7908163265306"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="34.9642857142857"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4641,11 +4631,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.8214285714286"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="28.6173469387755"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="37.5255102040816"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="35.3673469387755"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.5510204081633"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="28.2142857142857"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="37.1224489795918"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="34.9642857142857"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4799,11 +4789,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.8214285714286"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="30.6428571428571"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="37.5255102040816"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="35.3673469387755"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.5510204081633"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="30.2397959183673"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="37.1224489795918"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="34.9642857142857"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4952,16 +4942,16 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
+      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.8214285714286"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="38.0663265306122"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="49"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="38.0663265306122"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.5510204081633"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="37.5255102040816"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="48.4642857142857"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="37.5255102040816"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5110,16 +5100,16 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
+      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.8214285714286"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="38.0663265306122"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="49"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="38.0663265306122"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.5510204081633"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="37.5255102040816"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="48.4642857142857"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="37.5255102040816"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5268,16 +5258,16 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
+      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.8214285714286"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="38.0663265306122"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="49"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="38.0663265306122"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.5510204081633"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="37.5255102040816"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="48.4642857142857"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="37.5255102040816"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5431,11 +5421,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.8214285714286"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="38.0663265306122"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="49"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="38.0663265306122"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.5510204081633"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="37.5255102040816"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="48.4642857142857"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="37.5255102040816"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/Projects/CCRU_SAND/Data/KPI_Source.xlsx
+++ b/Projects/CCRU_SAND/Data/KPI_Source.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="11" activeTab="11"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="11" activeTab="23"/>
   </bookViews>
   <sheets>
     <sheet name="Pos 2018 - FT" sheetId="1" state="hidden" r:id="rId2"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1104" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1022" uniqueCount="113">
   <si>
     <t xml:space="preserve">SOURCE</t>
   </si>
@@ -260,6 +260,27 @@
     <t xml:space="preserve">KPIs_2019/PoS 2019 - IC Canteen - EDU.xlsx</t>
   </si>
   <si>
+    <t xml:space="preserve">Target Execution 2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KPIs_2019/Target Execution 2019.xlsx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contract Execution 2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KPIs_2019/Contract Execution 2019.xlsx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IC - Canteen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Equipment Execution 2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KPIs_2019/KPIConversion2019.xlsx</t>
+  </si>
+  <si>
     <t xml:space="preserve">PoS 2019 - IC Canteen - OTH</t>
   </si>
   <si>
@@ -272,6 +293,9 @@
     <t xml:space="preserve">KPIs_2019/PoS 2019 - IC HoReCa BarTavernClub - CAP.xlsx</t>
   </si>
   <si>
+    <t xml:space="preserve">IC - HoReCa All</t>
+  </si>
+  <si>
     <t xml:space="preserve">PoS 2019 - IC HoReCa BarTavernClub - REG</t>
   </si>
   <si>
@@ -296,6 +320,9 @@
     <t xml:space="preserve">KPIs_2019/PoS 2019 - IC Petroleum - CAP.xlsx</t>
   </si>
   <si>
+    <t xml:space="preserve">IC - Petroleum</t>
+  </si>
+  <si>
     <t xml:space="preserve">PoS 2019 - IC Petroleum - REG</t>
   </si>
   <si>
@@ -308,12 +335,18 @@
     <t xml:space="preserve">KPIs_2019/PoS 2019 - IC QSR.xlsx</t>
   </si>
   <si>
+    <t xml:space="preserve">IC - QSR</t>
+  </si>
+  <si>
     <t xml:space="preserve">PoS 2019 - MT Conv Big - CAP</t>
   </si>
   <si>
     <t xml:space="preserve">KPIs_2019/PoS 2019 - MT Conv Big - CAP.xlsx</t>
   </si>
   <si>
+    <t xml:space="preserve">MT - Conv All</t>
+  </si>
+  <si>
     <t xml:space="preserve">PoS 2019 - MT Conv Big - REG</t>
   </si>
   <si>
@@ -336,6 +369,9 @@
   </si>
   <si>
     <t xml:space="preserve">KPIs_2019/PoS 2019 - MT Hypermarket - CAP.xlsx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MT - Hyper-Super</t>
   </si>
   <si>
     <t xml:space="preserve">PoS 2019 - MT Hypermarket - REG</t>
@@ -575,11 +611,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.5510204081633"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.0051020408163"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="37.1224489795918"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.7704081632653"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.280612244898"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.734693877551"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="36.719387755102"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.5"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -733,11 +769,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.5510204081633"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="37.5255102040816"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="48.4642857142857"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="37.5255102040816"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.280612244898"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="37.1224489795918"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="47.7857142857143"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="37.1224489795918"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -885,11 +921,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.5510204081633"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="37.5255102040816"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="48.4642857142857"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="37.5255102040816"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.280612244898"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="37.1224489795918"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="47.7857142857143"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="37.1224489795918"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1031,16 +1067,17 @@
   </sheetPr>
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E8" activeCellId="0" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.1428571428571"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.6785714285714"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="33.8826530612245"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.8265306122449"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.8724489795918"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.4081632653061"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="33.4795918367347"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.6887755102041"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1086,23 +1123,11 @@
       <c r="A4" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>12</v>
-      </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>15</v>
-      </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
@@ -1119,29 +1144,11 @@
       <c r="A7" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>5</v>
-      </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>5</v>
-      </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
@@ -1162,12 +1169,6 @@
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
         <v>28</v>
-      </c>
-      <c r="B11" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="C11" s="0" t="s">
-        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -1194,10 +1195,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.1428571428571"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.6785714285714"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="33.8826530612245"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.8265306122449"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.8724489795918"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.4081632653061"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="33.4795918367347"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.6887755102041"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1243,23 +1245,11 @@
       <c r="A4" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>12</v>
-      </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>15</v>
-      </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
@@ -1276,29 +1266,11 @@
       <c r="A7" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>5</v>
-      </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>5</v>
-      </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
@@ -1319,12 +1291,6 @@
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
         <v>28</v>
-      </c>
-      <c r="B11" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="C11" s="0" t="s">
-        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -1351,10 +1317,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.1428571428571"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.6785714285714"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="33.8826530612245"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.8265306122449"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.8724489795918"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.4081632653061"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="33.4795918367347"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.6887755102041"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1400,23 +1367,11 @@
       <c r="A4" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>12</v>
-      </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>15</v>
-      </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
@@ -1433,29 +1388,11 @@
       <c r="A7" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>5</v>
-      </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>5</v>
-      </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
@@ -1476,12 +1413,6 @@
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
         <v>28</v>
-      </c>
-      <c r="B11" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="C11" s="0" t="s">
-        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -1508,10 +1439,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.1428571428571"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.6785714285714"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="33.8826530612245"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.8265306122449"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.8724489795918"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.4081632653061"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="33.4795918367347"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.6887755102041"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1557,23 +1489,11 @@
       <c r="A4" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>12</v>
-      </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>15</v>
-      </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
@@ -1590,29 +1510,11 @@
       <c r="A7" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>5</v>
-      </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>5</v>
-      </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
@@ -1633,12 +1535,6 @@
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
         <v>28</v>
-      </c>
-      <c r="B11" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="C11" s="0" t="s">
-        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -1660,15 +1556,16 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E13" activeCellId="0" sqref="E13"/>
+      <selection pane="topLeft" activeCell="D10" activeCellId="0" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.1428571428571"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.9744897959184"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="42.25"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.8265306122449"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.8724489795918"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.7040816326531"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="41.7142857142857"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.6887755102041"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1715,22 +1612,16 @@
         <v>10</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>11</v>
+        <v>69</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>12</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>15</v>
-      </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
@@ -1742,13 +1633,13 @@
         <v>19</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>20</v>
+        <v>71</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>21</v>
+        <v>72</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>53</v>
+        <v>73</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1756,13 +1647,13 @@
         <v>22</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>23</v>
+        <v>74</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>21</v>
+        <v>72</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>53</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1789,7 +1680,7 @@
         <v>29</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>30</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -1811,15 +1702,16 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C14" activeCellId="0" sqref="C14"/>
+      <selection pane="topLeft" activeCell="D8" activeCellId="0" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.1428571428571"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.9744897959184"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="42.25"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.8265306122449"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.8724489795918"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.7040816326531"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="41.7142857142857"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.6887755102041"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1841,10 +1733,10 @@
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1866,22 +1758,16 @@
         <v>10</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>11</v>
+        <v>69</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>12</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>15</v>
-      </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
@@ -1893,13 +1779,13 @@
         <v>19</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>20</v>
+        <v>71</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>21</v>
+        <v>72</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>53</v>
+        <v>73</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1907,13 +1793,13 @@
         <v>22</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>23</v>
+        <v>74</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>21</v>
+        <v>72</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>53</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1940,7 +1826,7 @@
         <v>29</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>30</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -1962,15 +1848,16 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
+      <selection pane="topLeft" activeCell="D8" activeCellId="0" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.1428571428571"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="36.9897959183673"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="49.9489795918367"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.8265306122449"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.8724489795918"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="36.5816326530612"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="49.4081632653061"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.6887755102041"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1992,10 +1879,10 @@
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2017,22 +1904,16 @@
         <v>10</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>11</v>
+        <v>69</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>12</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>15</v>
-      </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
@@ -2050,13 +1931,13 @@
         <v>19</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>20</v>
+        <v>71</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>21</v>
+        <v>72</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>45</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2064,13 +1945,13 @@
         <v>22</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>23</v>
+        <v>74</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>21</v>
+        <v>72</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>45</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2097,7 +1978,7 @@
         <v>29</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>30</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -2124,10 +2005,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.1428571428571"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="36.9897959183673"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="49.9489795918367"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.8265306122449"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.8724489795918"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="36.5816326530612"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="49.4081632653061"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.6887755102041"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2149,10 +2031,10 @@
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2174,22 +2056,16 @@
         <v>10</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>11</v>
+        <v>69</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>12</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>15</v>
-      </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
@@ -2207,13 +2083,13 @@
         <v>19</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>20</v>
+        <v>71</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>21</v>
+        <v>72</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>45</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2221,13 +2097,13 @@
         <v>22</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>23</v>
+        <v>74</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>21</v>
+        <v>72</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>45</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2254,7 +2130,7 @@
         <v>29</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>30</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -2281,11 +2157,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.5510204081633"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="30.2397959183673"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="37.1224489795918"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="34.9642857142857"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.280612244898"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.8316326530612"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="36.719387755102"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="34.5561224489796"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2439,10 +2315,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.1428571428571"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="36.9897959183673"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="49.9489795918367"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.8265306122449"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.8724489795918"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="36.5816326530612"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="49.4081632653061"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.6887755102041"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2464,10 +2341,10 @@
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2489,22 +2366,16 @@
         <v>10</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>11</v>
+        <v>69</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>12</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>15</v>
-      </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
@@ -2522,13 +2393,13 @@
         <v>19</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>20</v>
+        <v>71</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>21</v>
+        <v>72</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>51</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2536,13 +2407,13 @@
         <v>22</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>23</v>
+        <v>74</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>21</v>
+        <v>72</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>51</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2569,7 +2440,7 @@
         <v>29</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>30</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -2596,10 +2467,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.1428571428571"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="36.9897959183673"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="49.9489795918367"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.8265306122449"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.8724489795918"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="36.5816326530612"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="49.4081632653061"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.6887755102041"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2621,10 +2493,10 @@
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2646,22 +2518,16 @@
         <v>10</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>11</v>
+        <v>69</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>12</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>15</v>
-      </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
@@ -2679,13 +2545,13 @@
         <v>19</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>20</v>
+        <v>71</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>21</v>
+        <v>72</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>51</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2693,13 +2559,13 @@
         <v>22</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>23</v>
+        <v>74</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>21</v>
+        <v>72</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>51</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2726,7 +2592,7 @@
         <v>29</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>30</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -2753,11 +2619,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.5510204081633"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="37.5255102040816"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="48.4642857142857"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="37.5255102040816"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.280612244898"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="37.1224489795918"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="47.7857142857143"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="37.1224489795918"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2779,10 +2645,10 @@
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2804,22 +2670,16 @@
         <v>10</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>11</v>
+        <v>69</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>12</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>15</v>
-      </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
@@ -2831,13 +2691,13 @@
         <v>19</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>20</v>
+        <v>71</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>21</v>
+        <v>72</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>55</v>
+        <v>89</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2845,13 +2705,13 @@
         <v>22</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>23</v>
+        <v>74</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>21</v>
+        <v>72</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>55</v>
+        <v>89</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2878,7 +2738,7 @@
         <v>29</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>30</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -2900,16 +2760,16 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C10" activeCellId="0" sqref="C10"/>
+      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.5510204081633"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="37.5255102040816"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="48.4642857142857"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="37.5255102040816"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.280612244898"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="37.1224489795918"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="47.7857142857143"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="37.1224489795918"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2931,10 +2791,10 @@
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2956,22 +2816,16 @@
         <v>10</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>11</v>
+        <v>69</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>12</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>15</v>
-      </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
@@ -2983,13 +2837,13 @@
         <v>19</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>20</v>
+        <v>71</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>21</v>
+        <v>72</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>55</v>
+        <v>89</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2997,13 +2851,13 @@
         <v>22</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>23</v>
+        <v>74</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>21</v>
+        <v>72</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>55</v>
+        <v>89</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3030,7 +2884,7 @@
         <v>29</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>30</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -3051,17 +2905,17 @@
   </sheetPr>
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.5510204081633"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="37.5255102040816"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="48.4642857142857"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="37.5255102040816"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.280612244898"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="37.1224489795918"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="47.7857142857143"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="37.1224489795918"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3083,10 +2937,10 @@
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3108,22 +2962,16 @@
         <v>10</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>11</v>
+        <v>69</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>12</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>15</v>
-      </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
@@ -3135,13 +2983,13 @@
         <v>19</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>20</v>
+        <v>71</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>21</v>
+        <v>72</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>57</v>
+        <v>94</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3149,13 +2997,13 @@
         <v>22</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>23</v>
+        <v>74</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>21</v>
+        <v>72</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>57</v>
+        <v>94</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3182,7 +3030,7 @@
         <v>29</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>30</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -3204,16 +3052,16 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
+      <selection pane="topLeft" activeCell="D9" activeCellId="0" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.5510204081633"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="28.2142857142857"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="39.1479591836735"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="34.9642857142857"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.280612244898"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="27.8061224489796"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="38.6071428571429"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="34.5561224489796"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3235,10 +3083,10 @@
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3260,22 +3108,16 @@
         <v>10</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>11</v>
+        <v>69</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>12</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>15</v>
-      </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
@@ -3293,13 +3135,13 @@
         <v>19</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>20</v>
+        <v>71</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>21</v>
+        <v>72</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>39</v>
+        <v>97</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3307,13 +3149,13 @@
         <v>22</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>23</v>
+        <v>74</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>21</v>
+        <v>72</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>39</v>
+        <v>97</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3340,7 +3182,7 @@
         <v>29</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>30</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -3367,11 +3209,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.5510204081633"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="28.2142857142857"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="39.1479591836735"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="34.9642857142857"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.280612244898"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="27.8061224489796"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="38.6071428571429"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="34.5561224489796"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3393,10 +3235,10 @@
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3418,22 +3260,16 @@
         <v>10</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>11</v>
+        <v>69</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>12</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>15</v>
-      </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
@@ -3451,13 +3287,13 @@
         <v>19</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>20</v>
+        <v>71</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>21</v>
+        <v>72</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>39</v>
+        <v>97</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3465,13 +3301,13 @@
         <v>22</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>23</v>
+        <v>74</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>21</v>
+        <v>72</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>39</v>
+        <v>97</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3498,7 +3334,7 @@
         <v>29</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>30</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -3525,11 +3361,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.5510204081633"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="28.2142857142857"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="40.9030612244898"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="34.9642857142857"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.280612244898"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="27.8061224489796"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="40.3622448979592"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="34.5561224489796"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3551,10 +3387,10 @@
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3576,22 +3412,16 @@
         <v>10</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>11</v>
+        <v>69</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>12</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>15</v>
-      </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
@@ -3609,13 +3439,13 @@
         <v>19</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>20</v>
+        <v>71</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>21</v>
+        <v>72</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>39</v>
+        <v>97</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3623,13 +3453,13 @@
         <v>22</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>23</v>
+        <v>74</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>21</v>
+        <v>72</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>39</v>
+        <v>97</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3656,7 +3486,7 @@
         <v>29</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>30</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -3683,11 +3513,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.5510204081633"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="28.2142857142857"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="40.9030612244898"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="34.9642857142857"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.280612244898"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="27.8061224489796"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="40.3622448979592"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="34.5561224489796"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3709,10 +3539,10 @@
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3734,22 +3564,16 @@
         <v>10</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>11</v>
+        <v>69</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>12</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>15</v>
-      </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
@@ -3767,13 +3591,13 @@
         <v>19</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>20</v>
+        <v>71</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>21</v>
+        <v>72</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>39</v>
+        <v>97</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3781,13 +3605,13 @@
         <v>22</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>23</v>
+        <v>74</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>21</v>
+        <v>72</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>39</v>
+        <v>97</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3814,7 +3638,7 @@
         <v>29</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>30</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -3836,16 +3660,16 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
+      <selection pane="topLeft" activeCell="D8" activeCellId="0" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.5510204081633"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="30.2397959183673"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="37.1224489795918"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="34.9642857142857"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.280612244898"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.8316326530612"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="36.719387755102"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="34.5561224489796"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3867,10 +3691,10 @@
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3892,22 +3716,16 @@
         <v>10</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>11</v>
+        <v>69</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>12</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>15</v>
-      </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
@@ -3925,13 +3743,13 @@
         <v>19</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>20</v>
+        <v>71</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>21</v>
+        <v>72</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>31</v>
+        <v>106</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3939,13 +3757,13 @@
         <v>22</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>23</v>
+        <v>74</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>21</v>
+        <v>72</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>31</v>
+        <v>106</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3972,7 +3790,7 @@
         <v>29</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>30</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -3999,11 +3817,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.5510204081633"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="30.2397959183673"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="37.1224489795918"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="34.9642857142857"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.280612244898"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.8316326530612"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="36.719387755102"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="34.5561224489796"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4157,11 +3975,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.5510204081633"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="30.2397959183673"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="37.1224489795918"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="34.9642857142857"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.280612244898"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.8316326530612"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="36.719387755102"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="34.5561224489796"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4183,10 +4001,10 @@
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>96</v>
+        <v>108</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4208,22 +4026,16 @@
         <v>10</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>11</v>
+        <v>69</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>12</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>15</v>
-      </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
@@ -4241,13 +4053,13 @@
         <v>19</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>20</v>
+        <v>71</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>21</v>
+        <v>72</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>31</v>
+        <v>106</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4255,13 +4067,13 @@
         <v>22</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>23</v>
+        <v>74</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>21</v>
+        <v>72</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>31</v>
+        <v>106</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4288,7 +4100,7 @@
         <v>29</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>30</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -4315,11 +4127,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.5510204081633"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="30.2397959183673"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="42.3877551020408"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="34.9642857142857"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.280612244898"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.8316326530612"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="41.8469387755102"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="34.5561224489796"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4341,10 +4153,10 @@
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>98</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4366,22 +4178,16 @@
         <v>10</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>11</v>
+        <v>69</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>12</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>15</v>
-      </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
@@ -4399,13 +4205,13 @@
         <v>19</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>20</v>
+        <v>71</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>21</v>
+        <v>72</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>35</v>
+        <v>106</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4413,13 +4219,13 @@
         <v>22</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>23</v>
+        <v>74</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>21</v>
+        <v>72</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>35</v>
+        <v>106</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4446,7 +4252,7 @@
         <v>29</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>30</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -4473,11 +4279,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.5510204081633"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="30.2397959183673"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="42.7908163265306"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="34.9642857142857"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.280612244898"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.8316326530612"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="42.3877551020408"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="34.5561224489796"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4499,10 +4305,10 @@
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>100</v>
+        <v>112</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4524,22 +4330,16 @@
         <v>10</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>11</v>
+        <v>69</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>12</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>15</v>
-      </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
@@ -4557,13 +4357,13 @@
         <v>19</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>20</v>
+        <v>71</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>21</v>
+        <v>72</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>35</v>
+        <v>106</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4571,13 +4371,13 @@
         <v>22</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>23</v>
+        <v>74</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>21</v>
+        <v>72</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>35</v>
+        <v>106</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4604,7 +4404,7 @@
         <v>29</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>30</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -4631,11 +4431,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.5510204081633"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="28.2142857142857"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="37.1224489795918"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="34.9642857142857"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.280612244898"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="27.8061224489796"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="36.719387755102"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="34.5561224489796"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4789,11 +4589,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.5510204081633"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="30.2397959183673"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="37.1224489795918"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="34.9642857142857"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.280612244898"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.8316326530612"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="36.719387755102"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="34.5561224489796"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4947,11 +4747,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.5510204081633"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="37.5255102040816"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="48.4642857142857"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="37.5255102040816"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.280612244898"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="37.1224489795918"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="47.7857142857143"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="37.1224489795918"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5105,11 +4905,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.5510204081633"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="37.5255102040816"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="48.4642857142857"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="37.5255102040816"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.280612244898"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="37.1224489795918"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="47.7857142857143"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="37.1224489795918"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5263,11 +5063,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.5510204081633"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="37.5255102040816"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="48.4642857142857"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="37.5255102040816"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.280612244898"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="37.1224489795918"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="47.7857142857143"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="37.1224489795918"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5421,11 +5221,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.5510204081633"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="37.5255102040816"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="48.4642857142857"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="37.5255102040816"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.280612244898"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="37.1224489795918"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="47.7857142857143"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="37.1224489795918"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/Projects/CCRU_SAND/Data/KPI_Source.xlsx
+++ b/Projects/CCRU_SAND/Data/KPI_Source.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="11" activeTab="23"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="11" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="Pos 2018 - FT" sheetId="1" state="hidden" r:id="rId2"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1022" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1022" uniqueCount="119">
   <si>
     <t xml:space="preserve">SOURCE</t>
   </si>
@@ -236,6 +236,12 @@
     <t xml:space="preserve">KPIs_2019/PoS 2019 - FT - CAP.xlsx</t>
   </si>
   <si>
+    <t xml:space="preserve">KPIs_2019/Gaps Guide 2018.xlsx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KPIs_2019/Spirits 2018 - FT.xlsx</t>
+  </si>
+  <si>
     <t xml:space="preserve">PoS 2019 - FT - REG</t>
   </si>
   <si>
@@ -293,6 +299,9 @@
     <t xml:space="preserve">KPIs_2019/PoS 2019 - IC HoReCa BarTavernClub - CAP.xlsx</t>
   </si>
   <si>
+    <t xml:space="preserve">KPIs_2019/Spirits 2018 - IC - HoReCa.xlsx</t>
+  </si>
+  <si>
     <t xml:space="preserve">IC - HoReCa All</t>
   </si>
   <si>
@@ -344,6 +353,9 @@
     <t xml:space="preserve">KPIs_2019/PoS 2019 - MT Conv Big - CAP.xlsx</t>
   </si>
   <si>
+    <t xml:space="preserve">KPIs_2019/Spirits 2018 - MT - Convenience.xlsx</t>
+  </si>
+  <si>
     <t xml:space="preserve">MT - Conv All</t>
   </si>
   <si>
@@ -371,6 +383,9 @@
     <t xml:space="preserve">KPIs_2019/PoS 2019 - MT Hypermarket - CAP.xlsx</t>
   </si>
   <si>
+    <t xml:space="preserve">KPIs_2019/Spirits 2018 - MT - Hypermarket.xlsx</t>
+  </si>
+  <si>
     <t xml:space="preserve">MT - Hyper-Super</t>
   </si>
   <si>
@@ -384,6 +399,9 @@
   </si>
   <si>
     <t xml:space="preserve">KPIs_2019/PoS 2019 - MT Supermarket - CAP.xlsx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KPIs_2019/Spirits 2018 - MT - Supermarket.xlsx</t>
   </si>
   <si>
     <t xml:space="preserve">PoS 2019 - MT Supermarket - REG</t>
@@ -611,11 +629,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.280612244898"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.734693877551"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="36.719387755102"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.5"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.0102040816327"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.4642857142857"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="36.3112244897959"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.2295918367347"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -769,11 +786,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.280612244898"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="37.1224489795918"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="47.7857142857143"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="37.1224489795918"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.0102040816327"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="36.719387755102"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="47.1122448979592"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="36.719387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -921,11 +937,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.280612244898"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="37.1224489795918"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="47.7857142857143"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="37.1224489795918"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.0102040816327"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="36.719387755102"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="47.1122448979592"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="36.719387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1067,17 +1082,17 @@
   </sheetPr>
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E8" activeCellId="0" sqref="E8"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.8724489795918"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.4081632653061"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="33.4795918367347"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.6887755102041"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.6020408163265"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.1377551020408"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="32.9387755102041"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.5561224489796"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1113,7 +1128,7 @@
         <v>8</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>9</v>
+        <v>61</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>5</v>
@@ -1137,7 +1152,7 @@
         <v>17</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>18</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1195,11 +1210,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.8724489795918"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.4081632653061"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="33.4795918367347"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.6887755102041"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.6020408163265"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.1377551020408"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="32.9387755102041"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.5561224489796"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1221,10 +1236,10 @@
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1235,7 +1250,7 @@
         <v>8</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>9</v>
+        <v>61</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>5</v>
@@ -1259,7 +1274,7 @@
         <v>17</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>18</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1312,16 +1327,16 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F9" activeCellId="0" sqref="F9"/>
+      <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.8724489795918"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.4081632653061"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="33.4795918367347"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.6887755102041"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.6020408163265"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.1377551020408"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="32.9387755102041"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.5561224489796"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1343,10 +1358,10 @@
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1357,7 +1372,7 @@
         <v>8</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>9</v>
+        <v>61</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>5</v>
@@ -1381,7 +1396,7 @@
         <v>17</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>18</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1434,16 +1449,16 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.8724489795918"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.4081632653061"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="33.4795918367347"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.6887755102041"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.6020408163265"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.1377551020408"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="32.9387755102041"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.5561224489796"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1465,10 +1480,10 @@
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1479,7 +1494,7 @@
         <v>8</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>9</v>
+        <v>61</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>5</v>
@@ -1503,7 +1518,7 @@
         <v>17</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>18</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1561,11 +1576,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.8724489795918"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.7040816326531"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="41.7142857142857"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.6887755102041"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.6020408163265"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.4336734693878"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="41.1734693877551"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.5561224489796"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1587,10 +1602,10 @@
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1601,7 +1616,7 @@
         <v>8</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>9</v>
+        <v>61</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>53</v>
@@ -1612,10 +1627,10 @@
         <v>10</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1633,13 +1648,13 @@
         <v>19</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1647,13 +1662,13 @@
         <v>22</v>
       </c>
       <c r="B8" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="C8" s="0" t="s">
         <v>74</v>
       </c>
-      <c r="C8" s="0" t="s">
-        <v>72</v>
-      </c>
       <c r="D8" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1680,7 +1695,7 @@
         <v>29</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -1707,11 +1722,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.8724489795918"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.7040816326531"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="41.7142857142857"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.6887755102041"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.6020408163265"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.4336734693878"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="41.1734693877551"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.5561224489796"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1733,10 +1748,10 @@
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1747,7 +1762,7 @@
         <v>8</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>9</v>
+        <v>61</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>53</v>
@@ -1758,10 +1773,10 @@
         <v>10</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1779,13 +1794,13 @@
         <v>19</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1793,13 +1808,13 @@
         <v>22</v>
       </c>
       <c r="B8" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="C8" s="0" t="s">
         <v>74</v>
       </c>
-      <c r="C8" s="0" t="s">
-        <v>72</v>
-      </c>
       <c r="D8" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1826,7 +1841,7 @@
         <v>29</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -1848,16 +1863,16 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D8" activeCellId="0" sqref="D8"/>
+      <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.8724489795918"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="36.5816326530612"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="49.4081632653061"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.6887755102041"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.6020408163265"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="36.1785714285714"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="48.8673469387755"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.5561224489796"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1879,10 +1894,10 @@
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1893,7 +1908,7 @@
         <v>8</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>9</v>
+        <v>61</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>45</v>
@@ -1904,10 +1919,10 @@
         <v>10</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1923,7 +1938,7 @@
         <v>47</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>48</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1931,13 +1946,13 @@
         <v>19</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1945,13 +1960,13 @@
         <v>22</v>
       </c>
       <c r="B8" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="C8" s="0" t="s">
         <v>74</v>
       </c>
-      <c r="C8" s="0" t="s">
-        <v>72</v>
-      </c>
       <c r="D8" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1978,7 +1993,7 @@
         <v>29</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -2005,11 +2020,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.8724489795918"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="36.5816326530612"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="49.4081632653061"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.6887755102041"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.6020408163265"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="36.1785714285714"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="48.8673469387755"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.5561224489796"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2031,10 +2046,10 @@
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2045,7 +2060,7 @@
         <v>8</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>9</v>
+        <v>61</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>45</v>
@@ -2056,10 +2071,10 @@
         <v>10</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2075,7 +2090,7 @@
         <v>47</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>48</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2083,13 +2098,13 @@
         <v>19</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2097,13 +2112,13 @@
         <v>22</v>
       </c>
       <c r="B8" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="C8" s="0" t="s">
         <v>74</v>
       </c>
-      <c r="C8" s="0" t="s">
-        <v>72</v>
-      </c>
       <c r="D8" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2130,7 +2145,7 @@
         <v>29</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -2157,11 +2172,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.280612244898"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.8316326530612"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="36.719387755102"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="34.5561224489796"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.0102040816327"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.4285714285714"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="36.3112244897959"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="34.1530612244898"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2315,11 +2329,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.8724489795918"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="36.5816326530612"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="49.4081632653061"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.6887755102041"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.6020408163265"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="36.1785714285714"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="48.8673469387755"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.5561224489796"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2341,10 +2355,10 @@
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2355,7 +2369,7 @@
         <v>8</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>9</v>
+        <v>61</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>51</v>
@@ -2366,10 +2380,10 @@
         <v>10</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2385,7 +2399,7 @@
         <v>47</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>48</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2393,13 +2407,13 @@
         <v>19</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2407,13 +2421,13 @@
         <v>22</v>
       </c>
       <c r="B8" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="C8" s="0" t="s">
         <v>74</v>
       </c>
-      <c r="C8" s="0" t="s">
-        <v>72</v>
-      </c>
       <c r="D8" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2440,7 +2454,7 @@
         <v>29</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -2462,16 +2476,16 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
+      <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.8724489795918"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="36.5816326530612"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="49.4081632653061"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.6887755102041"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.6020408163265"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="36.1785714285714"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="48.8673469387755"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.5561224489796"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2493,10 +2507,10 @@
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2507,7 +2521,7 @@
         <v>8</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>9</v>
+        <v>61</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>51</v>
@@ -2518,10 +2532,10 @@
         <v>10</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2537,7 +2551,7 @@
         <v>47</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>48</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2545,13 +2559,13 @@
         <v>19</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2559,13 +2573,13 @@
         <v>22</v>
       </c>
       <c r="B8" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="C8" s="0" t="s">
         <v>74</v>
       </c>
-      <c r="C8" s="0" t="s">
-        <v>72</v>
-      </c>
       <c r="D8" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2592,7 +2606,7 @@
         <v>29</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -2619,11 +2633,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.280612244898"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="37.1224489795918"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="47.7857142857143"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="37.1224489795918"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.0102040816327"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="36.719387755102"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="47.1122448979592"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="36.719387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2645,10 +2658,10 @@
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2659,7 +2672,7 @@
         <v>8</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>9</v>
+        <v>61</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>55</v>
@@ -2670,10 +2683,10 @@
         <v>10</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2691,13 +2704,13 @@
         <v>19</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2705,13 +2718,13 @@
         <v>22</v>
       </c>
       <c r="B8" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="C8" s="0" t="s">
         <v>74</v>
       </c>
-      <c r="C8" s="0" t="s">
-        <v>72</v>
-      </c>
       <c r="D8" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2738,7 +2751,7 @@
         <v>29</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -2765,11 +2778,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.280612244898"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="37.1224489795918"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="47.7857142857143"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="37.1224489795918"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.0102040816327"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="36.719387755102"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="47.1122448979592"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="36.719387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2791,10 +2803,10 @@
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2805,7 +2817,7 @@
         <v>8</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>9</v>
+        <v>61</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>55</v>
@@ -2816,10 +2828,10 @@
         <v>10</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2837,13 +2849,13 @@
         <v>19</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2851,13 +2863,13 @@
         <v>22</v>
       </c>
       <c r="B8" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="C8" s="0" t="s">
         <v>74</v>
       </c>
-      <c r="C8" s="0" t="s">
-        <v>72</v>
-      </c>
       <c r="D8" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2884,7 +2896,7 @@
         <v>29</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -2905,17 +2917,16 @@
   </sheetPr>
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.280612244898"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="37.1224489795918"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="47.7857142857143"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="37.1224489795918"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.0102040816327"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="36.719387755102"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="47.1122448979592"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="36.719387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2937,10 +2948,10 @@
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2951,7 +2962,7 @@
         <v>8</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>9</v>
+        <v>61</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>57</v>
@@ -2962,10 +2973,10 @@
         <v>10</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2983,13 +2994,13 @@
         <v>19</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2997,13 +3008,13 @@
         <v>22</v>
       </c>
       <c r="B8" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="C8" s="0" t="s">
         <v>74</v>
       </c>
-      <c r="C8" s="0" t="s">
-        <v>72</v>
-      </c>
       <c r="D8" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3030,7 +3041,7 @@
         <v>29</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -3052,16 +3063,15 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D9" activeCellId="0" sqref="D9"/>
+      <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.280612244898"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="27.8061224489796"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="38.6071428571429"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="34.5561224489796"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.0102040816327"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="27.5408163265306"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="38.0663265306122"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="34.1530612244898"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3083,10 +3093,10 @@
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3097,7 +3107,7 @@
         <v>8</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>9</v>
+        <v>61</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>39</v>
@@ -3108,10 +3118,10 @@
         <v>10</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3127,7 +3137,7 @@
         <v>41</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>42</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3135,13 +3145,13 @@
         <v>19</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3149,13 +3159,13 @@
         <v>22</v>
       </c>
       <c r="B8" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="C8" s="0" t="s">
         <v>74</v>
       </c>
-      <c r="C8" s="0" t="s">
-        <v>72</v>
-      </c>
       <c r="D8" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3182,7 +3192,7 @@
         <v>29</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -3209,11 +3219,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.280612244898"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="27.8061224489796"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="38.6071428571429"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="34.5561224489796"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.0102040816327"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="27.5408163265306"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="38.0663265306122"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="34.1530612244898"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3235,10 +3244,10 @@
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3249,7 +3258,7 @@
         <v>8</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>9</v>
+        <v>61</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>39</v>
@@ -3260,10 +3269,10 @@
         <v>10</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3279,7 +3288,7 @@
         <v>41</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>42</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3287,13 +3296,13 @@
         <v>19</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3301,13 +3310,13 @@
         <v>22</v>
       </c>
       <c r="B8" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="C8" s="0" t="s">
         <v>74</v>
       </c>
-      <c r="C8" s="0" t="s">
-        <v>72</v>
-      </c>
       <c r="D8" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3334,7 +3343,7 @@
         <v>29</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -3361,11 +3370,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.280612244898"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="27.8061224489796"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="40.3622448979592"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="34.5561224489796"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.0102040816327"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="27.5408163265306"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="39.9591836734694"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="34.1530612244898"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3387,10 +3395,10 @@
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3401,7 +3409,7 @@
         <v>8</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>9</v>
+        <v>61</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>39</v>
@@ -3412,10 +3420,10 @@
         <v>10</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3431,7 +3439,7 @@
         <v>41</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>42</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3439,13 +3447,13 @@
         <v>19</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3453,13 +3461,13 @@
         <v>22</v>
       </c>
       <c r="B8" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="C8" s="0" t="s">
         <v>74</v>
       </c>
-      <c r="C8" s="0" t="s">
-        <v>72</v>
-      </c>
       <c r="D8" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3486,7 +3494,7 @@
         <v>29</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -3513,11 +3521,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.280612244898"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="27.8061224489796"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="40.3622448979592"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="34.5561224489796"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.0102040816327"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="27.5408163265306"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="39.9591836734694"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="34.1530612244898"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3539,10 +3546,10 @@
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3553,7 +3560,7 @@
         <v>8</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>9</v>
+        <v>61</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>39</v>
@@ -3564,10 +3571,10 @@
         <v>10</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3583,7 +3590,7 @@
         <v>41</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>42</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3591,13 +3598,13 @@
         <v>19</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3605,13 +3612,13 @@
         <v>22</v>
       </c>
       <c r="B8" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="C8" s="0" t="s">
         <v>74</v>
       </c>
-      <c r="C8" s="0" t="s">
-        <v>72</v>
-      </c>
       <c r="D8" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3638,7 +3645,7 @@
         <v>29</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -3660,16 +3667,15 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D8" activeCellId="0" sqref="D8"/>
+      <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.280612244898"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.8316326530612"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="36.719387755102"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="34.5561224489796"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.0102040816327"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.4285714285714"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="36.3112244897959"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="34.1530612244898"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3691,10 +3697,10 @@
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3705,7 +3711,7 @@
         <v>8</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>9</v>
+        <v>61</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>31</v>
@@ -3716,10 +3722,10 @@
         <v>10</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3735,7 +3741,7 @@
         <v>33</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>34</v>
+        <v>110</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3743,13 +3749,13 @@
         <v>19</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3757,13 +3763,13 @@
         <v>22</v>
       </c>
       <c r="B8" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="C8" s="0" t="s">
         <v>74</v>
       </c>
-      <c r="C8" s="0" t="s">
-        <v>72</v>
-      </c>
       <c r="D8" s="2" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3790,7 +3796,7 @@
         <v>29</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -3817,11 +3823,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.280612244898"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.8316326530612"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="36.719387755102"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="34.5561224489796"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.0102040816327"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.4285714285714"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="36.3112244897959"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="34.1530612244898"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3970,16 +3975,15 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
+      <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.280612244898"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.8316326530612"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="36.719387755102"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="34.5561224489796"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.0102040816327"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.4285714285714"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="36.3112244897959"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="34.1530612244898"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4001,10 +4005,10 @@
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4015,7 +4019,7 @@
         <v>8</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>9</v>
+        <v>61</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>31</v>
@@ -4026,10 +4030,10 @@
         <v>10</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4045,7 +4049,7 @@
         <v>33</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>34</v>
+        <v>110</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4053,13 +4057,13 @@
         <v>19</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4067,13 +4071,13 @@
         <v>22</v>
       </c>
       <c r="B8" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="C8" s="0" t="s">
         <v>74</v>
       </c>
-      <c r="C8" s="0" t="s">
-        <v>72</v>
-      </c>
       <c r="D8" s="2" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4100,7 +4104,7 @@
         <v>29</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -4122,16 +4126,15 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
+      <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.280612244898"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.8316326530612"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="41.8469387755102"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="34.5561224489796"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.0102040816327"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.4285714285714"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="41.3061224489796"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="34.1530612244898"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4153,10 +4156,10 @@
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4167,7 +4170,7 @@
         <v>8</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>9</v>
+        <v>61</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>35</v>
@@ -4178,10 +4181,10 @@
         <v>10</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4197,7 +4200,7 @@
         <v>37</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>38</v>
+        <v>116</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4205,13 +4208,13 @@
         <v>19</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4219,13 +4222,13 @@
         <v>22</v>
       </c>
       <c r="B8" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="C8" s="0" t="s">
         <v>74</v>
       </c>
-      <c r="C8" s="0" t="s">
-        <v>72</v>
-      </c>
       <c r="D8" s="2" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4252,7 +4255,7 @@
         <v>29</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -4279,11 +4282,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.280612244898"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.8316326530612"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="42.3877551020408"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="34.5561224489796"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.0102040816327"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.4285714285714"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="41.8469387755102"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="34.1530612244898"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4305,10 +4307,10 @@
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4319,7 +4321,7 @@
         <v>8</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>9</v>
+        <v>61</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>35</v>
@@ -4330,10 +4332,10 @@
         <v>10</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4349,7 +4351,7 @@
         <v>37</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>38</v>
+        <v>116</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4357,13 +4359,13 @@
         <v>19</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4371,13 +4373,13 @@
         <v>22</v>
       </c>
       <c r="B8" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="C8" s="0" t="s">
         <v>74</v>
       </c>
-      <c r="C8" s="0" t="s">
-        <v>72</v>
-      </c>
       <c r="D8" s="2" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4404,7 +4406,7 @@
         <v>29</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -4431,11 +4433,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.280612244898"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="27.8061224489796"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="36.719387755102"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="34.5561224489796"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.0102040816327"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="27.5408163265306"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="36.3112244897959"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="34.1530612244898"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4589,11 +4590,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.280612244898"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.8316326530612"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="36.719387755102"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="34.5561224489796"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.0102040816327"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.4285714285714"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="36.3112244897959"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="34.1530612244898"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4747,11 +4747,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.280612244898"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="37.1224489795918"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="47.7857142857143"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="37.1224489795918"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.0102040816327"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="36.719387755102"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="47.1122448979592"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="36.719387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4905,11 +4904,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.280612244898"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="37.1224489795918"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="47.7857142857143"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="37.1224489795918"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.0102040816327"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="36.719387755102"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="47.1122448979592"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="36.719387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5063,11 +5061,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.280612244898"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="37.1224489795918"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="47.7857142857143"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="37.1224489795918"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.0102040816327"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="36.719387755102"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="47.1122448979592"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="36.719387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5221,11 +5218,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.280612244898"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="37.1224489795918"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="47.7857142857143"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="37.1224489795918"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.0102040816327"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="36.719387755102"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="47.1122448979592"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="36.719387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/Projects/CCRU_SAND/Data/KPI_Source.xlsx
+++ b/Projects/CCRU_SAND/Data/KPI_Source.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="11" activeTab="11"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="11" activeTab="20"/>
   </bookViews>
   <sheets>
     <sheet name="Pos 2018 - FT" sheetId="1" state="hidden" r:id="rId2"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1022" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1022" uniqueCount="123">
   <si>
     <t xml:space="preserve">SOURCE</t>
   </si>
@@ -236,7 +236,7 @@
     <t xml:space="preserve">KPIs_2019/PoS 2019 - FT - CAP.xlsx</t>
   </si>
   <si>
-    <t xml:space="preserve">KPIs_2019/Gaps Guide 2018.xlsx</t>
+    <t xml:space="preserve">KPIs_2019/Gaps Guide 2019.xlsx</t>
   </si>
   <si>
     <t xml:space="preserve">KPIs_2019/Spirits 2018 - FT.xlsx</t>
@@ -299,6 +299,9 @@
     <t xml:space="preserve">KPIs_2019/PoS 2019 - IC HoReCa BarTavernClub - CAP.xlsx</t>
   </si>
   <si>
+    <t xml:space="preserve">PoS 2019 ICHoReCa BarTavern CAP</t>
+  </si>
+  <si>
     <t xml:space="preserve">KPIs_2019/Spirits 2018 - IC - HoReCa.xlsx</t>
   </si>
   <si>
@@ -311,16 +314,25 @@
     <t xml:space="preserve">KPIs_2019/PoS 2019 - IC HoReCa BarTavernClub - REG.xlsx</t>
   </si>
   <si>
+    <t xml:space="preserve">PoS 2019 ICHoReCa BarTavern REG</t>
+  </si>
+  <si>
     <t xml:space="preserve">PoS 2019 - IC HoReCa RestCafeTea - CAP</t>
   </si>
   <si>
     <t xml:space="preserve">KPIs_2019/PoS 2019 - IC HoReCa RestCafeTea - CAP.xlsx</t>
   </si>
   <si>
+    <t xml:space="preserve">PoS2019 ICHoReCa RestCafeTe CAP</t>
+  </si>
+  <si>
     <t xml:space="preserve">PoS 2019 - IC HoReCa RestCafeTea - REG</t>
   </si>
   <si>
     <t xml:space="preserve">KPIs_2019/PoS 2019 - IC HoReCa RestCafeTea - REG.xlsx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PoS2019 ICHoReCa RestCafeTe REG</t>
   </si>
   <si>
     <t xml:space="preserve">PoS 2019 - IC Petroleum - CAP</t>
@@ -447,7 +459,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -482,6 +494,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF99FFFF"/>
         <bgColor rgb="FFCCFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF6666"/>
+        <bgColor rgb="FFFF6600"/>
       </patternFill>
     </fill>
   </fills>
@@ -519,7 +537,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -541,6 +559,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -576,7 +598,7 @@
       <rgbColor rgb="FFFFFFCC"/>
       <rgbColor rgb="FF99FFFF"/>
       <rgbColor rgb="FF660066"/>
-      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FFFF6666"/>
       <rgbColor rgb="FF0066CC"/>
       <rgbColor rgb="FFDDDDDD"/>
       <rgbColor rgb="FF000080"/>
@@ -629,10 +651,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.0102040816327"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.4642857142857"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="36.3112244897959"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.2295918367347"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.469387755102"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.7908163265306"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="35.234693877551"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.9591836734694"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -786,10 +809,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.0102040816327"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="36.719387755102"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="47.1122448979592"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="36.719387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.469387755102"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="35.7704081632653"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="46.030612244898"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="35.7704081632653"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -937,10 +961,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.0102040816327"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="36.719387755102"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="47.1122448979592"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="36.719387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.469387755102"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="35.7704081632653"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="46.030612244898"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="35.7704081632653"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1082,17 +1107,16 @@
   </sheetPr>
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.6020408163265"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.1377551020408"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="32.9387755102041"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.5561224489796"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.0663265306122"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.5969387755102"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="32.1275510204082"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.2857142857143"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1131,7 +1155,7 @@
         <v>61</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>5</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1210,11 +1234,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.6020408163265"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.1377551020408"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="32.9387755102041"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.5561224489796"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.0663265306122"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.5969387755102"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="32.1275510204082"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.2857142857143"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1253,7 +1276,7 @@
         <v>61</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>5</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1332,11 +1355,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.6020408163265"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.1377551020408"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="32.9387755102041"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.5561224489796"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.0663265306122"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.5969387755102"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="32.1275510204082"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.2857142857143"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1375,7 +1397,7 @@
         <v>61</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>5</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1454,11 +1476,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.6020408163265"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.1377551020408"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="32.9387755102041"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.5561224489796"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.0663265306122"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.5969387755102"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="32.1275510204082"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.2857142857143"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1497,7 +1518,7 @@
         <v>61</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>5</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1576,11 +1597,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.6020408163265"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.4336734693878"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="41.1734693877551"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.5561224489796"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.0663265306122"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.7602040816327"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="40.0918367346939"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.2857142857143"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1619,7 +1639,7 @@
         <v>61</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>53</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1722,11 +1742,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.6020408163265"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.4336734693878"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="41.1734693877551"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.5561224489796"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.0663265306122"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.7602040816327"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="40.0918367346939"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.2857142857143"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1765,7 +1784,7 @@
         <v>61</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>53</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1863,16 +1882,15 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
+      <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.6020408163265"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="36.1785714285714"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="48.8673469387755"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.5561224489796"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.0663265306122"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="35.0969387755102"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="47.6530612244898"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.2857142857143"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1910,8 +1928,8 @@
       <c r="C3" s="0" t="s">
         <v>61</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>45</v>
+      <c r="D3" s="6" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1938,7 +1956,7 @@
         <v>47</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1952,7 +1970,7 @@
         <v>74</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1966,7 +1984,7 @@
         <v>74</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2015,16 +2033,15 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
+      <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.6020408163265"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="36.1785714285714"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="48.8673469387755"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.5561224489796"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.0663265306122"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="35.0969387755102"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="47.6530612244898"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.2857142857143"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2046,10 +2063,10 @@
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2062,8 +2079,8 @@
       <c r="C3" s="0" t="s">
         <v>61</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>45</v>
+      <c r="D3" s="6" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2090,7 +2107,7 @@
         <v>47</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2104,7 +2121,7 @@
         <v>74</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2118,7 +2135,7 @@
         <v>74</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2172,10 +2189,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.0102040816327"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.4285714285714"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="36.3112244897959"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="34.1530612244898"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.469387755102"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="28.6173469387755"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="35.234693877551"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="33.3418367346939"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2324,16 +2342,15 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
+      <selection pane="topLeft" activeCell="C11" activeCellId="0" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.6020408163265"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="36.1785714285714"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="48.8673469387755"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.5561224489796"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.0663265306122"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="35.0969387755102"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="47.6530612244898"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.2857142857143"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2355,10 +2372,10 @@
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2371,8 +2388,8 @@
       <c r="C3" s="0" t="s">
         <v>61</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>51</v>
+      <c r="D3" s="6" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2399,7 +2416,7 @@
         <v>47</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2413,7 +2430,7 @@
         <v>74</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2427,7 +2444,7 @@
         <v>74</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2475,17 +2492,16 @@
   </sheetPr>
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.6020408163265"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="36.1785714285714"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="48.8673469387755"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.5561224489796"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.0663265306122"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="35.0969387755102"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="47.6530612244898"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.2857142857143"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2507,10 +2523,10 @@
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2523,8 +2539,8 @@
       <c r="C3" s="0" t="s">
         <v>61</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>51</v>
+      <c r="D3" s="6" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2551,7 +2567,7 @@
         <v>47</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2565,7 +2581,7 @@
         <v>74</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2579,7 +2595,7 @@
         <v>74</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2633,10 +2649,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.0102040816327"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="36.719387755102"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="47.1122448979592"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="36.719387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.469387755102"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="35.7704081632653"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="46.030612244898"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="35.7704081632653"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2658,10 +2675,10 @@
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2675,7 +2692,7 @@
         <v>61</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>55</v>
+        <v>94</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2710,7 +2727,7 @@
         <v>74</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2724,7 +2741,7 @@
         <v>74</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2778,10 +2795,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.0102040816327"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="36.719387755102"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="47.1122448979592"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="36.719387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.469387755102"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="35.7704081632653"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="46.030612244898"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="35.7704081632653"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2803,10 +2821,10 @@
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2820,7 +2838,7 @@
         <v>61</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>55</v>
+        <v>97</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2855,7 +2873,7 @@
         <v>74</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2869,7 +2887,7 @@
         <v>74</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2923,10 +2941,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.0102040816327"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="36.719387755102"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="47.1122448979592"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="36.719387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.469387755102"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="35.7704081632653"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="46.030612244898"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="35.7704081632653"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2948,10 +2967,10 @@
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2965,7 +2984,7 @@
         <v>61</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>57</v>
+        <v>99</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3000,7 +3019,7 @@
         <v>74</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3014,7 +3033,7 @@
         <v>74</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3068,10 +3087,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.0102040816327"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="27.5408163265306"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="38.0663265306122"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="34.1530612244898"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.469387755102"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.8622448979592"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="37.1224489795918"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="33.3418367346939"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3093,10 +3113,10 @@
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3110,7 +3130,7 @@
         <v>61</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>39</v>
+        <v>102</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3137,7 +3157,7 @@
         <v>41</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3151,7 +3171,7 @@
         <v>74</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3165,7 +3185,7 @@
         <v>74</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3219,10 +3239,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.0102040816327"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="27.5408163265306"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="38.0663265306122"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="34.1530612244898"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.469387755102"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.8622448979592"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="37.1224489795918"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="33.3418367346939"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3244,10 +3265,10 @@
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3261,7 +3282,7 @@
         <v>61</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>39</v>
+        <v>106</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3288,7 +3309,7 @@
         <v>41</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3302,7 +3323,7 @@
         <v>74</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3316,7 +3337,7 @@
         <v>74</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3370,10 +3391,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.0102040816327"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="27.5408163265306"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="39.9591836734694"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="34.1530612244898"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.469387755102"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.8622448979592"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="39.1479591836735"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="33.3418367346939"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3395,10 +3417,10 @@
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3412,7 +3434,7 @@
         <v>61</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>39</v>
+        <v>108</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3439,7 +3461,7 @@
         <v>41</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3453,7 +3475,7 @@
         <v>74</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3467,7 +3489,7 @@
         <v>74</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3521,10 +3543,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.0102040816327"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="27.5408163265306"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="39.9591836734694"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="34.1530612244898"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.469387755102"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.8622448979592"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="39.1479591836735"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="33.3418367346939"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3546,10 +3569,10 @@
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3563,7 +3586,7 @@
         <v>61</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>39</v>
+        <v>110</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3590,7 +3613,7 @@
         <v>41</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3604,7 +3627,7 @@
         <v>74</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3618,7 +3641,7 @@
         <v>74</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3672,10 +3695,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.0102040816327"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.4285714285714"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="36.3112244897959"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="34.1530612244898"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.469387755102"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="28.6173469387755"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="35.234693877551"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="33.3418367346939"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3697,10 +3721,10 @@
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3714,7 +3738,7 @@
         <v>61</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>31</v>
+        <v>112</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3741,7 +3765,7 @@
         <v>33</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3755,7 +3779,7 @@
         <v>74</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3769,7 +3793,7 @@
         <v>74</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3823,10 +3847,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.0102040816327"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.4285714285714"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="36.3112244897959"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="34.1530612244898"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.469387755102"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="28.6173469387755"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="35.234693877551"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="33.3418367346939"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3980,10 +4005,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.0102040816327"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.4285714285714"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="36.3112244897959"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="34.1530612244898"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.469387755102"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="28.6173469387755"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="35.234693877551"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="33.3418367346939"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4005,10 +4031,10 @@
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4022,7 +4048,7 @@
         <v>61</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>31</v>
+        <v>116</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4049,7 +4075,7 @@
         <v>33</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4063,7 +4089,7 @@
         <v>74</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4077,7 +4103,7 @@
         <v>74</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4131,10 +4157,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.0102040816327"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.4285714285714"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="41.3061224489796"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="34.1530612244898"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.469387755102"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="28.6173469387755"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="40.2295918367347"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="33.3418367346939"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4156,10 +4183,10 @@
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4173,7 +4200,7 @@
         <v>61</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>35</v>
+        <v>118</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4200,7 +4227,7 @@
         <v>37</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4214,7 +4241,7 @@
         <v>74</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4228,7 +4255,7 @@
         <v>74</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4277,15 +4304,16 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+      <selection pane="topLeft" activeCell="N32" activeCellId="0" sqref="N32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.0102040816327"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.4285714285714"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="41.8469387755102"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="34.1530612244898"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.469387755102"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="28.6173469387755"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="40.765306122449"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="33.3418367346939"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4307,10 +4335,10 @@
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4324,7 +4352,7 @@
         <v>61</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>35</v>
+        <v>121</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4351,7 +4379,7 @@
         <v>37</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4365,7 +4393,7 @@
         <v>74</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4379,7 +4407,7 @@
         <v>74</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4433,10 +4461,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.0102040816327"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="27.5408163265306"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="36.3112244897959"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="34.1530612244898"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.469387755102"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.8622448979592"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="35.234693877551"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="33.3418367346939"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4590,10 +4619,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.0102040816327"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.4285714285714"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="36.3112244897959"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="34.1530612244898"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.469387755102"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="28.6173469387755"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="35.234693877551"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="33.3418367346939"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4747,10 +4777,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.0102040816327"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="36.719387755102"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="47.1122448979592"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="36.719387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.469387755102"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="35.7704081632653"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="46.030612244898"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="35.7704081632653"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4904,10 +4935,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.0102040816327"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="36.719387755102"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="47.1122448979592"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="36.719387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.469387755102"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="35.7704081632653"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="46.030612244898"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="35.7704081632653"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5061,10 +5093,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.0102040816327"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="36.719387755102"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="47.1122448979592"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="36.719387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.469387755102"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="35.7704081632653"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="46.030612244898"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="35.7704081632653"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5218,10 +5251,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.0102040816327"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="36.719387755102"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="47.1122448979592"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="36.719387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.469387755102"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="35.7704081632653"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="46.030612244898"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="35.7704081632653"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/Projects/CCRU_SAND/Data/KPI_Source.xlsx
+++ b/Projects/CCRU_SAND/Data/KPI_Source.xlsx
@@ -5,17 +5,17 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="11" activeTab="20"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="11" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="Pos 2018 - FT" sheetId="1" state="hidden" r:id="rId2"/>
     <sheet name="Pos 2018 - MT - Hypermarket" sheetId="2" state="hidden" r:id="rId3"/>
     <sheet name="Pos 2018 - MT - Supermarket" sheetId="3" state="hidden" r:id="rId4"/>
     <sheet name="Pos 2018 - MT - Convenience Big" sheetId="4" state="hidden" r:id="rId5"/>
-    <sheet name="Pos 2018 - MT - Convenience Small" sheetId="5" state="hidden" r:id="rId6"/>
-    <sheet name="Pos 2018 - HoReCa - Bar Tavern Night Clubs" sheetId="6" state="hidden" r:id="rId7"/>
-    <sheet name="Pos 2018 - HoReCa - Coffee Tea Shops" sheetId="7" state="hidden" r:id="rId8"/>
-    <sheet name="Pos 2018 - HoReCa - Restaurant Cafe" sheetId="8" state="hidden" r:id="rId9"/>
+    <sheet name="Pos 2018 - MT - Convenience Sma" sheetId="5" state="hidden" r:id="rId6"/>
+    <sheet name="Pos 2018 - HoReCa - Bar Tavern " sheetId="6" state="hidden" r:id="rId7"/>
+    <sheet name="Pos 2018 - HoReCa - Coffee Tea " sheetId="7" state="hidden" r:id="rId8"/>
+    <sheet name="Pos 2018 - HoReCa - Restaurant " sheetId="8" state="hidden" r:id="rId9"/>
     <sheet name="Pos 2018 - Canteen" sheetId="9" state="hidden" r:id="rId10"/>
     <sheet name="Pos 2018 - Petroleum" sheetId="10" state="hidden" r:id="rId11"/>
     <sheet name="Pos 2018 - QSR" sheetId="11" state="hidden" r:id="rId12"/>
@@ -41,7 +41,7 @@
     <sheet name="PoS 2019 - MT Supermarket - CAP" sheetId="31" state="visible" r:id="rId32"/>
     <sheet name="PoS 2019 - MT Supermarket - REG" sheetId="32" state="visible" r:id="rId33"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1022" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1106" uniqueCount="139">
   <si>
     <t xml:space="preserve">SOURCE</t>
   </si>
@@ -242,6 +242,18 @@
     <t xml:space="preserve">KPIs_2019/Spirits 2018 - FT.xlsx</t>
   </si>
   <si>
+    <t xml:space="preserve">BENCHMARK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Benchmark 2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KPIs_2019/Benchmark 2019.xlsx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FT</t>
+  </si>
+  <si>
     <t xml:space="preserve">PoS 2019 - FT - REG</t>
   </si>
   <si>
@@ -254,12 +266,18 @@
     <t xml:space="preserve">KPIs_2019/PoS 2019 - FT NS - CAP.xlsx</t>
   </si>
   <si>
+    <t xml:space="preserve">FT NS CAP</t>
+  </si>
+  <si>
     <t xml:space="preserve">PoS 2019 - FT NS - REG</t>
   </si>
   <si>
     <t xml:space="preserve">KPIs_2019/PoS 2019 - FT NS - REG.xlsx</t>
   </si>
   <si>
+    <t xml:space="preserve">FT NS REG</t>
+  </si>
+  <si>
     <t xml:space="preserve">PoS 2019 - IC Canteen - EDU</t>
   </si>
   <si>
@@ -284,6 +302,9 @@
     <t xml:space="preserve">Equipment Execution 2019</t>
   </si>
   <si>
+    <t xml:space="preserve">Canteen EDU</t>
+  </si>
+  <si>
     <t xml:space="preserve">KPIs_2019/KPIConversion2019.xlsx</t>
   </si>
   <si>
@@ -293,6 +314,9 @@
     <t xml:space="preserve">KPIs_2019/PoS 2019 - IC Canteen - OTH.xlsx</t>
   </si>
   <si>
+    <t xml:space="preserve">Canteen OTH</t>
+  </si>
+  <si>
     <t xml:space="preserve">PoS 2019 - IC HoReCa BarTavernClub - CAP</t>
   </si>
   <si>
@@ -308,6 +332,9 @@
     <t xml:space="preserve">IC - HoReCa All</t>
   </si>
   <si>
+    <t xml:space="preserve">HoReCa</t>
+  </si>
+  <si>
     <t xml:space="preserve">PoS 2019 - IC HoReCa BarTavernClub - REG</t>
   </si>
   <si>
@@ -344,6 +371,9 @@
     <t xml:space="preserve">IC - Petroleum</t>
   </si>
   <si>
+    <t xml:space="preserve">Petrol</t>
+  </si>
+  <si>
     <t xml:space="preserve">PoS 2019 - IC Petroleum - REG</t>
   </si>
   <si>
@@ -359,6 +389,9 @@
     <t xml:space="preserve">IC - QSR</t>
   </si>
   <si>
+    <t xml:space="preserve">QSR</t>
+  </si>
+  <si>
     <t xml:space="preserve">PoS 2019 - MT Conv Big - CAP</t>
   </si>
   <si>
@@ -371,12 +404,18 @@
     <t xml:space="preserve">MT - Conv All</t>
   </si>
   <si>
+    <t xml:space="preserve">Conv Big CAP</t>
+  </si>
+  <si>
     <t xml:space="preserve">PoS 2019 - MT Conv Big - REG</t>
   </si>
   <si>
     <t xml:space="preserve">KPIs_2019/PoS 2019 - MT Conv Big - REG.xlsx</t>
   </si>
   <si>
+    <t xml:space="preserve">Conv Other</t>
+  </si>
+  <si>
     <t xml:space="preserve">PoS 2019 - MT Conv Small - CAP</t>
   </si>
   <si>
@@ -401,6 +440,9 @@
     <t xml:space="preserve">MT - Hyper-Super</t>
   </si>
   <si>
+    <t xml:space="preserve">Hyper</t>
+  </si>
+  <si>
     <t xml:space="preserve">PoS 2019 - MT Hypermarket - REG</t>
   </si>
   <si>
@@ -416,10 +458,16 @@
     <t xml:space="preserve">KPIs_2019/Spirits 2018 - MT - Supermarket.xlsx</t>
   </si>
   <si>
+    <t xml:space="preserve">Super CAP</t>
+  </si>
+  <si>
     <t xml:space="preserve">PoS 2019 - MT Supermarket - REG</t>
   </si>
   <si>
     <t xml:space="preserve">KPIs_2019/PoS 2019 - MT Supermarket - REG.xlsx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Super REG</t>
   </si>
 </sst>
 </file>
@@ -459,7 +507,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -494,6 +542,18 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF99FFFF"/>
         <bgColor rgb="FFCCFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC00"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF9900"/>
+        <bgColor rgb="FFFFCC00"/>
       </patternFill>
     </fill>
     <fill>
@@ -537,7 +597,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -563,6 +623,14 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -643,22 +711,21 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A12" activeCellId="0" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.469387755102"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.7908163265306"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="35.234693877551"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.9591836734694"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.2551020408163"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.1683673469388"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="32.6683673469388"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.1479591836735"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -672,7 +739,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>4</v>
       </c>
@@ -683,7 +750,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
         <v>7</v>
       </c>
@@ -697,7 +764,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
         <v>10</v>
       </c>
@@ -708,7 +775,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
         <v>13</v>
       </c>
@@ -719,7 +786,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
         <v>16</v>
       </c>
@@ -730,7 +797,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
         <v>19</v>
       </c>
@@ -744,7 +811,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
         <v>22</v>
       </c>
@@ -758,7 +825,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
         <v>24</v>
       </c>
@@ -766,7 +833,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
         <v>26</v>
       </c>
@@ -774,7 +841,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
         <v>28</v>
       </c>
@@ -785,6 +852,7 @@
         <v>30</v>
       </c>
     </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -807,16 +875,15 @@
       <selection pane="topLeft" activeCell="D19" activeCellId="0" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.469387755102"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="35.7704081632653"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="46.030612244898"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="35.7704081632653"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.2551020408163"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="33.2091836734694"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="42.6581632653061"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="33.2091836734694"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -830,7 +897,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>4</v>
       </c>
@@ -841,7 +908,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
         <v>7</v>
       </c>
@@ -855,7 +922,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
         <v>10</v>
       </c>
@@ -866,7 +933,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
         <v>13</v>
       </c>
@@ -877,12 +944,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
         <v>19</v>
       </c>
@@ -896,7 +963,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
         <v>22</v>
       </c>
@@ -910,7 +977,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
         <v>24</v>
       </c>
@@ -918,7 +985,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
         <v>26</v>
       </c>
@@ -926,7 +993,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
         <v>28</v>
       </c>
@@ -959,16 +1026,15 @@
       <selection pane="topLeft" activeCell="C20" activeCellId="0" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.469387755102"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="35.7704081632653"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="46.030612244898"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="35.7704081632653"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.2551020408163"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="33.2091836734694"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="42.6581632653061"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="33.2091836734694"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -982,7 +1048,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>4</v>
       </c>
@@ -993,7 +1059,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
         <v>7</v>
       </c>
@@ -1007,7 +1073,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
         <v>10</v>
       </c>
@@ -1018,7 +1084,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
         <v>13</v>
       </c>
@@ -1029,12 +1095,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
         <v>19</v>
       </c>
@@ -1048,7 +1114,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
         <v>22</v>
       </c>
@@ -1062,7 +1128,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
         <v>24</v>
       </c>
@@ -1070,7 +1136,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
         <v>26</v>
       </c>
@@ -1078,7 +1144,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
         <v>28</v>
       </c>
@@ -1105,21 +1171,22 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D65536"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C24" activeCellId="0" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.0663265306122"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.5969387755102"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="32.1275510204082"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.2857142857143"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.7397959183673"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.8418367346939"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="29.8316326530612"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.8010204081633"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1133,7 +1200,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>4</v>
       </c>
@@ -1144,7 +1211,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
         <v>7</v>
       </c>
@@ -1158,17 +1225,17 @@
         <v>59</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
         <v>16</v>
       </c>
@@ -1179,17 +1246,17 @@
         <v>62</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
         <v>24</v>
       </c>
@@ -1197,7 +1264,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
         <v>26</v>
       </c>
@@ -1205,11 +1272,26 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
         <v>28</v>
       </c>
     </row>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -1226,21 +1308,22 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D65536"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
+      <selection pane="topLeft" activeCell="A12" activeCellId="0" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.0663265306122"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.5969387755102"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="32.1275510204082"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.2857142857143"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.1173469387755"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.8418367346939"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="29.8316326530612"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.8010204081633"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1254,18 +1337,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
         <v>7</v>
       </c>
@@ -1276,20 +1359,20 @@
         <v>61</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
         <v>16</v>
       </c>
@@ -1300,17 +1383,17 @@
         <v>62</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
         <v>24</v>
       </c>
@@ -1318,7 +1401,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
         <v>26</v>
       </c>
@@ -1326,11 +1409,26 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
         <v>28</v>
       </c>
     </row>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -1347,21 +1445,22 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D65536"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
+      <selection pane="topLeft" activeCell="A12" activeCellId="0" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.0663265306122"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.5969387755102"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="32.1275510204082"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.2857142857143"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.1173469387755"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.8418367346939"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="29.8316326530612"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.8010204081633"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1375,18 +1474,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
         <v>7</v>
       </c>
@@ -1397,20 +1496,20 @@
         <v>61</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
         <v>16</v>
       </c>
@@ -1421,17 +1520,17 @@
         <v>62</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
         <v>24</v>
       </c>
@@ -1439,7 +1538,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
         <v>26</v>
       </c>
@@ -1447,11 +1546,26 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
         <v>28</v>
       </c>
     </row>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -1468,21 +1582,22 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D65536"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
+      <selection pane="topLeft" activeCell="B12" activeCellId="0" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.0663265306122"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.5969387755102"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="32.1275510204082"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.2857142857143"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.1173469387755"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.8418367346939"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="29.8316326530612"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.8010204081633"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1496,18 +1611,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
         <v>7</v>
       </c>
@@ -1518,20 +1633,20 @@
         <v>61</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
         <v>16</v>
       </c>
@@ -1542,17 +1657,17 @@
         <v>62</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
         <v>24</v>
       </c>
@@ -1560,7 +1675,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
         <v>26</v>
       </c>
@@ -1568,11 +1683,26 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
         <v>28</v>
       </c>
     </row>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -1589,21 +1719,22 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D10" activeCellId="0" sqref="D10"/>
+      <selection pane="topLeft" activeCell="B12" activeCellId="0" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.0663265306122"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.7602040816327"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="40.0918367346939"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.2857142857143"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.1173469387755"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.8673469387755"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="37.2602040816326"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.8010204081633"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1617,18 +1748,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
         <v>7</v>
       </c>
@@ -1639,59 +1770,59 @@
         <v>61</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
         <v>19</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
         <v>22</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
         <v>24</v>
       </c>
@@ -1699,7 +1830,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
         <v>26</v>
       </c>
@@ -1707,15 +1838,29 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c r="B12" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="0" t="s">
-        <v>77</v>
+      <c r="C12" s="0" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -1734,21 +1879,22 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D8" activeCellId="0" sqref="D8"/>
+      <selection pane="topLeft" activeCell="A13" activeCellId="0" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.0663265306122"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.7602040816327"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="40.0918367346939"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.2857142857143"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.1173469387755"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.8673469387755"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="37.2602040816326"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.8010204081633"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1762,18 +1908,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
         <v>7</v>
       </c>
@@ -1784,59 +1930,59 @@
         <v>61</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
         <v>19</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
         <v>22</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
         <v>24</v>
       </c>
@@ -1844,7 +1990,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
         <v>26</v>
       </c>
@@ -1852,15 +1998,29 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c r="B12" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="0" t="s">
-        <v>77</v>
+      <c r="C12" s="0" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -1879,21 +2039,22 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.0663265306122"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="35.0969387755102"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="47.6530612244898"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.2857142857143"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.1173469387755"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="32.530612244898"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="44.2755102040816"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.8010204081633"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1907,18 +2068,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
         <v>7</v>
       </c>
@@ -1928,27 +2089,27 @@
       <c r="C3" s="0" t="s">
         <v>61</v>
       </c>
-      <c r="D3" s="6" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D3" s="8" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
         <v>16</v>
       </c>
@@ -1956,38 +2117,38 @@
         <v>47</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
         <v>19</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
         <v>22</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
         <v>24</v>
       </c>
@@ -1995,7 +2156,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
         <v>26</v>
       </c>
@@ -2003,15 +2164,29 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c r="B12" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="0" t="s">
-        <v>77</v>
+      <c r="C12" s="0" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -2030,21 +2205,22 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.0663265306122"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="35.0969387755102"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="47.6530612244898"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.2857142857143"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.1173469387755"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="32.530612244898"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="44.2755102040816"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.8010204081633"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2058,18 +2234,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
         <v>7</v>
       </c>
@@ -2079,27 +2255,27 @@
       <c r="C3" s="0" t="s">
         <v>61</v>
       </c>
-      <c r="D3" s="6" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D3" s="8" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
         <v>16</v>
       </c>
@@ -2107,38 +2283,38 @@
         <v>47</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
         <v>19</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
         <v>22</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
         <v>24</v>
       </c>
@@ -2146,7 +2322,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
         <v>26</v>
       </c>
@@ -2154,15 +2330,29 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c r="B12" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="0" t="s">
-        <v>77</v>
+      <c r="C12" s="0" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -2187,16 +2377,15 @@
       <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.469387755102"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="28.6173469387755"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="35.234693877551"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="33.3418367346939"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.2551020408163"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.4591836734694"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="32.6683673469388"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="30.780612244898"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2210,7 +2399,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>4</v>
       </c>
@@ -2221,7 +2410,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
         <v>7</v>
       </c>
@@ -2235,7 +2424,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
         <v>10</v>
       </c>
@@ -2246,7 +2435,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
         <v>13</v>
       </c>
@@ -2257,7 +2446,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
         <v>16</v>
       </c>
@@ -2268,7 +2457,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
         <v>19</v>
       </c>
@@ -2282,7 +2471,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
         <v>22</v>
       </c>
@@ -2296,7 +2485,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
         <v>24</v>
       </c>
@@ -2304,7 +2493,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
         <v>26</v>
       </c>
@@ -2312,7 +2501,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
         <v>28</v>
       </c>
@@ -2339,21 +2528,22 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C11" activeCellId="0" sqref="C11"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.0663265306122"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="35.0969387755102"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="47.6530612244898"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.2857142857143"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.1173469387755"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="32.530612244898"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="44.2755102040816"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.8010204081633"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2367,18 +2557,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
         <v>7</v>
       </c>
@@ -2388,27 +2578,27 @@
       <c r="C3" s="0" t="s">
         <v>61</v>
       </c>
-      <c r="D3" s="6" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D3" s="8" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
         <v>16</v>
       </c>
@@ -2416,38 +2606,38 @@
         <v>47</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
         <v>19</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
         <v>22</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
         <v>24</v>
       </c>
@@ -2455,7 +2645,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
         <v>26</v>
       </c>
@@ -2463,15 +2653,29 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c r="B12" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="0" t="s">
-        <v>77</v>
+      <c r="C12" s="0" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -2490,21 +2694,22 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.0663265306122"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="35.0969387755102"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="47.6530612244898"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.2857142857143"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.1173469387755"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="32.530612244898"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="44.2755102040816"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.8010204081633"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2518,18 +2723,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
         <v>7</v>
       </c>
@@ -2539,27 +2744,27 @@
       <c r="C3" s="0" t="s">
         <v>61</v>
       </c>
-      <c r="D3" s="6" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D3" s="8" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
         <v>16</v>
       </c>
@@ -2567,38 +2772,38 @@
         <v>47</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
         <v>19</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
         <v>22</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
         <v>24</v>
       </c>
@@ -2606,7 +2811,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
         <v>26</v>
       </c>
@@ -2614,15 +2819,29 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c r="B12" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="0" t="s">
-        <v>77</v>
+      <c r="C12" s="0" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -2641,22 +2860,21 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
+      <selection pane="topLeft" activeCell="A12" activeCellId="0" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.469387755102"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="35.7704081632653"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="46.030612244898"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="35.7704081632653"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.2551020408163"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="33.2091836734694"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="42.6581632653061"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="33.2091836734694"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2670,18 +2888,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
         <v>7</v>
       </c>
@@ -2692,59 +2910,59 @@
         <v>61</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
         <v>19</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
         <v>22</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
         <v>24</v>
       </c>
@@ -2752,7 +2970,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
         <v>26</v>
       </c>
@@ -2760,15 +2978,29 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c r="B12" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="0" t="s">
-        <v>77</v>
+      <c r="C12" s="0" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -2787,22 +3019,21 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
+      <selection pane="topLeft" activeCell="A12" activeCellId="0" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.469387755102"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="35.7704081632653"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="46.030612244898"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="35.7704081632653"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.2551020408163"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="33.2091836734694"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="42.6581632653061"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="33.2091836734694"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2816,18 +3047,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
         <v>7</v>
       </c>
@@ -2838,59 +3069,59 @@
         <v>61</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
         <v>19</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
         <v>22</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
         <v>24</v>
       </c>
@@ -2898,7 +3129,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
         <v>26</v>
       </c>
@@ -2906,15 +3137,29 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c r="B12" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="0" t="s">
-        <v>77</v>
+      <c r="C12" s="0" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -2933,22 +3178,21 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A12" activeCellId="0" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.469387755102"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="35.7704081632653"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="46.030612244898"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="35.7704081632653"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.2551020408163"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="33.2091836734694"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="42.6581632653061"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="33.2091836734694"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2962,18 +3206,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
         <v>7</v>
       </c>
@@ -2984,59 +3228,59 @@
         <v>61</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
         <v>19</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
         <v>22</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
         <v>24</v>
       </c>
@@ -3044,7 +3288,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
         <v>26</v>
       </c>
@@ -3052,15 +3296,29 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c r="B12" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="0" t="s">
-        <v>77</v>
+      <c r="C12" s="0" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -3079,22 +3337,21 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
+      <selection pane="topLeft" activeCell="A12" activeCellId="0" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.469387755102"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.8622448979592"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="37.1224489795918"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="33.3418367346939"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.2551020408163"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.8367346938776"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="34.4234693877551"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="30.780612244898"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3108,18 +3365,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
         <v>7</v>
       </c>
@@ -3130,26 +3387,26 @@
         <v>61</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
         <v>16</v>
       </c>
@@ -3157,38 +3414,38 @@
         <v>41</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
         <v>19</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
         <v>22</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
         <v>24</v>
       </c>
@@ -3196,7 +3453,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
         <v>26</v>
       </c>
@@ -3204,15 +3461,29 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c r="B12" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="0" t="s">
-        <v>77</v>
+      <c r="C12" s="0" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -3231,22 +3502,21 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
+      <selection pane="topLeft" activeCell="A12" activeCellId="0" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.469387755102"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.8622448979592"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="37.1224489795918"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="33.3418367346939"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.2551020408163"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.8367346938776"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="34.4234693877551"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="30.780612244898"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3260,18 +3530,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>106</v>
+        <v>118</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
         <v>7</v>
       </c>
@@ -3282,26 +3552,26 @@
         <v>61</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
         <v>16</v>
       </c>
@@ -3309,38 +3579,38 @@
         <v>41</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
         <v>19</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
         <v>22</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
         <v>24</v>
       </c>
@@ -3348,7 +3618,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
         <v>26</v>
       </c>
@@ -3356,15 +3626,29 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c r="B12" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="0" t="s">
-        <v>77</v>
+      <c r="C12" s="0" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -3383,22 +3667,21 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D15" activeCellId="0" sqref="D15"/>
+      <selection pane="topLeft" activeCell="A12" activeCellId="0" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.469387755102"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.8622448979592"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="39.1479591836735"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="33.3418367346939"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.2551020408163"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.8367346938776"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="36.3112244897959"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="30.780612244898"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3412,18 +3695,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>108</v>
+        <v>121</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
         <v>7</v>
       </c>
@@ -3434,26 +3717,26 @@
         <v>61</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
         <v>16</v>
       </c>
@@ -3461,38 +3744,38 @@
         <v>41</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
         <v>19</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
         <v>22</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
         <v>24</v>
       </c>
@@ -3500,7 +3783,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
         <v>26</v>
       </c>
@@ -3508,15 +3791,29 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c r="B12" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="0" t="s">
-        <v>77</v>
+      <c r="C12" s="0" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -3535,22 +3832,21 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C19" activeCellId="0" sqref="C19"/>
+      <selection pane="topLeft" activeCell="A12" activeCellId="0" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.469387755102"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.8622448979592"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="39.1479591836735"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="33.3418367346939"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.2551020408163"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.8367346938776"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="36.3112244897959"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="30.780612244898"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3564,18 +3860,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>110</v>
+        <v>123</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
         <v>7</v>
       </c>
@@ -3586,26 +3882,26 @@
         <v>61</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
         <v>16</v>
       </c>
@@ -3613,38 +3909,38 @@
         <v>41</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
         <v>19</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
         <v>22</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
         <v>24</v>
       </c>
@@ -3652,7 +3948,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
         <v>26</v>
       </c>
@@ -3660,15 +3956,29 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c r="B12" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="0" t="s">
-        <v>77</v>
+      <c r="C12" s="0" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -3687,22 +3997,21 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
+      <selection pane="topLeft" activeCell="A12" activeCellId="0" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.469387755102"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="28.6173469387755"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="35.234693877551"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="33.3418367346939"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.2551020408163"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.4591836734694"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="32.6683673469388"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="30.780612244898"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3716,18 +4025,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>112</v>
+        <v>125</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
         <v>7</v>
       </c>
@@ -3738,26 +4047,26 @@
         <v>61</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
         <v>16</v>
       </c>
@@ -3765,38 +4074,38 @@
         <v>33</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
         <v>19</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
         <v>22</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
         <v>24</v>
       </c>
@@ -3804,7 +4113,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
         <v>26</v>
       </c>
@@ -3812,15 +4121,29 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c r="B12" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="0" t="s">
-        <v>77</v>
+      <c r="C12" s="0" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -3845,16 +4168,15 @@
       <selection pane="topLeft" activeCell="D16" activeCellId="0" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.469387755102"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="28.6173469387755"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="35.234693877551"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="33.3418367346939"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.2551020408163"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.4591836734694"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="32.6683673469388"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="30.780612244898"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3868,7 +4190,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>4</v>
       </c>
@@ -3879,7 +4201,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
         <v>7</v>
       </c>
@@ -3893,7 +4215,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
         <v>10</v>
       </c>
@@ -3904,7 +4226,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
         <v>13</v>
       </c>
@@ -3915,7 +4237,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
         <v>16</v>
       </c>
@@ -3926,7 +4248,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
         <v>19</v>
       </c>
@@ -3940,7 +4262,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
         <v>22</v>
       </c>
@@ -3954,7 +4276,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
         <v>24</v>
       </c>
@@ -3962,7 +4284,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
         <v>26</v>
       </c>
@@ -3970,7 +4292,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
         <v>28</v>
       </c>
@@ -3997,22 +4319,21 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
+      <selection pane="topLeft" activeCell="A12" activeCellId="0" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.469387755102"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="28.6173469387755"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="35.234693877551"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="33.3418367346939"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.2551020408163"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.4591836734694"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="32.6683673469388"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="30.780612244898"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4026,18 +4347,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>116</v>
+        <v>130</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
         <v>7</v>
       </c>
@@ -4048,26 +4369,26 @@
         <v>61</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
         <v>16</v>
       </c>
@@ -4075,38 +4396,38 @@
         <v>33</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
         <v>19</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
         <v>22</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
         <v>24</v>
       </c>
@@ -4114,7 +4435,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
         <v>26</v>
       </c>
@@ -4122,15 +4443,29 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c r="B12" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="0" t="s">
-        <v>77</v>
+      <c r="C12" s="0" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -4149,22 +4484,21 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
+      <selection pane="topLeft" activeCell="A12" activeCellId="0" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.469387755102"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="28.6173469387755"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="40.2295918367347"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="33.3418367346939"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.2551020408163"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.4591836734694"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="37.3928571428571"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="30.780612244898"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4178,18 +4512,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>118</v>
+        <v>132</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
         <v>7</v>
       </c>
@@ -4200,26 +4534,26 @@
         <v>61</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
         <v>16</v>
       </c>
@@ -4227,38 +4561,38 @@
         <v>37</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
         <v>19</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
         <v>22</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
         <v>24</v>
       </c>
@@ -4266,7 +4600,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
         <v>26</v>
       </c>
@@ -4274,15 +4608,29 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c r="B12" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="0" t="s">
-        <v>77</v>
+      <c r="C12" s="0" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -4301,22 +4649,21 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N32" activeCellId="0" sqref="N32"/>
+      <selection pane="topLeft" activeCell="A12" activeCellId="0" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.469387755102"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="28.6173469387755"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="40.765306122449"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="33.3418367346939"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.2551020408163"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.4591836734694"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="37.7959183673469"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="30.780612244898"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4330,18 +4677,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>121</v>
+        <v>136</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
         <v>7</v>
       </c>
@@ -4352,26 +4699,26 @@
         <v>61</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
         <v>16</v>
       </c>
@@ -4379,38 +4726,38 @@
         <v>37</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
         <v>19</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
         <v>22</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
         <v>24</v>
       </c>
@@ -4418,7 +4765,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
         <v>26</v>
       </c>
@@ -4426,15 +4773,29 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c r="B12" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="0" t="s">
-        <v>77</v>
+      <c r="C12" s="0" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -4459,16 +4820,15 @@
       <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.469387755102"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.8622448979592"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="35.234693877551"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="33.3418367346939"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.2551020408163"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.8367346938776"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="32.6683673469388"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="30.780612244898"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4482,7 +4842,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>4</v>
       </c>
@@ -4493,7 +4853,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
         <v>7</v>
       </c>
@@ -4507,7 +4867,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
         <v>10</v>
       </c>
@@ -4518,7 +4878,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
         <v>13</v>
       </c>
@@ -4529,7 +4889,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
         <v>16</v>
       </c>
@@ -4540,7 +4900,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
         <v>19</v>
       </c>
@@ -4554,7 +4914,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
         <v>22</v>
       </c>
@@ -4568,7 +4928,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
         <v>24</v>
       </c>
@@ -4576,7 +4936,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
         <v>26</v>
       </c>
@@ -4584,7 +4944,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
         <v>28</v>
       </c>
@@ -4617,16 +4977,15 @@
       <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.469387755102"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="28.6173469387755"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="35.234693877551"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="33.3418367346939"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.2551020408163"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.4591836734694"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="32.6683673469388"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="30.780612244898"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4640,7 +4999,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>4</v>
       </c>
@@ -4651,7 +5010,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
         <v>7</v>
       </c>
@@ -4665,7 +5024,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
         <v>10</v>
       </c>
@@ -4676,7 +5035,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
         <v>13</v>
       </c>
@@ -4687,7 +5046,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
         <v>16</v>
       </c>
@@ -4698,7 +5057,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
         <v>19</v>
       </c>
@@ -4712,7 +5071,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
         <v>22</v>
       </c>
@@ -4726,7 +5085,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
         <v>24</v>
       </c>
@@ -4734,7 +5093,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
         <v>26</v>
       </c>
@@ -4742,7 +5101,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
         <v>28</v>
       </c>
@@ -4775,16 +5134,15 @@
       <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.469387755102"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="35.7704081632653"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="46.030612244898"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="35.7704081632653"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.2551020408163"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="33.2091836734694"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="42.6581632653061"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="33.2091836734694"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4798,7 +5156,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>4</v>
       </c>
@@ -4809,7 +5167,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
         <v>7</v>
       </c>
@@ -4823,7 +5181,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
         <v>10</v>
       </c>
@@ -4834,7 +5192,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
         <v>13</v>
       </c>
@@ -4845,7 +5203,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
         <v>16</v>
       </c>
@@ -4856,7 +5214,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
         <v>19</v>
       </c>
@@ -4870,7 +5228,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
         <v>22</v>
       </c>
@@ -4884,7 +5242,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
         <v>24</v>
       </c>
@@ -4892,7 +5250,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
         <v>26</v>
       </c>
@@ -4900,7 +5258,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
         <v>28</v>
       </c>
@@ -4933,16 +5291,15 @@
       <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.469387755102"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="35.7704081632653"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="46.030612244898"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="35.7704081632653"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.2551020408163"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="33.2091836734694"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="42.6581632653061"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="33.2091836734694"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4956,7 +5313,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>4</v>
       </c>
@@ -4967,7 +5324,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
         <v>7</v>
       </c>
@@ -4981,7 +5338,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
         <v>10</v>
       </c>
@@ -4992,7 +5349,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
         <v>13</v>
       </c>
@@ -5003,7 +5360,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
         <v>16</v>
       </c>
@@ -5014,7 +5371,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
         <v>19</v>
       </c>
@@ -5028,7 +5385,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
         <v>22</v>
       </c>
@@ -5042,7 +5399,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
         <v>24</v>
       </c>
@@ -5050,7 +5407,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
         <v>26</v>
       </c>
@@ -5058,7 +5415,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
         <v>28</v>
       </c>
@@ -5091,16 +5448,15 @@
       <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.469387755102"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="35.7704081632653"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="46.030612244898"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="35.7704081632653"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.2551020408163"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="33.2091836734694"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="42.6581632653061"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="33.2091836734694"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5114,7 +5470,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>4</v>
       </c>
@@ -5125,7 +5481,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
         <v>7</v>
       </c>
@@ -5139,7 +5495,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
         <v>10</v>
       </c>
@@ -5150,7 +5506,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
         <v>13</v>
       </c>
@@ -5161,7 +5517,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
         <v>16</v>
       </c>
@@ -5172,7 +5528,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
         <v>19</v>
       </c>
@@ -5186,7 +5542,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
         <v>22</v>
       </c>
@@ -5200,7 +5556,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
         <v>24</v>
       </c>
@@ -5208,7 +5564,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
         <v>26</v>
       </c>
@@ -5216,7 +5572,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
         <v>28</v>
       </c>
@@ -5249,16 +5605,15 @@
       <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.469387755102"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="35.7704081632653"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="46.030612244898"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="35.7704081632653"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.2551020408163"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="33.2091836734694"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="42.6581632653061"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="33.2091836734694"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5272,7 +5627,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>4</v>
       </c>
@@ -5283,7 +5638,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
         <v>7</v>
       </c>
@@ -5297,7 +5652,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
         <v>10</v>
       </c>
@@ -5308,7 +5663,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
         <v>13</v>
       </c>
@@ -5319,12 +5674,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
         <v>19</v>
       </c>
@@ -5338,7 +5693,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
         <v>22</v>
       </c>
@@ -5352,7 +5707,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
         <v>24</v>
       </c>
@@ -5360,7 +5715,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
         <v>26</v>
       </c>
@@ -5368,7 +5723,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
         <v>28</v>
       </c>

--- a/Projects/CCRU_SAND/Data/KPI_Source.xlsx
+++ b/Projects/CCRU_SAND/Data/KPI_Source.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="11" activeTab="11"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="11" activeTab="28"/>
   </bookViews>
   <sheets>
     <sheet name="Pos 2018 - FT" sheetId="1" state="hidden" r:id="rId2"/>
@@ -25,21 +25,26 @@
     <sheet name="PoS 2019 - FT NS - REG" sheetId="15" state="visible" r:id="rId16"/>
     <sheet name="PoS 2019 - IC Canteen - EDU" sheetId="16" state="visible" r:id="rId17"/>
     <sheet name="PoS 2019 - IC Canteen - OTH" sheetId="17" state="visible" r:id="rId18"/>
-    <sheet name="PoS 2019 - IC HoReCa BarTavernClub - CAP" sheetId="18" state="visible" r:id="rId19"/>
-    <sheet name="PoS 2019 - IC HoReCa BarTavernClub - REG" sheetId="19" state="visible" r:id="rId20"/>
-    <sheet name="PoS 2019 - IC HoReCa RestCafeTea - CAP" sheetId="20" state="visible" r:id="rId21"/>
-    <sheet name="PoS 2019 - IC HoReCa RestCafeTea - REG" sheetId="21" state="visible" r:id="rId22"/>
-    <sheet name="PoS 2019 - IC Petroleum - CAP" sheetId="22" state="visible" r:id="rId23"/>
-    <sheet name="PoS 2019 - IC Petroleum - REG" sheetId="23" state="visible" r:id="rId24"/>
-    <sheet name="PoS 2019 - IC QSR" sheetId="24" state="visible" r:id="rId25"/>
-    <sheet name="PoS 2019 - MT Conv Big - CAP" sheetId="25" state="visible" r:id="rId26"/>
-    <sheet name="PoS 2019 - MT Conv Big - REG" sheetId="26" state="visible" r:id="rId27"/>
-    <sheet name="PoS 2019 - MT Conv Small - CAP" sheetId="27" state="visible" r:id="rId28"/>
-    <sheet name="PoS 2019 - MT Conv Small - REG" sheetId="28" state="visible" r:id="rId29"/>
-    <sheet name="PoS 2019 - MT Hypermarket - CAP" sheetId="29" state="visible" r:id="rId30"/>
-    <sheet name="PoS 2019 - MT Hypermarket - REG" sheetId="30" state="visible" r:id="rId31"/>
-    <sheet name="PoS 2019 - MT Supermarket - CAP" sheetId="31" state="visible" r:id="rId32"/>
-    <sheet name="PoS 2019 - MT Supermarket - REG" sheetId="32" state="visible" r:id="rId33"/>
+    <sheet name="PoS 2019 - IC HoReCa BarTavernClub" sheetId="18" state="visible" r:id="rId19"/>
+    <sheet name="PoS 2019 - IC HoReCa BarTavernClub - CAP" sheetId="19" state="hidden" r:id="rId20"/>
+    <sheet name="PoS 2019 - IC HoReCa BarTavernClub - REG" sheetId="20" state="hidden" r:id="rId21"/>
+    <sheet name="PoS 2019 - IC HoReCa RestCafeTea" sheetId="21" state="visible" r:id="rId22"/>
+    <sheet name="PoS 2019 - IC HoReCa RestCafeTea - CAP" sheetId="22" state="hidden" r:id="rId23"/>
+    <sheet name="PoS 2019 - IC HoReCa RestCafeTea - REG" sheetId="23" state="hidden" r:id="rId24"/>
+    <sheet name="PoS 2019 - IC Petroleum - CAP" sheetId="24" state="visible" r:id="rId25"/>
+    <sheet name="PoS 2019 - IC Petroleum - REG" sheetId="25" state="visible" r:id="rId26"/>
+    <sheet name="PoS 2019 - IC FastFood" sheetId="26" state="visible" r:id="rId27"/>
+    <sheet name="PoS 2019 - IC QSR" sheetId="27" state="visible" r:id="rId28"/>
+    <sheet name="PoS 2019 - IC Cinema - CAP" sheetId="28" state="visible" r:id="rId29"/>
+    <sheet name="PoS 2019 - IC Cinema - REG" sheetId="29" state="visible" r:id="rId30"/>
+    <sheet name="PoS 2019 - MT Conv Big - CAP" sheetId="30" state="visible" r:id="rId31"/>
+    <sheet name="PoS 2019 - MT Conv Big - REG" sheetId="31" state="visible" r:id="rId32"/>
+    <sheet name="PoS 2019 - MT Conv Small - CAP" sheetId="32" state="visible" r:id="rId33"/>
+    <sheet name="PoS 2019 - MT Conv Small - REG" sheetId="33" state="visible" r:id="rId34"/>
+    <sheet name="PoS 2019 - MT Hypermarket - CAP" sheetId="34" state="visible" r:id="rId35"/>
+    <sheet name="PoS 2019 - MT Hypermarket - REG" sheetId="35" state="visible" r:id="rId36"/>
+    <sheet name="PoS 2019 - MT Supermarket - CAP" sheetId="36" state="visible" r:id="rId37"/>
+    <sheet name="PoS 2019 - MT Supermarket - REG" sheetId="37" state="visible" r:id="rId38"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -51,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1106" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1285" uniqueCount="151">
   <si>
     <t xml:space="preserve">SOURCE</t>
   </si>
@@ -317,6 +322,21 @@
     <t xml:space="preserve">Canteen OTH</t>
   </si>
   <si>
+    <t xml:space="preserve">PoS 2019 - IC HoReCa BarTavernClub</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KPIs_2019/PoS 2019 - IC HoReCa BarTavernClub.xlsx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KPIs_2019/Spirits 2018 - IC - HoReCa.xlsx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IC - HoReCa ALL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HoReCa</t>
+  </si>
+  <si>
     <t xml:space="preserve">PoS 2019 - IC HoReCa BarTavernClub - CAP</t>
   </si>
   <si>
@@ -326,15 +346,6 @@
     <t xml:space="preserve">PoS 2019 ICHoReCa BarTavern CAP</t>
   </si>
   <si>
-    <t xml:space="preserve">KPIs_2019/Spirits 2018 - IC - HoReCa.xlsx</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IC - HoReCa All</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HoReCa</t>
-  </si>
-  <si>
     <t xml:space="preserve">PoS 2019 - IC HoReCa BarTavernClub - REG</t>
   </si>
   <si>
@@ -344,6 +355,12 @@
     <t xml:space="preserve">PoS 2019 ICHoReCa BarTavern REG</t>
   </si>
   <si>
+    <t xml:space="preserve">PoS 2019 - IC HoReCa RestCafeTea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KPIs_2019/PoS 2019 - IC HoReCa RestCafeTea.xlsx</t>
+  </si>
+  <si>
     <t xml:space="preserve">PoS 2019 - IC HoReCa RestCafeTea - CAP</t>
   </si>
   <si>
@@ -380,16 +397,40 @@
     <t xml:space="preserve">KPIs_2019/PoS 2019 - IC Petroleum - REG.xlsx</t>
   </si>
   <si>
+    <t xml:space="preserve">PoS 2019 - IC FastFood</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KPIs_2019/PoS 2019 - IC FastFood.xlsx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IC - FastFood</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FastFood</t>
+  </si>
+  <si>
     <t xml:space="preserve">PoS 2019 - IC QSR</t>
   </si>
   <si>
     <t xml:space="preserve">KPIs_2019/PoS 2019 - IC QSR.xlsx</t>
   </si>
   <si>
-    <t xml:space="preserve">IC - QSR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">QSR</t>
+    <t xml:space="preserve">IC - QSR-Cinema</t>
+  </si>
+  <si>
+    <t xml:space="preserve">QSR-Cinema</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PoS 2019 - IC Cinema - CAP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KPIs_2019/PoS 2019 - IC Cinema - CAP.xlsx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PoS 2019 - IC Cinema - REG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KPIs_2019/PoS 2019 - IC Cinema - REG.xlsx</t>
   </si>
   <si>
     <t xml:space="preserve">PoS 2019 - MT Conv Big - CAP</t>
@@ -719,10 +760,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.2551020408163"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.1683673469388"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="32.6683673469388"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.1479591836735"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.7704081632653"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.5510204081633"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="30.2397959183673"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.6632653061225"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -877,10 +919,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.2551020408163"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="33.2091836734694"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="42.6581632653061"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="33.2091836734694"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.7704081632653"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="30.6428571428571"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="39.6887755102041"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="30.6428571428571"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1028,10 +1071,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.2551020408163"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="33.2091836734694"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="42.6581632653061"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="33.2091836734694"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.7704081632653"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="30.6428571428571"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="39.6887755102041"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="30.6428571428571"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1173,17 +1217,16 @@
   </sheetPr>
   <dimension ref="A1:D65536"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C24" activeCellId="0" sqref="C24"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.7397959183673"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.8418367346939"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="29.8316326530612"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.8010204081633"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.3877551020408"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.2244897959184"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="27.5408163265306"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.98979591836735"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1316,11 +1359,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.1173469387755"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.8418367346939"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="29.8316326530612"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.8010204081633"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.5"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.2244897959184"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="27.5408163265306"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.98979591836735"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1453,11 +1495,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.1173469387755"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.8418367346939"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="29.8316326530612"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.8010204081633"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.5"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.2244897959184"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="27.5408163265306"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.98979591836735"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1590,11 +1631,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.1173469387755"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.8418367346939"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="29.8316326530612"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.8010204081633"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.5"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.2244897959184"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="27.5408163265306"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.98979591836735"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1727,11 +1767,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.1173469387755"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.8673469387755"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="37.2602040816326"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.8010204081633"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.5"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.1122448979592"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="34.5561224489796"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.98979591836735"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1887,11 +1926,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.1173469387755"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.8673469387755"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="37.2602040816326"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.8010204081633"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.5"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.1122448979592"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="34.5561224489796"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.98979591836735"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2042,16 +2080,15 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.1173469387755"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="32.530612244898"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="44.2755102040816"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.8010204081633"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.5"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="30.2397959183673"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="41.1734693877551"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.98979591836735"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2090,7 +2127,7 @@
         <v>61</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2117,7 +2154,7 @@
         <v>47</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2131,7 +2168,7 @@
         <v>80</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2145,7 +2182,7 @@
         <v>80</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2175,7 +2212,7 @@
         <v>65</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2203,21 +2240,21 @@
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
+    <tabColor rgb="FF333333"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="P33" activeCellId="0" sqref="P33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.1173469387755"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="32.530612244898"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="44.2755102040816"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.8010204081633"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.5"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="30.2397959183673"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="41.1734693877551"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.98979591836735"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2239,10 +2276,10 @@
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>94</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2256,7 +2293,7 @@
         <v>61</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2283,7 +2320,7 @@
         <v>47</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2297,7 +2334,7 @@
         <v>80</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2311,7 +2348,7 @@
         <v>80</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2341,7 +2378,7 @@
         <v>65</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2379,10 +2416,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.2551020408163"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.4591836734694"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="32.6683673469388"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="30.780612244898"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.7704081632653"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.5663265306122"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="30.2397959183673"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="28.484693877551"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2526,6 +2564,7 @@
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
+    <tabColor rgb="FF333333"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:D12"/>
@@ -2536,11 +2575,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.1173469387755"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="32.530612244898"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="44.2755102040816"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.8010204081633"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.5"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="30.2397959183673"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="41.1734693877551"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.98979591836735"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2562,10 +2600,10 @@
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>97</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2579,7 +2617,7 @@
         <v>61</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2606,7 +2644,7 @@
         <v>47</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2620,7 +2658,7 @@
         <v>80</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2634,7 +2672,7 @@
         <v>80</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2664,7 +2702,7 @@
         <v>65</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2696,17 +2734,16 @@
   </sheetPr>
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G11" activeCellId="0" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.1173469387755"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="32.530612244898"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="44.2755102040816"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.8010204081633"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.5"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="30.2397959183673"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="41.1734693877551"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.98979591836735"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2728,10 +2765,10 @@
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>100</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2745,7 +2782,7 @@
         <v>61</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2772,7 +2809,7 @@
         <v>47</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2786,7 +2823,7 @@
         <v>80</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2800,7 +2837,7 @@
         <v>80</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2830,7 +2867,7 @@
         <v>65</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2858,20 +2895,21 @@
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
+    <tabColor rgb="FF333333"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A12" activeCellId="0" sqref="A12"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.2551020408163"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="33.2091836734694"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="42.6581632653061"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="33.2091836734694"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.5"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="30.2397959183673"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="41.1734693877551"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.98979591836735"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2893,10 +2931,10 @@
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2909,7 +2947,7 @@
       <c r="C3" s="0" t="s">
         <v>61</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="8" t="s">
         <v>103</v>
       </c>
     </row>
@@ -2933,6 +2971,12 @@
       <c r="A6" s="0" t="s">
         <v>16</v>
       </c>
+      <c r="B6" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
@@ -2945,7 +2989,7 @@
         <v>80</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2959,7 +3003,7 @@
         <v>80</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2989,7 +3033,7 @@
         <v>65</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3017,20 +3061,21 @@
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
+    <tabColor rgb="FF333333"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A12" activeCellId="0" sqref="A12"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.2551020408163"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="33.2091836734694"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="42.6581632653061"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="33.2091836734694"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.5"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="30.2397959183673"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="41.1734693877551"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.98979591836735"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3052,10 +3097,10 @@
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3068,8 +3113,8 @@
       <c r="C3" s="0" t="s">
         <v>61</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>107</v>
+      <c r="D3" s="8" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3092,6 +3137,12 @@
       <c r="A6" s="0" t="s">
         <v>16</v>
       </c>
+      <c r="B6" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
@@ -3104,7 +3155,7 @@
         <v>80</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3118,7 +3169,7 @@
         <v>80</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3148,7 +3199,7 @@
         <v>65</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3186,10 +3237,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.2551020408163"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="33.2091836734694"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="42.6581632653061"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="33.2091836734694"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.7704081632653"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="30.6428571428571"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="39.6887755102041"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="30.6428571428571"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3211,10 +3263,10 @@
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3228,7 +3280,7 @@
         <v>61</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3263,7 +3315,7 @@
         <v>80</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3277,7 +3329,7 @@
         <v>80</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3307,7 +3359,7 @@
         <v>65</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3345,10 +3397,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.2551020408163"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.8367346938776"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="34.4234693877551"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="30.780612244898"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.7704081632653"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="30.6428571428571"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="39.6887755102041"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="30.6428571428571"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3370,10 +3423,10 @@
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3387,7 +3440,7 @@
         <v>61</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3410,12 +3463,6 @@
       <c r="A6" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>115</v>
-      </c>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
@@ -3428,7 +3475,7 @@
         <v>80</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3442,7 +3489,7 @@
         <v>80</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3472,7 +3519,7 @@
         <v>65</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3505,15 +3552,16 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A12" activeCellId="0" sqref="A12"/>
+      <selection pane="topLeft" activeCell="D11" activeCellId="0" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.2551020408163"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.8367346938776"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="34.4234693877551"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="30.780612244898"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.7704081632653"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="30.6428571428571"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="39.6887755102041"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="30.6428571428571"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3535,10 +3583,10 @@
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3552,7 +3600,7 @@
         <v>61</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3575,14 +3623,8 @@
       <c r="A6" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
         <v>19</v>
       </c>
@@ -3593,10 +3635,10 @@
         <v>80</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
         <v>22</v>
       </c>
@@ -3607,7 +3649,7 @@
         <v>80</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3626,7 +3668,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
         <v>63</v>
       </c>
@@ -3637,7 +3679,7 @@
         <v>65</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3670,15 +3712,16 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A12" activeCellId="0" sqref="A12"/>
+      <selection pane="topLeft" activeCell="D8" activeCellId="0" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.2551020408163"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.8367346938776"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="36.3112244897959"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="30.780612244898"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.7704081632653"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="30.6428571428571"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="39.6887755102041"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="30.6428571428571"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3700,10 +3743,10 @@
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3717,7 +3760,7 @@
         <v>61</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3740,14 +3783,8 @@
       <c r="A6" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
         <v>19</v>
       </c>
@@ -3758,10 +3795,10 @@
         <v>80</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
         <v>22</v>
       </c>
@@ -3772,7 +3809,7 @@
         <v>80</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3791,7 +3828,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
         <v>63</v>
       </c>
@@ -3835,15 +3872,16 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A12" activeCellId="0" sqref="A12"/>
+      <selection pane="topLeft" activeCell="D8" activeCellId="0" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.2551020408163"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.8367346938776"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="36.3112244897959"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="30.780612244898"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.7704081632653"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="30.6428571428571"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="39.6887755102041"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="30.6428571428571"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3865,10 +3903,10 @@
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3882,7 +3920,7 @@
         <v>61</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3905,14 +3943,8 @@
       <c r="A6" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
         <v>19</v>
       </c>
@@ -3923,10 +3955,10 @@
         <v>80</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
         <v>22</v>
       </c>
@@ -3937,7 +3969,7 @@
         <v>80</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3956,7 +3988,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
         <v>63</v>
       </c>
@@ -3999,16 +4031,17 @@
   </sheetPr>
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A12" activeCellId="0" sqref="A12"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D14" activeCellId="0" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.2551020408163"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.4591836734694"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="32.6683673469388"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="30.780612244898"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.7704081632653"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="30.6428571428571"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="39.6887755102041"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="30.6428571428571"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4030,13 +4063,13 @@
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
         <v>7</v>
       </c>
@@ -4047,7 +4080,7 @@
         <v>61</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4070,14 +4103,8 @@
       <c r="A6" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
         <v>19</v>
       </c>
@@ -4088,10 +4115,10 @@
         <v>80</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
         <v>22</v>
       </c>
@@ -4102,7 +4129,7 @@
         <v>80</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4121,7 +4148,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
         <v>63</v>
       </c>
@@ -4132,7 +4159,7 @@
         <v>65</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4170,10 +4197,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.2551020408163"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.4591836734694"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="32.6683673469388"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="30.780612244898"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.7704081632653"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.5663265306122"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="30.2397959183673"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="28.484693877551"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4327,10 +4355,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.2551020408163"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.4591836734694"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="32.6683673469388"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="30.780612244898"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.7704081632653"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.8112244897959"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="31.8571428571429"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="28.484693877551"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4352,10 +4381,10 @@
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4369,7 +4398,7 @@
         <v>61</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4393,7 +4422,7 @@
         <v>16</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>127</v>
@@ -4492,10 +4521,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.2551020408163"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.4591836734694"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="37.3928571428571"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="30.780612244898"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.7704081632653"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.8112244897959"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="31.8571428571429"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="28.484693877551"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4517,10 +4547,10 @@
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4534,7 +4564,7 @@
         <v>61</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4558,10 +4588,10 @@
         <v>16</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4619,7 +4649,7 @@
         <v>65</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4657,10 +4687,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.2551020408163"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.4591836734694"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="37.7959183673469"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="30.780612244898"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.7704081632653"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.8112244897959"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="33.6122448979592"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="28.484693877551"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4682,10 +4713,10 @@
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4699,7 +4730,7 @@
         <v>61</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4723,10 +4754,10 @@
         <v>16</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4784,7 +4815,837 @@
         <v>65</v>
       </c>
       <c r="D11" s="7" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>84</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:D12"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A12" activeCellId="0" sqref="A12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.7704081632653"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.8112244897959"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="33.6122448979592"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="28.484693877551"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>84</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:D12"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A12" activeCellId="0" sqref="A12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.7704081632653"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.5663265306122"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="30.2397959183673"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="28.484693877551"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>138</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>84</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:D12"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A12" activeCellId="0" sqref="A12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.7704081632653"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.5663265306122"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="30.2397959183673"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="28.484693877551"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>84</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:D12"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A12" activeCellId="0" sqref="A12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.7704081632653"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.5663265306122"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="34.6938775510204"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="28.484693877551"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>84</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:D12"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A12" activeCellId="0" sqref="A12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.7704081632653"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.5663265306122"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="35.0969387755102"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="28.484693877551"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4822,10 +5683,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.2551020408163"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.8367346938776"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="32.6683673469388"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="30.780612244898"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.7704081632653"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.8112244897959"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="30.2397959183673"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="28.484693877551"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4979,10 +5841,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.2551020408163"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.4591836734694"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="32.6683673469388"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="30.780612244898"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.7704081632653"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.5663265306122"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="30.2397959183673"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="28.484693877551"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5136,10 +5999,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.2551020408163"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="33.2091836734694"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="42.6581632653061"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="33.2091836734694"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.7704081632653"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="30.6428571428571"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="39.6887755102041"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="30.6428571428571"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5293,10 +6157,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.2551020408163"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="33.2091836734694"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="42.6581632653061"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="33.2091836734694"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.7704081632653"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="30.6428571428571"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="39.6887755102041"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="30.6428571428571"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5450,10 +6315,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.2551020408163"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="33.2091836734694"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="42.6581632653061"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="33.2091836734694"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.7704081632653"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="30.6428571428571"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="39.6887755102041"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="30.6428571428571"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5607,10 +6473,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.2551020408163"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="33.2091836734694"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="42.6581632653061"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="33.2091836734694"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.7704081632653"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="30.6428571428571"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="39.6887755102041"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="30.6428571428571"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/Projects/CCRU_SAND/Data/KPI_Source.xlsx
+++ b/Projects/CCRU_SAND/Data/KPI_Source.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="11" activeTab="28"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="11" activeTab="35"/>
   </bookViews>
   <sheets>
     <sheet name="Pos 2018 - FT" sheetId="1" state="hidden" r:id="rId2"/>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1285" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1287" uniqueCount="152">
   <si>
     <t xml:space="preserve">SOURCE</t>
   </si>
@@ -233,6 +233,9 @@
   </si>
   <si>
     <t xml:space="preserve">KPIs_2018/QSR PoS 2018.xlsx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MR TARGET</t>
   </si>
   <si>
     <t xml:space="preserve">PoS 2019 - FT - CAP</t>
@@ -638,7 +641,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -672,6 +675,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -760,11 +767,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.7704081632653"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.5510204081633"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="30.2397959183673"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.6632653061225"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.2295918367347"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.0102040816327"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="29.4285714285714"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.3928571428571"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -919,11 +925,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.7704081632653"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="30.6428571428571"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="39.6887755102041"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="30.6428571428571"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.2295918367347"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.8316326530612"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="38.7448979591837"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="29.8316326530612"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1071,11 +1076,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.7704081632653"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="30.6428571428571"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="39.6887755102041"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="30.6428571428571"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.2295918367347"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.8316326530612"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="38.7448979591837"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="29.8316326530612"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1215,18 +1219,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D65536"/>
+  <dimension ref="A1:E65536"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.3877551020408"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.2244897959184"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="27.5408163265306"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.98979591836735"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.1173469387755"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.8214285714286"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="36.4489795918367"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="22.6785714285714"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="13.5"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1242,16 +1248,22 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" s="0" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>65</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1262,10 +1274,10 @@
         <v>8</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1286,7 +1298,7 @@
         <v>17</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1317,16 +1329,16 @@
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1359,10 +1371,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.5"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.2244897959184"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="27.5408163265306"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.98979591836735"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.0918367346939"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.8214285714286"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="26.8622448979592"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.71938775510204"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1384,10 +1397,10 @@
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1398,10 +1411,10 @@
         <v>8</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1422,7 +1435,7 @@
         <v>17</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1453,16 +1466,16 @@
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1495,10 +1508,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.5"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.2244897959184"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="27.5408163265306"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.98979591836735"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.0918367346939"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.8214285714286"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="26.8622448979592"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.71938775510204"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1520,10 +1534,10 @@
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1534,10 +1548,10 @@
         <v>8</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1558,7 +1572,7 @@
         <v>17</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1589,16 +1603,16 @@
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1631,10 +1645,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.5"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.2244897959184"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="27.5408163265306"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.98979591836735"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.0918367346939"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.8214285714286"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="26.8622448979592"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.71938775510204"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1656,10 +1671,10 @@
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1670,10 +1685,10 @@
         <v>8</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1694,7 +1709,7 @@
         <v>17</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1725,16 +1740,16 @@
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1767,10 +1782,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.5"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.1122448979592"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="34.5561224489796"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.98979591836735"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.0918367346939"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.5714285714286"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="33.75"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.71938775510204"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1792,10 +1808,10 @@
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1806,10 +1822,10 @@
         <v>8</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1817,10 +1833,10 @@
         <v>10</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1838,13 +1854,13 @@
         <v>19</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1852,13 +1868,13 @@
         <v>22</v>
       </c>
       <c r="B8" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>82</v>
-      </c>
-      <c r="C8" s="0" t="s">
-        <v>80</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1879,16 +1895,16 @@
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1899,7 +1915,7 @@
         <v>29</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -1926,10 +1942,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.5"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.1122448979592"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="34.5561224489796"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.98979591836735"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.0918367346939"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.5714285714286"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="33.75"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.71938775510204"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1951,10 +1968,10 @@
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1965,10 +1982,10 @@
         <v>8</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1976,10 +1993,10 @@
         <v>10</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1997,13 +2014,13 @@
         <v>19</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2011,13 +2028,13 @@
         <v>22</v>
       </c>
       <c r="B8" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>82</v>
-      </c>
-      <c r="C8" s="0" t="s">
-        <v>80</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2038,16 +2055,16 @@
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2058,7 +2075,7 @@
         <v>29</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -2085,10 +2102,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.5"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="30.2397959183673"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="41.1734693877551"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.98979591836735"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.0918367346939"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.4285714285714"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="40.0918367346939"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.71938775510204"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2110,10 +2128,10 @@
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2124,10 +2142,10 @@
         <v>8</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2135,10 +2153,10 @@
         <v>10</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2154,7 +2172,7 @@
         <v>47</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2162,13 +2180,13 @@
         <v>19</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2176,13 +2194,13 @@
         <v>22</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2203,16 +2221,16 @@
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2223,7 +2241,7 @@
         <v>29</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -2251,10 +2269,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.5"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="30.2397959183673"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="41.1734693877551"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.98979591836735"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.0918367346939"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.4285714285714"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="40.0918367346939"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.71938775510204"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2276,10 +2295,10 @@
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2290,10 +2309,10 @@
         <v>8</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2301,10 +2320,10 @@
         <v>10</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2320,7 +2339,7 @@
         <v>47</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2328,13 +2347,13 @@
         <v>19</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2342,13 +2361,13 @@
         <v>22</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2369,16 +2388,16 @@
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2389,7 +2408,7 @@
         <v>29</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -2416,11 +2435,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.7704081632653"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.5663265306122"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="30.2397959183673"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="28.484693877551"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.2295918367347"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.8928571428571"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="29.4285714285714"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="27.8061224489796"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2575,10 +2593,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.5"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="30.2397959183673"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="41.1734693877551"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.98979591836735"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.0918367346939"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.4285714285714"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="40.0918367346939"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.71938775510204"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2600,10 +2619,10 @@
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2614,10 +2633,10 @@
         <v>8</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2625,10 +2644,10 @@
         <v>10</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2644,7 +2663,7 @@
         <v>47</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2652,13 +2671,13 @@
         <v>19</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2666,13 +2685,13 @@
         <v>22</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2693,16 +2712,16 @@
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2713,7 +2732,7 @@
         <v>29</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -2740,10 +2759,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.5"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="30.2397959183673"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="41.1734693877551"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.98979591836735"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.0918367346939"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.4285714285714"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="40.0918367346939"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.71938775510204"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2765,10 +2785,10 @@
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2779,10 +2799,10 @@
         <v>8</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2790,10 +2810,10 @@
         <v>10</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2809,7 +2829,7 @@
         <v>47</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2817,13 +2837,13 @@
         <v>19</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2831,13 +2851,13 @@
         <v>22</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2858,16 +2878,16 @@
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2878,7 +2898,7 @@
         <v>29</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -2906,10 +2926,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.5"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="30.2397959183673"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="41.1734693877551"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.98979591836735"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.0918367346939"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.4285714285714"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="40.0918367346939"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.71938775510204"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2931,10 +2952,10 @@
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2945,10 +2966,10 @@
         <v>8</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2956,10 +2977,10 @@
         <v>10</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2975,7 +2996,7 @@
         <v>47</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2983,13 +3004,13 @@
         <v>19</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2997,13 +3018,13 @@
         <v>22</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3024,16 +3045,16 @@
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3044,7 +3065,7 @@
         <v>29</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -3072,10 +3093,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.5"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="30.2397959183673"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="41.1734693877551"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.98979591836735"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.0918367346939"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.4285714285714"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="40.0918367346939"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.71938775510204"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3097,10 +3119,10 @@
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3111,10 +3133,10 @@
         <v>8</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3122,10 +3144,10 @@
         <v>10</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3141,7 +3163,7 @@
         <v>47</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3149,13 +3171,13 @@
         <v>19</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3163,13 +3185,13 @@
         <v>22</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3190,16 +3212,16 @@
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3210,7 +3232,7 @@
         <v>29</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -3232,16 +3254,15 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A12" activeCellId="0" sqref="A12"/>
+      <selection pane="topLeft" activeCell="D27" activeCellId="0" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.7704081632653"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="30.6428571428571"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="39.6887755102041"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="30.6428571428571"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.2295918367347"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.8316326530612"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="38.7448979591837"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="29.8316326530612"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3263,10 +3284,10 @@
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3277,10 +3298,10 @@
         <v>8</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3288,10 +3309,10 @@
         <v>10</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3309,13 +3330,13 @@
         <v>19</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3323,13 +3344,13 @@
         <v>22</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3350,16 +3371,16 @@
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3370,7 +3391,7 @@
         <v>29</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -3397,11 +3418,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.7704081632653"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="30.6428571428571"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="39.6887755102041"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="30.6428571428571"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.2295918367347"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.8316326530612"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="38.7448979591837"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="29.8316326530612"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3423,10 +3443,10 @@
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3437,10 +3457,10 @@
         <v>8</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3448,10 +3468,10 @@
         <v>10</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3469,13 +3489,13 @@
         <v>19</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3483,13 +3503,13 @@
         <v>22</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3510,16 +3530,16 @@
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3530,7 +3550,7 @@
         <v>29</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -3557,11 +3577,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.7704081632653"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="30.6428571428571"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="39.6887755102041"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="30.6428571428571"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.2295918367347"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.8316326530612"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="38.7448979591837"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="29.8316326530612"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3583,10 +3602,10 @@
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3597,10 +3616,10 @@
         <v>8</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3608,10 +3627,10 @@
         <v>10</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3629,13 +3648,13 @@
         <v>19</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3643,13 +3662,13 @@
         <v>22</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3670,16 +3689,16 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3690,7 +3709,7 @@
         <v>29</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -3717,11 +3736,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.7704081632653"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="30.6428571428571"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="39.6887755102041"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="30.6428571428571"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.2295918367347"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.8316326530612"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="38.7448979591837"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="29.8316326530612"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3743,10 +3761,10 @@
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3757,10 +3775,10 @@
         <v>8</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3768,10 +3786,10 @@
         <v>10</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3789,13 +3807,13 @@
         <v>19</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3803,13 +3821,13 @@
         <v>22</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3830,16 +3848,16 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3850,7 +3868,7 @@
         <v>29</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -3877,11 +3895,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.7704081632653"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="30.6428571428571"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="39.6887755102041"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="30.6428571428571"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.2295918367347"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.8316326530612"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="38.7448979591837"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="29.8316326530612"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3903,10 +3920,10 @@
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3917,10 +3934,10 @@
         <v>8</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3928,10 +3945,10 @@
         <v>10</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3949,13 +3966,13 @@
         <v>19</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3963,13 +3980,13 @@
         <v>22</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3990,16 +4007,16 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4010,7 +4027,7 @@
         <v>29</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -4031,17 +4048,17 @@
   </sheetPr>
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D14" activeCellId="0" sqref="D14"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B17" activeCellId="0" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.7704081632653"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="30.6428571428571"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="39.6887755102041"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="30.6428571428571"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.2295918367347"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.8316326530612"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="38.7448979591837"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="29.8316326530612"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="10.6632653061225"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4063,10 +4080,10 @@
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4077,10 +4094,10 @@
         <v>8</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4088,10 +4105,10 @@
         <v>10</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4109,13 +4126,13 @@
         <v>19</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4123,13 +4140,13 @@
         <v>22</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4150,16 +4167,16 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4170,7 +4187,7 @@
         <v>29</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -4197,11 +4214,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.7704081632653"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.5663265306122"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="30.2397959183673"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="28.484693877551"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.2295918367347"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.8928571428571"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="29.4285714285714"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="27.8061224489796"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4355,11 +4371,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.7704081632653"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.8112244897959"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="31.8571428571429"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="28.484693877551"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.2295918367347"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.2755102040816"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="31.0459183673469"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="27.8061224489796"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4381,10 +4396,10 @@
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4395,10 +4410,10 @@
         <v>8</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4406,10 +4421,10 @@
         <v>10</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4425,7 +4440,7 @@
         <v>41</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4433,13 +4448,13 @@
         <v>19</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4447,13 +4462,13 @@
         <v>22</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4474,16 +4489,16 @@
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4494,7 +4509,7 @@
         <v>29</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -4521,11 +4536,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.7704081632653"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.8112244897959"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="31.8571428571429"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="28.484693877551"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.2295918367347"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.2755102040816"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="31.0459183673469"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="27.8061224489796"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4547,10 +4561,10 @@
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4561,10 +4575,10 @@
         <v>8</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4572,10 +4586,10 @@
         <v>10</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4591,7 +4605,7 @@
         <v>41</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4599,13 +4613,13 @@
         <v>19</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4613,13 +4627,13 @@
         <v>22</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4640,16 +4654,16 @@
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4660,7 +4674,7 @@
         <v>29</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -4687,11 +4701,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.7704081632653"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.8112244897959"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="33.6122448979592"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="28.484693877551"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.2295918367347"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.2755102040816"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="32.6683673469388"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="27.8061224489796"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4713,10 +4726,10 @@
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4727,10 +4740,10 @@
         <v>8</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4738,10 +4751,10 @@
         <v>10</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4757,7 +4770,7 @@
         <v>41</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4765,13 +4778,13 @@
         <v>19</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4779,13 +4792,13 @@
         <v>22</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4806,16 +4819,16 @@
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4826,7 +4839,7 @@
         <v>29</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -4853,11 +4866,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.7704081632653"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.8112244897959"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="33.6122448979592"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="28.484693877551"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.2295918367347"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.2755102040816"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="32.6683673469388"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="27.8061224489796"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4879,10 +4891,10 @@
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4893,10 +4905,10 @@
         <v>8</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4904,10 +4916,10 @@
         <v>10</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4923,7 +4935,7 @@
         <v>41</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4931,13 +4943,13 @@
         <v>19</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4945,13 +4957,13 @@
         <v>22</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4972,16 +4984,16 @@
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4992,7 +5004,7 @@
         <v>29</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -5019,11 +5031,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.7704081632653"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.5663265306122"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="30.2397959183673"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="28.484693877551"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.2295918367347"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.8928571428571"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="29.4285714285714"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="27.8061224489796"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5045,10 +5056,10 @@
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5059,10 +5070,10 @@
         <v>8</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5070,10 +5081,10 @@
         <v>10</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5089,7 +5100,7 @@
         <v>33</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5097,13 +5108,13 @@
         <v>19</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5111,13 +5122,13 @@
         <v>22</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5138,16 +5149,16 @@
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5158,7 +5169,7 @@
         <v>29</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -5185,11 +5196,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.7704081632653"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.5663265306122"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="30.2397959183673"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="28.484693877551"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.2295918367347"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.8928571428571"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="29.4285714285714"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="27.8061224489796"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5211,10 +5221,10 @@
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5225,10 +5235,10 @@
         <v>8</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5236,10 +5246,10 @@
         <v>10</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5255,7 +5265,7 @@
         <v>33</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5263,13 +5273,13 @@
         <v>19</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5277,13 +5287,13 @@
         <v>22</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5304,16 +5314,16 @@
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5324,7 +5334,7 @@
         <v>29</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -5343,22 +5353,22 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A12" activeCellId="0" sqref="A12"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C15" activeCellId="0" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.7704081632653"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.5663265306122"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="34.6938775510204"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="28.484693877551"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.2295918367347"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.8928571428571"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="33.8826530612245"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="27.8061224489796"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="12.9132653061225"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5370,6 +5380,9 @@
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5377,10 +5390,13 @@
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>145</v>
+        <v>146</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>67.3</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5391,10 +5407,10 @@
         <v>8</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5402,10 +5418,10 @@
         <v>10</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5421,7 +5437,7 @@
         <v>37</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5429,13 +5445,16 @@
         <v>19</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>95</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5443,13 +5462,13 @@
         <v>22</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5467,19 +5486,22 @@
       <c r="B10" s="0" t="s">
         <v>27</v>
       </c>
+      <c r="E10" s="0" t="n">
+        <v>93</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5490,7 +5512,7 @@
         <v>29</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -5517,11 +5539,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.7704081632653"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.5663265306122"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="35.0969387755102"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="28.484693877551"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.2295918367347"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.8928571428571"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="34.2857142857143"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="27.8061224489796"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5543,10 +5564,10 @@
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5557,10 +5578,10 @@
         <v>8</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5568,10 +5589,10 @@
         <v>10</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5587,7 +5608,7 @@
         <v>37</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5595,13 +5616,13 @@
         <v>19</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5609,13 +5630,13 @@
         <v>22</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5636,16 +5657,16 @@
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5656,7 +5677,7 @@
         <v>29</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -5683,11 +5704,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.7704081632653"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.8112244897959"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="30.2397959183673"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="28.484693877551"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.2295918367347"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.2755102040816"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="29.4285714285714"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="27.8061224489796"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5841,11 +5861,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.7704081632653"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.5663265306122"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="30.2397959183673"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="28.484693877551"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.2295918367347"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.8928571428571"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="29.4285714285714"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="27.8061224489796"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5999,11 +6018,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.7704081632653"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="30.6428571428571"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="39.6887755102041"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="30.6428571428571"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.2295918367347"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.8316326530612"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="38.7448979591837"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="29.8316326530612"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6157,11 +6175,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.7704081632653"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="30.6428571428571"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="39.6887755102041"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="30.6428571428571"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.2295918367347"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.8316326530612"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="38.7448979591837"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="29.8316326530612"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6315,11 +6332,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.7704081632653"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="30.6428571428571"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="39.6887755102041"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="30.6428571428571"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.2295918367347"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.8316326530612"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="38.7448979591837"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="29.8316326530612"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6473,11 +6489,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.7704081632653"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="30.6428571428571"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="39.6887755102041"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="30.6428571428571"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.2295918367347"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.8316326530612"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="38.7448979591837"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="29.8316326530612"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/Projects/CCRU_SAND/Data/KPI_Source.xlsx
+++ b/Projects/CCRU_SAND/Data/KPI_Source.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="11" activeTab="35"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="11" activeTab="36"/>
   </bookViews>
   <sheets>
     <sheet name="Pos 2018 - FT" sheetId="1" state="hidden" r:id="rId2"/>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1287" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1307" uniqueCount="152">
   <si>
     <t xml:space="preserve">SOURCE</t>
   </si>
@@ -518,8 +518,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="0.00"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -551,7 +552,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -586,6 +587,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF99FFFF"/>
         <bgColor rgb="FFCCFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA9D18E"/>
+        <bgColor rgb="FFDDDDDD"/>
       </patternFill>
     </fill>
     <fill>
@@ -641,7 +648,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -666,7 +673,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -678,7 +693,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -707,7 +722,7 @@
       <rgbColor rgb="FF808000"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FFA9D18E"/>
       <rgbColor rgb="FF808080"/>
       <rgbColor rgb="FF9999FF"/>
       <rgbColor rgb="FF993366"/>
@@ -767,10 +782,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.2295918367347"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.0102040816327"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="29.4285714285714"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.3928571428571"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.0918367346939"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.7397959183673"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="29.0255102040816"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.2602040816327"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -925,10 +941,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.2295918367347"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.8316326530612"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="38.7448979591837"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="29.8316326530612"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.0918367346939"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.4285714285714"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="38.2040816326531"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="29.4285714285714"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1076,10 +1093,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.2295918367347"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.8316326530612"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="38.7448979591837"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="29.8316326530612"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.0918367346939"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.4285714285714"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="38.2040816326531"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="29.4285714285714"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1219,23 +1237,23 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E65536"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
+      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.1173469387755"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.8214285714286"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="36.4489795918367"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="22.6785714285714"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="13.5"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.8469387755102"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.5510204081633"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="26.4591836734694"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.58673469387755"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="6" width="11.0714285714286"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1248,11 +1266,11 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" s="7" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>4</v>
       </c>
@@ -1262,11 +1280,11 @@
       <c r="C2" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="E2" s="0" t="n">
+      <c r="E2" s="8" t="n">
         <v>65</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
         <v>7</v>
       </c>
@@ -1279,18 +1297,21 @@
       <c r="D3" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E3" s="0"/>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E4" s="0"/>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E5" s="0"/>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
         <v>16</v>
       </c>
@@ -1300,44 +1321,49 @@
       <c r="C6" s="5" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E6" s="0"/>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E7" s="8"/>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E8" s="0"/>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
         <v>24</v>
       </c>
       <c r="B9" s="0" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E9" s="0"/>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
         <v>26</v>
       </c>
       <c r="B10" s="0" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E10" s="8"/>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
         <v>64</v>
       </c>
       <c r="B11" s="0" t="s">
         <v>65</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="10" t="s">
         <v>67</v>
       </c>
     </row>
@@ -1346,7 +1372,6 @@
         <v>28</v>
       </c>
     </row>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -1363,22 +1388,22 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D65536"/>
+  <dimension ref="A1:E65536"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A12" activeCellId="0" sqref="A12"/>
+      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.0918367346939"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.8214285714286"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="26.8622448979592"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.71938775510204"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.9591836734694"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.5510204081633"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="26.4591836734694"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.58673469387755"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1391,8 +1416,11 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E1" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>4</v>
       </c>
@@ -1402,8 +1430,11 @@
       <c r="C2" s="3" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E2" s="8" t="n">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
         <v>7</v>
       </c>
@@ -1417,17 +1448,17 @@
         <v>68</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
         <v>16</v>
       </c>
@@ -1438,17 +1469,18 @@
         <v>63</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E7" s="8"/>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
         <v>24</v>
       </c>
@@ -1456,27 +1488,29 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
         <v>26</v>
       </c>
       <c r="B10" s="0" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E10" s="8"/>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
         <v>64</v>
       </c>
       <c r="B11" s="0" t="s">
         <v>65</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="10" t="s">
         <v>67</v>
       </c>
+      <c r="E11" s="6"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
@@ -1500,22 +1534,22 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D65536"/>
+  <dimension ref="A1:E65536"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A12" activeCellId="0" sqref="A12"/>
+      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.0918367346939"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.8214285714286"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="26.8622448979592"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.71938775510204"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.9591836734694"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.5510204081633"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="26.4591836734694"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.58673469387755"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1528,8 +1562,11 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E1" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>4</v>
       </c>
@@ -1539,8 +1576,11 @@
       <c r="C2" s="3" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E2" s="8" t="n">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
         <v>7</v>
       </c>
@@ -1554,17 +1594,17 @@
         <v>70</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
         <v>16</v>
       </c>
@@ -1575,17 +1615,18 @@
         <v>63</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E7" s="8"/>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
         <v>24</v>
       </c>
@@ -1593,27 +1634,29 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
         <v>26</v>
       </c>
       <c r="B10" s="0" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E10" s="8"/>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
         <v>64</v>
       </c>
       <c r="B11" s="0" t="s">
         <v>65</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="10" t="s">
         <v>72</v>
       </c>
+      <c r="E11" s="6"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
@@ -1637,22 +1680,22 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D65536"/>
+  <dimension ref="A1:E65536"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B12" activeCellId="0" sqref="B12"/>
+      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.0918367346939"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.8214285714286"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="26.8622448979592"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.71938775510204"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.9591836734694"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.5510204081633"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="26.4591836734694"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.58673469387755"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1665,8 +1708,11 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E1" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>4</v>
       </c>
@@ -1676,8 +1722,11 @@
       <c r="C2" s="3" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E2" s="8" t="n">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
         <v>7</v>
       </c>
@@ -1691,17 +1740,17 @@
         <v>73</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
         <v>16</v>
       </c>
@@ -1712,17 +1761,18 @@
         <v>63</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E7" s="8"/>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
         <v>24</v>
       </c>
@@ -1730,27 +1780,29 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
         <v>26</v>
       </c>
       <c r="B10" s="0" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E10" s="8"/>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
         <v>64</v>
       </c>
       <c r="B11" s="0" t="s">
         <v>65</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="10" t="s">
         <v>75</v>
       </c>
+      <c r="E11" s="6"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
@@ -1774,22 +1826,22 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B12" activeCellId="0" sqref="B12"/>
+      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.0918367346939"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.5714285714286"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="33.75"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.71938775510204"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.9591836734694"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.3061224489796"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="33.3418367346939"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.58673469387755"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1802,8 +1854,11 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E1" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>4</v>
       </c>
@@ -1813,8 +1868,11 @@
       <c r="C2" s="3" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E2" s="8" t="n">
+        <v>78.7</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
         <v>7</v>
       </c>
@@ -1828,7 +1886,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
         <v>10</v>
       </c>
@@ -1839,17 +1897,17 @@
         <v>79</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
         <v>19</v>
       </c>
@@ -1862,8 +1920,11 @@
       <c r="D7" s="2" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E7" s="8" t="n">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
         <v>22</v>
       </c>
@@ -1877,7 +1938,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
         <v>24</v>
       </c>
@@ -1885,29 +1946,31 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
         <v>26</v>
       </c>
       <c r="B10" s="0" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E10" s="8"/>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
         <v>64</v>
       </c>
       <c r="B11" s="0" t="s">
         <v>65</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="10" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E11" s="6"/>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
         <v>28</v>
       </c>
@@ -1917,6 +1980,7 @@
       <c r="C12" s="0" t="s">
         <v>85</v>
       </c>
+      <c r="E12" s="6"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -1934,22 +1998,22 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A13" activeCellId="0" sqref="A13"/>
+      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.0918367346939"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.5714285714286"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="33.75"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.71938775510204"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.9591836734694"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.3061224489796"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="33.3418367346939"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.58673469387755"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1962,8 +2026,11 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E1" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>4</v>
       </c>
@@ -1973,8 +2040,11 @@
       <c r="C2" s="3" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E2" s="8" t="n">
+        <v>76.81</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
         <v>7</v>
       </c>
@@ -1987,8 +2057,9 @@
       <c r="D3" s="2" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E3" s="6"/>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
         <v>10</v>
       </c>
@@ -1998,18 +2069,21 @@
       <c r="C4" s="0" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E4" s="6"/>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E5" s="6"/>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E6" s="6"/>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
         <v>19</v>
       </c>
@@ -2022,8 +2096,11 @@
       <c r="D7" s="2" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E7" s="8" t="n">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
         <v>22</v>
       </c>
@@ -2036,38 +2113,42 @@
       <c r="D8" s="2" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E8" s="6"/>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
         <v>24</v>
       </c>
       <c r="B9" s="0" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E9" s="6"/>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
         <v>26</v>
       </c>
       <c r="B10" s="0" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E10" s="8"/>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
         <v>64</v>
       </c>
       <c r="B11" s="0" t="s">
         <v>65</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="10" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E11" s="6"/>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
         <v>28</v>
       </c>
@@ -2077,6 +2158,7 @@
       <c r="C12" s="0" t="s">
         <v>85</v>
       </c>
+      <c r="E12" s="6"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -2094,22 +2176,22 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
+      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.0918367346939"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.4285714285714"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="40.0918367346939"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.71938775510204"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.9591836734694"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.0255102040816"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="39.6887755102041"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.58673469387755"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2122,8 +2204,11 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E1" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>4</v>
       </c>
@@ -2133,8 +2218,11 @@
       <c r="C2" s="3" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E2" s="8" t="n">
+        <v>77.73</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
         <v>7</v>
       </c>
@@ -2144,11 +2232,11 @@
       <c r="C3" s="0" t="s">
         <v>62</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="11" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
         <v>10</v>
       </c>
@@ -2159,12 +2247,12 @@
         <v>79</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
         <v>16</v>
       </c>
@@ -2175,7 +2263,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
         <v>19</v>
       </c>
@@ -2188,8 +2276,11 @@
       <c r="D7" s="2" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E7" s="8" t="n">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
         <v>22</v>
       </c>
@@ -2203,7 +2294,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
         <v>24</v>
       </c>
@@ -2211,29 +2302,31 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
         <v>26</v>
       </c>
       <c r="B10" s="0" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E10" s="8"/>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
         <v>64</v>
       </c>
       <c r="B11" s="0" t="s">
         <v>65</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="10" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E11" s="6"/>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
         <v>28</v>
       </c>
@@ -2243,6 +2336,7 @@
       <c r="C12" s="0" t="s">
         <v>85</v>
       </c>
+      <c r="E12" s="6"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -2269,11 +2363,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.0918367346939"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.4285714285714"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="40.0918367346939"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.71938775510204"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.9591836734694"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.0255102040816"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="39.6887755102041"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.58673469387755"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2311,7 +2405,7 @@
       <c r="C3" s="0" t="s">
         <v>62</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="11" t="s">
         <v>96</v>
       </c>
     </row>
@@ -2393,10 +2487,10 @@
       <c r="B11" s="0" t="s">
         <v>65</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="10" t="s">
         <v>93</v>
       </c>
     </row>
@@ -2435,10 +2529,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.2295918367347"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.8928571428571"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="29.4285714285714"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="27.8061224489796"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.0918367346939"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.4897959183673"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="29.0255102040816"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="27.5408163265306"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2593,11 +2688,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.0918367346939"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.4285714285714"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="40.0918367346939"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.71938775510204"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.9591836734694"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.0255102040816"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="39.6887755102041"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.58673469387755"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2635,7 +2730,7 @@
       <c r="C3" s="0" t="s">
         <v>62</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="11" t="s">
         <v>99</v>
       </c>
     </row>
@@ -2717,10 +2812,10 @@
       <c r="B11" s="0" t="s">
         <v>65</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="10" t="s">
         <v>93</v>
       </c>
     </row>
@@ -2751,22 +2846,22 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G11" activeCellId="0" sqref="G11"/>
+      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.0918367346939"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.4285714285714"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="40.0918367346939"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.71938775510204"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.9591836734694"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.0255102040816"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="39.6887755102041"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.58673469387755"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2779,8 +2874,11 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E1" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>4</v>
       </c>
@@ -2790,8 +2888,11 @@
       <c r="C2" s="3" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E2" s="8" t="n">
+        <v>75.66</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
         <v>7</v>
       </c>
@@ -2801,11 +2902,11 @@
       <c r="C3" s="0" t="s">
         <v>62</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="11" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
         <v>10</v>
       </c>
@@ -2816,12 +2917,12 @@
         <v>79</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
         <v>16</v>
       </c>
@@ -2832,7 +2933,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
         <v>19</v>
       </c>
@@ -2845,8 +2946,11 @@
       <c r="D7" s="2" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E7" s="8" t="n">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
         <v>22</v>
       </c>
@@ -2860,7 +2964,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
         <v>24</v>
       </c>
@@ -2868,29 +2972,31 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
         <v>26</v>
       </c>
       <c r="B10" s="0" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E10" s="8"/>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
         <v>64</v>
       </c>
       <c r="B11" s="0" t="s">
         <v>65</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="10" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E11" s="6"/>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
         <v>28</v>
       </c>
@@ -2900,6 +3006,7 @@
       <c r="C12" s="0" t="s">
         <v>85</v>
       </c>
+      <c r="E12" s="6"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -2926,11 +3033,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.0918367346939"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.4285714285714"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="40.0918367346939"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.71938775510204"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.9591836734694"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.0255102040816"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="39.6887755102041"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.58673469387755"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2968,7 +3075,7 @@
       <c r="C3" s="0" t="s">
         <v>62</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="11" t="s">
         <v>104</v>
       </c>
     </row>
@@ -3050,10 +3157,10 @@
       <c r="B11" s="0" t="s">
         <v>65</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="10" t="s">
         <v>93</v>
       </c>
     </row>
@@ -3093,11 +3200,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.0918367346939"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.4285714285714"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="40.0918367346939"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.71938775510204"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.9591836734694"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.0255102040816"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="39.6887755102041"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.58673469387755"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3135,7 +3242,7 @@
       <c r="C3" s="0" t="s">
         <v>62</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="11" t="s">
         <v>107</v>
       </c>
     </row>
@@ -3217,10 +3324,10 @@
       <c r="B11" s="0" t="s">
         <v>65</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="10" t="s">
         <v>93</v>
       </c>
     </row>
@@ -3251,21 +3358,22 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D27" activeCellId="0" sqref="D27"/>
+      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.2295918367347"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.8316326530612"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="38.7448979591837"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="29.8316326530612"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.0918367346939"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.4285714285714"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="38.2040816326531"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="29.4285714285714"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3278,8 +3386,11 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E1" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>4</v>
       </c>
@@ -3289,8 +3400,11 @@
       <c r="C2" s="3" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E2" s="8" t="n">
+        <v>63.36</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
         <v>7</v>
       </c>
@@ -3304,7 +3418,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
         <v>10</v>
       </c>
@@ -3315,17 +3429,17 @@
         <v>79</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
         <v>19</v>
       </c>
@@ -3338,8 +3452,11 @@
       <c r="D7" s="2" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E7" s="8" t="n">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
         <v>22</v>
       </c>
@@ -3353,7 +3470,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
         <v>24</v>
       </c>
@@ -3361,29 +3478,31 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
         <v>26</v>
       </c>
       <c r="B10" s="0" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E10" s="8"/>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
         <v>64</v>
       </c>
       <c r="B11" s="0" t="s">
         <v>65</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="10" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E11" s="6"/>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
         <v>28</v>
       </c>
@@ -3393,6 +3512,7 @@
       <c r="C12" s="0" t="s">
         <v>85</v>
       </c>
+      <c r="E12" s="6"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -3410,21 +3530,23 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A12" activeCellId="0" sqref="A12"/>
+      <selection pane="topLeft" activeCell="F34" activeCellId="0" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.2295918367347"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.8316326530612"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="38.7448979591837"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="29.8316326530612"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.0918367346939"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.4285714285714"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="38.2040816326531"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="29.4285714285714"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="6" width="7.83163265306122"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3437,8 +3559,11 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E1" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>4</v>
       </c>
@@ -3448,8 +3573,11 @@
       <c r="C2" s="3" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E2" s="8" t="n">
+        <v>63.36</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
         <v>7</v>
       </c>
@@ -3462,8 +3590,9 @@
       <c r="D3" s="2" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E3" s="0"/>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
         <v>10</v>
       </c>
@@ -3473,18 +3602,21 @@
       <c r="C4" s="0" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E4" s="0"/>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E5" s="0"/>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E6" s="0"/>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
         <v>19</v>
       </c>
@@ -3497,8 +3629,11 @@
       <c r="D7" s="2" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E7" s="8" t="n">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
         <v>22</v>
       </c>
@@ -3511,38 +3646,41 @@
       <c r="D8" s="2" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E8" s="0"/>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
         <v>24</v>
       </c>
       <c r="B9" s="0" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E9" s="0"/>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
         <v>26</v>
       </c>
       <c r="B10" s="0" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E10" s="8"/>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
         <v>64</v>
       </c>
       <c r="B11" s="0" t="s">
         <v>65</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="10" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
         <v>28</v>
       </c>
@@ -3569,21 +3707,22 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D11" activeCellId="0" sqref="D11"/>
+      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.2295918367347"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.8316326530612"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="38.7448979591837"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="29.8316326530612"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.0918367346939"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.4285714285714"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="38.2040816326531"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="29.4285714285714"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3596,8 +3735,11 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E1" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>4</v>
       </c>
@@ -3607,8 +3749,11 @@
       <c r="C2" s="3" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E2" s="8" t="n">
+        <v>80.33</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
         <v>7</v>
       </c>
@@ -3622,7 +3767,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
         <v>10</v>
       </c>
@@ -3633,12 +3778,12 @@
         <v>79</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
         <v>16</v>
       </c>
@@ -3656,6 +3801,9 @@
       <c r="D7" s="2" t="s">
         <v>116</v>
       </c>
+      <c r="E7" s="8" t="n">
+        <v>95</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
@@ -3671,7 +3819,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
         <v>24</v>
       </c>
@@ -3679,13 +3827,14 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
         <v>26</v>
       </c>
       <c r="B10" s="0" t="s">
         <v>27</v>
       </c>
+      <c r="E10" s="8"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
@@ -3694,14 +3843,15 @@
       <c r="B11" s="0" t="s">
         <v>65</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="10" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E11" s="6"/>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
         <v>28</v>
       </c>
@@ -3711,6 +3861,7 @@
       <c r="C12" s="0" t="s">
         <v>85</v>
       </c>
+      <c r="E12" s="6"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -3728,21 +3879,22 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D8" activeCellId="0" sqref="D8"/>
+      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.2295918367347"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.8316326530612"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="38.7448979591837"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="29.8316326530612"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.0918367346939"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.4285714285714"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="38.2040816326531"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="29.4285714285714"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3755,8 +3907,11 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E1" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>4</v>
       </c>
@@ -3766,8 +3921,11 @@
       <c r="C2" s="3" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E2" s="8" t="n">
+        <v>78.99</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
         <v>7</v>
       </c>
@@ -3781,7 +3939,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
         <v>10</v>
       </c>
@@ -3792,12 +3950,12 @@
         <v>79</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
         <v>16</v>
       </c>
@@ -3815,6 +3973,7 @@
       <c r="D7" s="2" t="s">
         <v>120</v>
       </c>
+      <c r="E7" s="8"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
@@ -3830,7 +3989,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
         <v>24</v>
       </c>
@@ -3838,13 +3997,14 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
         <v>26</v>
       </c>
       <c r="B10" s="0" t="s">
         <v>27</v>
       </c>
+      <c r="E10" s="8"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
@@ -3853,14 +4013,15 @@
       <c r="B11" s="0" t="s">
         <v>65</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="10" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E11" s="6"/>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
         <v>28</v>
       </c>
@@ -3870,6 +4031,7 @@
       <c r="C12" s="0" t="s">
         <v>85</v>
       </c>
+      <c r="E12" s="6"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -3887,21 +4049,22 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D8" activeCellId="0" sqref="D8"/>
+      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.2295918367347"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.8316326530612"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="38.7448979591837"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="29.8316326530612"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.0918367346939"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.4285714285714"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="38.2040816326531"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="29.4285714285714"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3914,8 +4077,11 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E1" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>4</v>
       </c>
@@ -3925,8 +4091,11 @@
       <c r="C2" s="3" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E2" s="8" t="n">
+        <v>84.11</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
         <v>7</v>
       </c>
@@ -3939,8 +4108,9 @@
       <c r="D3" s="2" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E3" s="6"/>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
         <v>10</v>
       </c>
@@ -3950,16 +4120,19 @@
       <c r="C4" s="0" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E4" s="6"/>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E5" s="6"/>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
         <v>16</v>
       </c>
+      <c r="E6" s="6"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
@@ -3974,6 +4147,9 @@
       <c r="D7" s="2" t="s">
         <v>120</v>
       </c>
+      <c r="E7" s="8" t="n">
+        <v>95</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
@@ -3988,22 +4164,25 @@
       <c r="D8" s="2" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E8" s="6"/>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
         <v>24</v>
       </c>
       <c r="B9" s="0" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E9" s="6"/>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
         <v>26</v>
       </c>
       <c r="B10" s="0" t="s">
         <v>27</v>
       </c>
+      <c r="E10" s="8"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
@@ -4012,14 +4191,15 @@
       <c r="B11" s="0" t="s">
         <v>65</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="10" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E11" s="6"/>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
         <v>28</v>
       </c>
@@ -4029,6 +4209,7 @@
       <c r="C12" s="0" t="s">
         <v>85</v>
       </c>
+      <c r="E12" s="6"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -4046,22 +4227,22 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B17" activeCellId="0" sqref="B17"/>
+      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.2295918367347"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.8316326530612"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="38.7448979591837"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="29.8316326530612"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="10.6632653061225"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.0918367346939"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.4285714285714"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="38.2040816326531"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="29.4285714285714"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4074,8 +4255,11 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E1" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>4</v>
       </c>
@@ -4084,6 +4268,9 @@
       </c>
       <c r="C2" s="3" t="s">
         <v>125</v>
+      </c>
+      <c r="E2" s="8" t="n">
+        <v>83.34</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4100,7 +4287,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
         <v>10</v>
       </c>
@@ -4111,12 +4298,12 @@
         <v>79</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
         <v>16</v>
       </c>
@@ -4134,6 +4321,9 @@
       <c r="D7" s="2" t="s">
         <v>120</v>
       </c>
+      <c r="E7" s="8" t="n">
+        <v>95</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
@@ -4149,7 +4339,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
         <v>24</v>
       </c>
@@ -4157,13 +4347,14 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
         <v>26</v>
       </c>
       <c r="B10" s="0" t="s">
         <v>27</v>
       </c>
+      <c r="E10" s="8"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
@@ -4172,12 +4363,13 @@
       <c r="B11" s="0" t="s">
         <v>65</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="10" t="s">
         <v>121</v>
       </c>
+      <c r="E11" s="6"/>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
@@ -4214,10 +4406,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.2295918367347"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.8928571428571"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="29.4285714285714"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="27.8061224489796"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.0918367346939"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.4897959183673"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="29.0255102040816"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="27.5408163265306"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4363,21 +4556,22 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A12" activeCellId="0" sqref="A12"/>
+      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.2295918367347"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.2755102040816"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="31.0459183673469"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="27.8061224489796"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.0918367346939"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.0051020408163"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="30.6428571428571"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="27.5408163265306"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4390,8 +4584,11 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E1" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>4</v>
       </c>
@@ -4401,8 +4598,11 @@
       <c r="C2" s="3" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E2" s="8" t="n">
+        <v>70.71</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
         <v>7</v>
       </c>
@@ -4416,7 +4616,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
         <v>10</v>
       </c>
@@ -4427,12 +4627,12 @@
         <v>79</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
         <v>16</v>
       </c>
@@ -4443,7 +4643,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
         <v>19</v>
       </c>
@@ -4456,8 +4656,11 @@
       <c r="D7" s="2" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E7" s="8" t="n">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
         <v>22</v>
       </c>
@@ -4471,7 +4674,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
         <v>24</v>
       </c>
@@ -4479,29 +4682,33 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
         <v>26</v>
       </c>
       <c r="B10" s="0" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E10" s="8" t="n">
+        <v>95.8</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
         <v>64</v>
       </c>
       <c r="B11" s="0" t="s">
         <v>65</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="10" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E11" s="6"/>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
         <v>28</v>
       </c>
@@ -4511,6 +4718,7 @@
       <c r="C12" s="0" t="s">
         <v>85</v>
       </c>
+      <c r="E12" s="6"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -4528,21 +4736,22 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A12" activeCellId="0" sqref="A12"/>
+      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.2295918367347"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.2755102040816"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="31.0459183673469"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="27.8061224489796"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.0918367346939"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.0051020408163"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="30.6428571428571"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="27.5408163265306"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4555,8 +4764,11 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E1" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>4</v>
       </c>
@@ -4566,8 +4778,11 @@
       <c r="C2" s="3" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E2" s="8" t="n">
+        <v>73.8</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
         <v>7</v>
       </c>
@@ -4581,7 +4796,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
         <v>10</v>
       </c>
@@ -4592,12 +4807,12 @@
         <v>79</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
         <v>16</v>
       </c>
@@ -4608,7 +4823,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
         <v>19</v>
       </c>
@@ -4621,8 +4836,11 @@
       <c r="D7" s="2" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E7" s="8" t="n">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
         <v>22</v>
       </c>
@@ -4636,7 +4854,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
         <v>24</v>
       </c>
@@ -4644,27 +4862,31 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
         <v>26</v>
       </c>
       <c r="B10" s="0" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E10" s="8" t="n">
+        <v>95.8</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
         <v>64</v>
       </c>
       <c r="B11" s="0" t="s">
         <v>65</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="10" t="s">
         <v>133</v>
       </c>
+      <c r="E11" s="6"/>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
@@ -4693,21 +4915,22 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A12" activeCellId="0" sqref="A12"/>
+      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.2295918367347"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.2755102040816"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="32.6683673469388"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="27.8061224489796"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.0918367346939"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.0051020408163"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="32.265306122449"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="27.5408163265306"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4720,8 +4943,11 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E1" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>4</v>
       </c>
@@ -4731,8 +4957,11 @@
       <c r="C2" s="3" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E2" s="8" t="n">
+        <v>70.7</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
         <v>7</v>
       </c>
@@ -4746,7 +4975,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
         <v>10</v>
       </c>
@@ -4757,12 +4986,12 @@
         <v>79</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
         <v>16</v>
       </c>
@@ -4773,7 +5002,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
         <v>19</v>
       </c>
@@ -4786,8 +5015,11 @@
       <c r="D7" s="2" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E7" s="8" t="n">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
         <v>22</v>
       </c>
@@ -4801,7 +5033,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
         <v>24</v>
       </c>
@@ -4809,29 +5041,33 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
         <v>26</v>
       </c>
       <c r="B10" s="0" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E10" s="8" t="n">
+        <v>95.8</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
         <v>64</v>
       </c>
       <c r="B11" s="0" t="s">
         <v>65</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="10" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E11" s="6"/>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
         <v>28</v>
       </c>
@@ -4841,6 +5077,7 @@
       <c r="C12" s="0" t="s">
         <v>85</v>
       </c>
+      <c r="E12" s="6"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -4858,21 +5095,22 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A12" activeCellId="0" sqref="A12"/>
+      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.2295918367347"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.2755102040816"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="32.6683673469388"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="27.8061224489796"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.0918367346939"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.0051020408163"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="32.265306122449"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="27.5408163265306"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4885,8 +5123,11 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E1" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>4</v>
       </c>
@@ -4896,8 +5137,11 @@
       <c r="C2" s="3" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E2" s="8" t="n">
+        <v>69.52</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
         <v>7</v>
       </c>
@@ -4911,7 +5155,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
         <v>10</v>
       </c>
@@ -4922,12 +5166,12 @@
         <v>79</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
         <v>16</v>
       </c>
@@ -4938,7 +5182,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
         <v>19</v>
       </c>
@@ -4951,8 +5195,11 @@
       <c r="D7" s="2" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E7" s="8" t="n">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
         <v>22</v>
       </c>
@@ -4966,7 +5213,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
         <v>24</v>
       </c>
@@ -4974,29 +5221,33 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
         <v>26</v>
       </c>
       <c r="B10" s="0" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E10" s="8" t="n">
+        <v>95.8</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
         <v>64</v>
       </c>
       <c r="B11" s="0" t="s">
         <v>65</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="10" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E11" s="6"/>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
         <v>28</v>
       </c>
@@ -5006,6 +5257,7 @@
       <c r="C12" s="0" t="s">
         <v>85</v>
       </c>
+      <c r="E12" s="6"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -5023,21 +5275,22 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A12" activeCellId="0" sqref="A12"/>
+      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.2295918367347"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.8928571428571"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="29.4285714285714"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="27.8061224489796"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.0918367346939"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.4897959183673"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="29.0255102040816"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="27.5408163265306"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5050,8 +5303,11 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E1" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>4</v>
       </c>
@@ -5061,8 +5317,11 @@
       <c r="C2" s="3" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E2" s="8" t="n">
+        <v>65.15</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
         <v>7</v>
       </c>
@@ -5076,7 +5335,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
         <v>10</v>
       </c>
@@ -5087,12 +5346,12 @@
         <v>79</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
         <v>16</v>
       </c>
@@ -5103,7 +5362,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
         <v>19</v>
       </c>
@@ -5116,8 +5375,11 @@
       <c r="D7" s="2" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E7" s="8" t="n">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
         <v>22</v>
       </c>
@@ -5131,7 +5393,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
         <v>24</v>
       </c>
@@ -5139,29 +5401,33 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
         <v>26</v>
       </c>
       <c r="B10" s="0" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E10" s="8" t="n">
+        <v>95.8</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
         <v>64</v>
       </c>
       <c r="B11" s="0" t="s">
         <v>65</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="10" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E11" s="6"/>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
         <v>28</v>
       </c>
@@ -5171,6 +5437,7 @@
       <c r="C12" s="0" t="s">
         <v>85</v>
       </c>
+      <c r="E12" s="6"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -5188,21 +5455,22 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A12" activeCellId="0" sqref="A12"/>
+      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.2295918367347"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.8928571428571"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="29.4285714285714"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="27.8061224489796"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.0918367346939"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.4897959183673"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="29.0255102040816"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="27.5408163265306"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5215,8 +5483,11 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E1" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>4</v>
       </c>
@@ -5226,8 +5497,11 @@
       <c r="C2" s="3" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E2" s="8" t="n">
+        <v>67.43</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
         <v>7</v>
       </c>
@@ -5241,7 +5515,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
         <v>10</v>
       </c>
@@ -5252,12 +5526,12 @@
         <v>79</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
         <v>16</v>
       </c>
@@ -5268,7 +5542,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
         <v>19</v>
       </c>
@@ -5281,8 +5555,11 @@
       <c r="D7" s="2" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E7" s="8" t="n">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
         <v>22</v>
       </c>
@@ -5296,7 +5573,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
         <v>24</v>
       </c>
@@ -5304,29 +5581,33 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
         <v>26</v>
       </c>
       <c r="B10" s="0" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E10" s="8" t="n">
+        <v>95.8</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
         <v>64</v>
       </c>
       <c r="B11" s="0" t="s">
         <v>65</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="10" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E11" s="6"/>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
         <v>28</v>
       </c>
@@ -5336,6 +5617,7 @@
       <c r="C12" s="0" t="s">
         <v>85</v>
       </c>
+      <c r="E12" s="6"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -5355,17 +5637,17 @@
   </sheetPr>
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C15" activeCellId="0" sqref="C15"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.2295918367347"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.8928571428571"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="33.8826530612245"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="27.8061224489796"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="12.9132653061225"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.0918367346939"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.4897959183673"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="33.4795918367347"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="27.5408163265306"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5381,11 +5663,11 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="7" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>4</v>
       </c>
@@ -5395,11 +5677,11 @@
       <c r="C2" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="E2" s="0" t="n">
-        <v>67.3</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E2" s="8" t="n">
+        <v>66.35</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
         <v>7</v>
       </c>
@@ -5413,7 +5695,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
         <v>10</v>
       </c>
@@ -5424,12 +5706,12 @@
         <v>79</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
         <v>16</v>
       </c>
@@ -5440,7 +5722,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
         <v>19</v>
       </c>
@@ -5453,11 +5735,11 @@
       <c r="D7" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="E7" s="0" t="n">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E7" s="8" t="n">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
         <v>22</v>
       </c>
@@ -5471,7 +5753,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
         <v>24</v>
       </c>
@@ -5479,32 +5761,33 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
         <v>26</v>
       </c>
       <c r="B10" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="E10" s="0" t="n">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E10" s="8" t="n">
+        <v>95.8</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
         <v>64</v>
       </c>
       <c r="B11" s="0" t="s">
         <v>65</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="10" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E11" s="6"/>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
         <v>28</v>
       </c>
@@ -5514,6 +5797,7 @@
       <c r="C12" s="0" t="s">
         <v>85</v>
       </c>
+      <c r="E12" s="6"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -5531,21 +5815,22 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A12" activeCellId="0" sqref="A12"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J14" activeCellId="0" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.2295918367347"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.8928571428571"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="34.2857142857143"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="27.8061224489796"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.0918367346939"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.4897959183673"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="33.8826530612245"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="27.5408163265306"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5558,8 +5843,11 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E1" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>4</v>
       </c>
@@ -5569,8 +5857,11 @@
       <c r="C2" s="3" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E2" s="8" t="n">
+        <v>68.22</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
         <v>7</v>
       </c>
@@ -5583,8 +5874,9 @@
       <c r="D3" s="2" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E3" s="6"/>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
         <v>10</v>
       </c>
@@ -5594,13 +5886,15 @@
       <c r="C4" s="0" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E4" s="6"/>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E5" s="6"/>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
         <v>16</v>
       </c>
@@ -5610,8 +5904,9 @@
       <c r="C6" s="5" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E6" s="6"/>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
         <v>19</v>
       </c>
@@ -5624,8 +5919,11 @@
       <c r="D7" s="2" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E7" s="8" t="n">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
         <v>22</v>
       </c>
@@ -5638,38 +5936,44 @@
       <c r="D8" s="2" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E8" s="6"/>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
         <v>24</v>
       </c>
       <c r="B9" s="0" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E9" s="6"/>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
         <v>26</v>
       </c>
       <c r="B10" s="0" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E10" s="8" t="n">
+        <v>95.8</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
         <v>64</v>
       </c>
       <c r="B11" s="0" t="s">
         <v>65</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="10" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E11" s="6"/>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
         <v>28</v>
       </c>
@@ -5679,6 +5983,7 @@
       <c r="C12" s="0" t="s">
         <v>85</v>
       </c>
+      <c r="E12" s="6"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -5704,10 +6009,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.2295918367347"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.2755102040816"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="29.4285714285714"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="27.8061224489796"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.0918367346939"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.0051020408163"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="29.0255102040816"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="27.5408163265306"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5861,10 +6167,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.2295918367347"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.8928571428571"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="29.4285714285714"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="27.8061224489796"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.0918367346939"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.4897959183673"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="29.0255102040816"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="27.5408163265306"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6018,10 +6325,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.2295918367347"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.8316326530612"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="38.7448979591837"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="29.8316326530612"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.0918367346939"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.4285714285714"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="38.2040816326531"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="29.4285714285714"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6175,10 +6483,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.2295918367347"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.8316326530612"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="38.7448979591837"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="29.8316326530612"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.0918367346939"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.4285714285714"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="38.2040816326531"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="29.4285714285714"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6332,10 +6641,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.2295918367347"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.8316326530612"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="38.7448979591837"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="29.8316326530612"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.0918367346939"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.4285714285714"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="38.2040816326531"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="29.4285714285714"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6489,10 +6799,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.2295918367347"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.8316326530612"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="38.7448979591837"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="29.8316326530612"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.0918367346939"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.4285714285714"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="38.2040816326531"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="29.4285714285714"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/Projects/CCRU_SAND/Data/KPI_Source.xlsx
+++ b/Projects/CCRU_SAND/Data/KPI_Source.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="11" activeTab="36"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="11" activeTab="35"/>
   </bookViews>
   <sheets>
     <sheet name="Pos 2018 - FT" sheetId="1" state="hidden" r:id="rId2"/>
@@ -782,11 +782,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.0918367346939"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.7397959183673"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="29.0255102040816"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.2602040816327"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.2295918367347"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.0102040816327"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="29.4285714285714"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.3928571428571"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -941,11 +940,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.0918367346939"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.4285714285714"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="38.2040816326531"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="29.4285714285714"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.2295918367347"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.8316326530612"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="38.7448979591837"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="29.8316326530612"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1093,11 +1091,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.0918367346939"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.4285714285714"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="38.2040816326531"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="29.4285714285714"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.2295918367347"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.8316326530612"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="38.7448979591837"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="29.8316326530612"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1245,12 +1242,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.8469387755102"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.5510204081633"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="26.4591836734694"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.58673469387755"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="6" width="11.0714285714286"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.1173469387755"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.8214285714286"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="26.8622448979592"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.9285714285714"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="6" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1391,16 +1388,16 @@
   <dimension ref="A1:E65536"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
+      <selection pane="topLeft" activeCell="I12" activeCellId="0" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.9591836734694"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.5510204081633"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="26.4591836734694"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.58673469387755"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.0918367346939"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.8214285714286"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="26.8622448979592"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.71938775510204"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1542,11 +1539,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.9591836734694"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.5510204081633"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="26.4591836734694"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.58673469387755"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.0918367346939"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.8214285714286"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="26.8622448979592"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.71938775510204"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1662,6 +1659,7 @@
       <c r="A12" s="0" t="s">
         <v>28</v>
       </c>
+      <c r="E12" s="6"/>
     </row>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
@@ -1680,19 +1678,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E65536"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
+      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.9591836734694"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.5510204081633"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="26.4591836734694"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.58673469387755"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.0918367346939"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.8214285714286"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="26.8622448979592"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.71938775510204"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="6" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1739,16 +1738,19 @@
       <c r="D3" s="2" t="s">
         <v>73</v>
       </c>
+      <c r="E3" s="0"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
         <v>10</v>
       </c>
+      <c r="E4" s="0"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
         <v>13</v>
       </c>
+      <c r="E5" s="0"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
@@ -1760,6 +1762,7 @@
       <c r="C6" s="5" t="s">
         <v>63</v>
       </c>
+      <c r="E6" s="0"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
@@ -1771,6 +1774,7 @@
       <c r="A8" s="0" t="s">
         <v>22</v>
       </c>
+      <c r="E8" s="0"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
@@ -1779,6 +1783,7 @@
       <c r="B9" s="0" t="s">
         <v>25</v>
       </c>
+      <c r="E9" s="0"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
@@ -1802,14 +1807,12 @@
       <c r="D11" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="E11" s="6"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -1834,11 +1837,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.9591836734694"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.3061224489796"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="33.3418367346939"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.58673469387755"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.0918367346939"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.5714285714286"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="33.75"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.71938775510204"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="6" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1885,6 +1889,7 @@
       <c r="D3" s="2" t="s">
         <v>76</v>
       </c>
+      <c r="E3" s="0"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
@@ -1896,16 +1901,19 @@
       <c r="C4" s="0" t="s">
         <v>79</v>
       </c>
+      <c r="E4" s="0"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
         <v>13</v>
       </c>
+      <c r="E5" s="0"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
         <v>16</v>
       </c>
+      <c r="E6" s="0"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
@@ -1937,6 +1945,7 @@
       <c r="D8" s="2" t="s">
         <v>82</v>
       </c>
+      <c r="E8" s="0"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
@@ -1945,6 +1954,7 @@
       <c r="B9" s="0" t="s">
         <v>25</v>
       </c>
+      <c r="E9" s="0"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
@@ -1968,7 +1978,6 @@
       <c r="D11" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="E11" s="6"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
@@ -1980,7 +1989,6 @@
       <c r="C12" s="0" t="s">
         <v>85</v>
       </c>
-      <c r="E12" s="6"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -2006,11 +2014,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.9591836734694"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.3061224489796"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="33.3418367346939"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.58673469387755"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.0918367346939"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.5714285714286"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="33.75"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.71938775510204"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2184,11 +2193,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.9591836734694"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.0255102040816"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="39.6887755102041"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.58673469387755"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.0918367346939"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.4285714285714"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="40.0918367346939"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.71938775510204"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="6" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2235,6 +2245,7 @@
       <c r="D3" s="11" t="s">
         <v>89</v>
       </c>
+      <c r="E3" s="0"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
@@ -2246,11 +2257,13 @@
       <c r="C4" s="0" t="s">
         <v>79</v>
       </c>
+      <c r="E4" s="0"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
         <v>13</v>
       </c>
+      <c r="E5" s="0"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
@@ -2262,6 +2275,7 @@
       <c r="C6" s="5" t="s">
         <v>91</v>
       </c>
+      <c r="E6" s="0"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
@@ -2293,6 +2307,7 @@
       <c r="D8" s="2" t="s">
         <v>92</v>
       </c>
+      <c r="E8" s="0"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
@@ -2301,6 +2316,7 @@
       <c r="B9" s="0" t="s">
         <v>25</v>
       </c>
+      <c r="E9" s="0"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
@@ -2324,7 +2340,6 @@
       <c r="D11" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="E11" s="6"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
@@ -2336,7 +2351,6 @@
       <c r="C12" s="0" t="s">
         <v>85</v>
       </c>
-      <c r="E12" s="6"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -2363,11 +2377,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.9591836734694"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.0255102040816"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="39.6887755102041"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.58673469387755"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.0918367346939"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.4285714285714"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="40.0918367346939"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.71938775510204"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2529,11 +2543,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.0918367346939"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.4897959183673"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="29.0255102040816"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="27.5408163265306"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.2295918367347"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.8928571428571"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="29.4285714285714"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="27.8061224489796"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2688,11 +2701,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.9591836734694"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.0255102040816"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="39.6887755102041"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.58673469387755"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.0918367346939"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.4285714285714"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="40.0918367346939"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.71938775510204"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2854,11 +2867,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.9591836734694"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.0255102040816"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="39.6887755102041"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.58673469387755"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.0918367346939"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.4285714285714"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="40.0918367346939"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.71938775510204"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="6" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2905,6 +2919,7 @@
       <c r="D3" s="11" t="s">
         <v>100</v>
       </c>
+      <c r="E3" s="0"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
@@ -2916,11 +2931,13 @@
       <c r="C4" s="0" t="s">
         <v>79</v>
       </c>
+      <c r="E4" s="0"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
         <v>13</v>
       </c>
+      <c r="E5" s="0"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
@@ -2932,6 +2949,7 @@
       <c r="C6" s="5" t="s">
         <v>91</v>
       </c>
+      <c r="E6" s="0"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
@@ -2963,6 +2981,7 @@
       <c r="D8" s="2" t="s">
         <v>92</v>
       </c>
+      <c r="E8" s="0"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
@@ -2971,6 +2990,7 @@
       <c r="B9" s="0" t="s">
         <v>25</v>
       </c>
+      <c r="E9" s="0"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
@@ -2994,7 +3014,6 @@
       <c r="D11" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="E11" s="6"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
@@ -3006,7 +3025,6 @@
       <c r="C12" s="0" t="s">
         <v>85</v>
       </c>
-      <c r="E12" s="6"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -3033,11 +3051,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.9591836734694"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.0255102040816"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="39.6887755102041"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.58673469387755"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.0918367346939"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.4285714285714"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="40.0918367346939"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.71938775510204"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3200,11 +3218,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.9591836734694"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.0255102040816"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="39.6887755102041"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.58673469387755"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.0918367346939"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.4285714285714"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="40.0918367346939"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.71938775510204"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3366,11 +3384,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.0918367346939"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.4285714285714"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="38.2040816326531"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="29.4285714285714"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.2295918367347"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.8316326530612"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="38.7448979591837"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="29.8316326530612"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="6" width="11.3418367346939"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3417,6 +3435,7 @@
       <c r="D3" s="2" t="s">
         <v>108</v>
       </c>
+      <c r="E3" s="0"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
@@ -3428,16 +3447,19 @@
       <c r="C4" s="0" t="s">
         <v>79</v>
       </c>
+      <c r="E4" s="0"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
         <v>13</v>
       </c>
+      <c r="E5" s="0"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
         <v>16</v>
       </c>
+      <c r="E6" s="0"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
@@ -3469,6 +3491,7 @@
       <c r="D8" s="2" t="s">
         <v>110</v>
       </c>
+      <c r="E8" s="0"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
@@ -3477,6 +3500,7 @@
       <c r="B9" s="0" t="s">
         <v>25</v>
       </c>
+      <c r="E9" s="0"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
@@ -3500,7 +3524,6 @@
       <c r="D11" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="E11" s="6"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
@@ -3512,7 +3535,6 @@
       <c r="C12" s="0" t="s">
         <v>85</v>
       </c>
-      <c r="E12" s="6"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -3533,17 +3555,16 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F34" activeCellId="0" sqref="F34"/>
+      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.0918367346939"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.4285714285714"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="38.2040816326531"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="29.4285714285714"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="6" width="7.83163265306122"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.2295918367347"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.8316326530612"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="38.7448979591837"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="29.8316326530612"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="6" width="7.96428571428571"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3715,11 +3736,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.0918367346939"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.4285714285714"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="38.2040816326531"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="29.4285714285714"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.2295918367347"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.8316326530612"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="38.7448979591837"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="29.8316326530612"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="6" width="7.96428571428571"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3766,6 +3787,7 @@
       <c r="D3" s="2" t="s">
         <v>114</v>
       </c>
+      <c r="E3" s="0"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
@@ -3777,16 +3799,19 @@
       <c r="C4" s="0" t="s">
         <v>79</v>
       </c>
+      <c r="E4" s="0"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
         <v>13</v>
       </c>
+      <c r="E5" s="0"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
         <v>16</v>
       </c>
+      <c r="E6" s="0"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
@@ -3818,6 +3843,7 @@
       <c r="D8" s="2" t="s">
         <v>116</v>
       </c>
+      <c r="E8" s="0"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
@@ -3826,6 +3852,7 @@
       <c r="B9" s="0" t="s">
         <v>25</v>
       </c>
+      <c r="E9" s="0"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
@@ -3849,7 +3876,6 @@
       <c r="D11" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="E11" s="6"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
@@ -3861,7 +3887,6 @@
       <c r="C12" s="0" t="s">
         <v>85</v>
       </c>
-      <c r="E12" s="6"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -3887,11 +3912,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.0918367346939"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.4285714285714"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="38.2040816326531"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="29.4285714285714"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.2295918367347"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.8316326530612"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="38.7448979591837"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="29.8316326530612"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="6" width="7.96428571428571"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3938,6 +3963,7 @@
       <c r="D3" s="2" t="s">
         <v>118</v>
       </c>
+      <c r="E3" s="0"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
@@ -3949,16 +3975,19 @@
       <c r="C4" s="0" t="s">
         <v>79</v>
       </c>
+      <c r="E4" s="0"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
         <v>13</v>
       </c>
+      <c r="E5" s="0"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
         <v>16</v>
       </c>
+      <c r="E6" s="0"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
@@ -3988,6 +4017,7 @@
       <c r="D8" s="2" t="s">
         <v>120</v>
       </c>
+      <c r="E8" s="0"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
@@ -3996,6 +4026,7 @@
       <c r="B9" s="0" t="s">
         <v>25</v>
       </c>
+      <c r="E9" s="0"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
@@ -4019,7 +4050,6 @@
       <c r="D11" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="E11" s="6"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
@@ -4031,7 +4061,6 @@
       <c r="C12" s="0" t="s">
         <v>85</v>
       </c>
-      <c r="E12" s="6"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -4057,11 +4086,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.0918367346939"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.4285714285714"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="38.2040816326531"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="29.4285714285714"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.2295918367347"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.8316326530612"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="38.7448979591837"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="29.8316326530612"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4235,11 +4264,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.0918367346939"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.4285714285714"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="38.2040816326531"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="29.4285714285714"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.2295918367347"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.8316326530612"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="38.7448979591837"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="29.8316326530612"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="6" width="11.3418367346939"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4286,6 +4315,7 @@
       <c r="D3" s="2" t="s">
         <v>124</v>
       </c>
+      <c r="E3" s="0"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
@@ -4297,16 +4327,19 @@
       <c r="C4" s="0" t="s">
         <v>79</v>
       </c>
+      <c r="E4" s="0"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
         <v>13</v>
       </c>
+      <c r="E5" s="0"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
         <v>16</v>
       </c>
+      <c r="E6" s="0"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
@@ -4338,6 +4371,7 @@
       <c r="D8" s="2" t="s">
         <v>120</v>
       </c>
+      <c r="E8" s="0"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
@@ -4346,6 +4380,7 @@
       <c r="B9" s="0" t="s">
         <v>25</v>
       </c>
+      <c r="E9" s="0"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
@@ -4369,9 +4404,8 @@
       <c r="D11" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="E11" s="6"/>
-    </row>
-    <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
         <v>28</v>
       </c>
@@ -4406,11 +4440,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.0918367346939"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.4897959183673"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="29.0255102040816"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="27.5408163265306"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.2295918367347"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.8928571428571"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="29.4285714285714"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="27.8061224489796"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4564,11 +4597,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.0918367346939"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.0051020408163"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="30.6428571428571"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="27.5408163265306"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.2295918367347"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.2755102040816"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="31.0459183673469"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="27.8061224489796"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="6" width="7.96428571428571"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4615,6 +4648,7 @@
       <c r="D3" s="2" t="s">
         <v>126</v>
       </c>
+      <c r="E3" s="0"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
@@ -4626,11 +4660,13 @@
       <c r="C4" s="0" t="s">
         <v>79</v>
       </c>
+      <c r="E4" s="0"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
         <v>13</v>
       </c>
+      <c r="E5" s="0"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
@@ -4642,6 +4678,7 @@
       <c r="C6" s="5" t="s">
         <v>128</v>
       </c>
+      <c r="E6" s="0"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
@@ -4673,6 +4710,7 @@
       <c r="D8" s="2" t="s">
         <v>129</v>
       </c>
+      <c r="E8" s="0"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
@@ -4681,6 +4719,7 @@
       <c r="B9" s="0" t="s">
         <v>25</v>
       </c>
+      <c r="E9" s="0"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
@@ -4706,7 +4745,6 @@
       <c r="D11" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="E11" s="6"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
@@ -4718,7 +4756,6 @@
       <c r="C12" s="0" t="s">
         <v>85</v>
       </c>
-      <c r="E12" s="6"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -4744,11 +4781,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.0918367346939"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.0051020408163"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="30.6428571428571"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="27.5408163265306"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.2295918367347"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.2755102040816"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="31.0459183673469"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="27.8061224489796"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="6" width="7.96428571428571"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4795,6 +4832,7 @@
       <c r="D3" s="2" t="s">
         <v>131</v>
       </c>
+      <c r="E3" s="0"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
@@ -4806,11 +4844,13 @@
       <c r="C4" s="0" t="s">
         <v>79</v>
       </c>
+      <c r="E4" s="0"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
         <v>13</v>
       </c>
+      <c r="E5" s="0"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
@@ -4822,6 +4862,7 @@
       <c r="C6" s="5" t="s">
         <v>128</v>
       </c>
+      <c r="E6" s="0"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
@@ -4853,6 +4894,7 @@
       <c r="D8" s="2" t="s">
         <v>129</v>
       </c>
+      <c r="E8" s="0"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
@@ -4861,6 +4903,7 @@
       <c r="B9" s="0" t="s">
         <v>25</v>
       </c>
+      <c r="E9" s="0"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
@@ -4886,9 +4929,8 @@
       <c r="D11" s="10" t="s">
         <v>133</v>
       </c>
-      <c r="E11" s="6"/>
-    </row>
-    <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
         <v>28</v>
       </c>
@@ -4923,11 +4965,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.0918367346939"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.0051020408163"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="32.265306122449"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="27.5408163265306"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.2295918367347"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.2755102040816"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="32.6683673469388"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="27.8061224489796"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="6" width="7.96428571428571"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4974,6 +5016,7 @@
       <c r="D3" s="2" t="s">
         <v>134</v>
       </c>
+      <c r="E3" s="0"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
@@ -4985,11 +5028,13 @@
       <c r="C4" s="0" t="s">
         <v>79</v>
       </c>
+      <c r="E4" s="0"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
         <v>13</v>
       </c>
+      <c r="E5" s="0"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
@@ -5001,6 +5046,7 @@
       <c r="C6" s="5" t="s">
         <v>128</v>
       </c>
+      <c r="E6" s="0"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
@@ -5032,6 +5078,7 @@
       <c r="D8" s="2" t="s">
         <v>129</v>
       </c>
+      <c r="E8" s="0"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
@@ -5040,6 +5087,7 @@
       <c r="B9" s="0" t="s">
         <v>25</v>
       </c>
+      <c r="E9" s="0"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
@@ -5065,7 +5113,6 @@
       <c r="D11" s="10" t="s">
         <v>133</v>
       </c>
-      <c r="E11" s="6"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
@@ -5077,7 +5124,6 @@
       <c r="C12" s="0" t="s">
         <v>85</v>
       </c>
-      <c r="E12" s="6"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -5103,11 +5149,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.0918367346939"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.0051020408163"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="32.265306122449"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="27.5408163265306"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.2295918367347"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.2755102040816"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="32.6683673469388"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="27.8061224489796"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="6" width="7.96428571428571"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5154,6 +5200,7 @@
       <c r="D3" s="2" t="s">
         <v>136</v>
       </c>
+      <c r="E3" s="0"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
@@ -5165,11 +5212,13 @@
       <c r="C4" s="0" t="s">
         <v>79</v>
       </c>
+      <c r="E4" s="0"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
         <v>13</v>
       </c>
+      <c r="E5" s="0"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
@@ -5181,6 +5230,7 @@
       <c r="C6" s="5" t="s">
         <v>128</v>
       </c>
+      <c r="E6" s="0"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
@@ -5212,6 +5262,7 @@
       <c r="D8" s="2" t="s">
         <v>129</v>
       </c>
+      <c r="E8" s="0"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
@@ -5220,6 +5271,7 @@
       <c r="B9" s="0" t="s">
         <v>25</v>
       </c>
+      <c r="E9" s="0"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
@@ -5245,7 +5297,6 @@
       <c r="D11" s="10" t="s">
         <v>133</v>
       </c>
-      <c r="E11" s="6"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
@@ -5257,7 +5308,6 @@
       <c r="C12" s="0" t="s">
         <v>85</v>
       </c>
-      <c r="E12" s="6"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -5283,11 +5333,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.0918367346939"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.4897959183673"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="29.0255102040816"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="27.5408163265306"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.2295918367347"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.8928571428571"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="29.4285714285714"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="27.8061224489796"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="6" width="7.96428571428571"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5334,6 +5384,7 @@
       <c r="D3" s="2" t="s">
         <v>138</v>
       </c>
+      <c r="E3" s="0"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
@@ -5345,11 +5396,13 @@
       <c r="C4" s="0" t="s">
         <v>79</v>
       </c>
+      <c r="E4" s="0"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
         <v>13</v>
       </c>
+      <c r="E5" s="0"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
@@ -5361,6 +5414,7 @@
       <c r="C6" s="5" t="s">
         <v>140</v>
       </c>
+      <c r="E6" s="0"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
@@ -5392,6 +5446,7 @@
       <c r="D8" s="2" t="s">
         <v>141</v>
       </c>
+      <c r="E8" s="0"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
@@ -5400,6 +5455,7 @@
       <c r="B9" s="0" t="s">
         <v>25</v>
       </c>
+      <c r="E9" s="0"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
@@ -5425,7 +5481,6 @@
       <c r="D11" s="10" t="s">
         <v>142</v>
       </c>
-      <c r="E11" s="6"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
@@ -5437,7 +5492,6 @@
       <c r="C12" s="0" t="s">
         <v>85</v>
       </c>
-      <c r="E12" s="6"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -5463,11 +5517,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.0918367346939"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.4897959183673"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="29.0255102040816"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="27.5408163265306"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.2295918367347"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.8928571428571"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="29.4285714285714"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="27.8061224489796"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="6" width="7.96428571428571"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5514,6 +5568,7 @@
       <c r="D3" s="2" t="s">
         <v>143</v>
       </c>
+      <c r="E3" s="0"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
@@ -5525,11 +5580,13 @@
       <c r="C4" s="0" t="s">
         <v>79</v>
       </c>
+      <c r="E4" s="0"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
         <v>13</v>
       </c>
+      <c r="E5" s="0"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
@@ -5541,6 +5598,7 @@
       <c r="C6" s="5" t="s">
         <v>140</v>
       </c>
+      <c r="E6" s="0"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
@@ -5572,6 +5630,7 @@
       <c r="D8" s="2" t="s">
         <v>141</v>
       </c>
+      <c r="E8" s="0"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
@@ -5580,6 +5639,7 @@
       <c r="B9" s="0" t="s">
         <v>25</v>
       </c>
+      <c r="E9" s="0"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
@@ -5605,7 +5665,6 @@
       <c r="D11" s="10" t="s">
         <v>142</v>
       </c>
-      <c r="E11" s="6"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
@@ -5617,7 +5676,6 @@
       <c r="C12" s="0" t="s">
         <v>85</v>
       </c>
-      <c r="E12" s="6"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -5637,17 +5695,17 @@
   </sheetPr>
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D25" activeCellId="0" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.0918367346939"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.4897959183673"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="33.4795918367347"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="27.5408163265306"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.2295918367347"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.8928571428571"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="33.8826530612245"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="27.8061224489796"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="6" width="8.77551020408163"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5694,6 +5752,7 @@
       <c r="D3" s="2" t="s">
         <v>145</v>
       </c>
+      <c r="E3" s="0"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
@@ -5705,11 +5764,13 @@
       <c r="C4" s="0" t="s">
         <v>79</v>
       </c>
+      <c r="E4" s="0"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
         <v>13</v>
       </c>
+      <c r="E5" s="0"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
@@ -5721,6 +5782,7 @@
       <c r="C6" s="5" t="s">
         <v>147</v>
       </c>
+      <c r="E6" s="0"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
@@ -5752,6 +5814,7 @@
       <c r="D8" s="2" t="s">
         <v>141</v>
       </c>
+      <c r="E8" s="0"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
@@ -5760,6 +5823,7 @@
       <c r="B9" s="0" t="s">
         <v>25</v>
       </c>
+      <c r="E9" s="0"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
@@ -5785,7 +5849,6 @@
       <c r="D11" s="10" t="s">
         <v>148</v>
       </c>
-      <c r="E11" s="6"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
@@ -5797,7 +5860,6 @@
       <c r="C12" s="0" t="s">
         <v>85</v>
       </c>
-      <c r="E12" s="6"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -5817,17 +5879,17 @@
   </sheetPr>
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J14" activeCellId="0" sqref="J14"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J16" activeCellId="0" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.0918367346939"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.4897959183673"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="33.8826530612245"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="27.5408163265306"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.2295918367347"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.8928571428571"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="34.2857142857143"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="27.8061224489796"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6009,11 +6071,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.0918367346939"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.0051020408163"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="29.0255102040816"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="27.5408163265306"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.2295918367347"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.2755102040816"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="29.4285714285714"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="27.8061224489796"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6167,11 +6228,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.0918367346939"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.4897959183673"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="29.0255102040816"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="27.5408163265306"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.2295918367347"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.8928571428571"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="29.4285714285714"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="27.8061224489796"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6325,11 +6385,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.0918367346939"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.4285714285714"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="38.2040816326531"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="29.4285714285714"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.2295918367347"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.8316326530612"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="38.7448979591837"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="29.8316326530612"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6483,11 +6542,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.0918367346939"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.4285714285714"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="38.2040816326531"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="29.4285714285714"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.2295918367347"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.8316326530612"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="38.7448979591837"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="29.8316326530612"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6641,11 +6699,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.0918367346939"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.4285714285714"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="38.2040816326531"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="29.4285714285714"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.2295918367347"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.8316326530612"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="38.7448979591837"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="29.8316326530612"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6799,11 +6856,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.0918367346939"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.4285714285714"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="38.2040816326531"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="29.4285714285714"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.2295918367347"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.8316326530612"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="38.7448979591837"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="29.8316326530612"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/Projects/CCRU_SAND/Data/KPI_Source.xlsx
+++ b/Projects/CCRU_SAND/Data/KPI_Source.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="11" activeTab="35"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="11" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="Pos 2018 - FT" sheetId="1" state="hidden" r:id="rId2"/>
@@ -522,12 +522,13 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="0.00"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
+      <charset val="177"/>
     </font>
     <font>
       <sz val="10"/>
@@ -546,6 +547,12 @@
     </font>
     <font>
       <b val="true"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -657,19 +664,19 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -685,15 +692,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -776,16 +783,17 @@
   </sheetPr>
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A12" activeCellId="0" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.2295918367347"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.0102040816327"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="29.4285714285714"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.3928571428571"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.2834008097166"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.1376518218624"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="29.6720647773279"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.497975708502"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.67611336032389"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -934,16 +942,17 @@
   </sheetPr>
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D19" activeCellId="0" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.2295918367347"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.8316326530612"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="38.7448979591837"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="29.8316326530612"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.2834008097166"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.9919028340081"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="39.0971659919028"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="29.9919028340081"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.67611336032389"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1085,16 +1094,17 @@
   </sheetPr>
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C20" activeCellId="0" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.2295918367347"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.8316326530612"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="38.7448979591837"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="29.8316326530612"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.2834008097166"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.9919028340081"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="39.0971659919028"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="29.9919028340081"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.67611336032389"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1236,18 +1246,18 @@
   </sheetPr>
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D18" activeCellId="0" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.1173469387755"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.8214285714286"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="26.8622448979592"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.9285714285714"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="6" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.2105263157895"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.8906882591093"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="27.1012145748988"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.9595141700405"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="6" width="11.3562753036437"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.35627530364373"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1267,7 +1277,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>4</v>
       </c>
@@ -1278,7 +1288,7 @@
         <v>61</v>
       </c>
       <c r="E2" s="8" t="n">
-        <v>65</v>
+        <v>69.93</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1387,17 +1397,17 @@
   </sheetPr>
   <dimension ref="A1:E65536"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I12" activeCellId="0" sqref="I12"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.0918367346939"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.8214285714286"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="26.8622448979592"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.71938775510204"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.1740890688259"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.8906882591093"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="27.1012145748988"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.74898785425101"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.35627530364373"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1417,7 +1427,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>4</v>
       </c>
@@ -1428,7 +1438,7 @@
         <v>69</v>
       </c>
       <c r="E2" s="8" t="n">
-        <v>65</v>
+        <v>69.26</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1533,17 +1543,17 @@
   </sheetPr>
   <dimension ref="A1:E65536"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.0918367346939"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.8214285714286"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="26.8622448979592"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.71938775510204"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.1740890688259"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.8906882591093"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="27.1012145748988"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.74898785425101"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.35627530364373"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1563,7 +1573,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>4</v>
       </c>
@@ -1574,7 +1584,7 @@
         <v>71</v>
       </c>
       <c r="E2" s="8" t="n">
-        <v>65</v>
+        <v>70.17</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1680,18 +1690,18 @@
   </sheetPr>
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.0918367346939"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.8214285714286"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="26.8622448979592"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.71938775510204"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="6" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.1740890688259"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.8906882591093"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="27.1012145748988"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.74898785425101"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="6" width="8.24696356275304"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.35627530364373"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1711,7 +1721,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>4</v>
       </c>
@@ -1722,7 +1732,7 @@
         <v>74</v>
       </c>
       <c r="E2" s="8" t="n">
-        <v>65</v>
+        <v>69.78</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1831,18 +1841,18 @@
   </sheetPr>
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.0918367346939"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.5714285714286"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="33.75"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.71938775510204"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="6" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.1740890688259"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.7085020242915"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="34.0647773279352"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.74898785425101"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="6" width="8.24696356275304"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.35627530364373"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1862,7 +1872,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>4</v>
       </c>
@@ -1873,7 +1883,7 @@
         <v>77</v>
       </c>
       <c r="E2" s="8" t="n">
-        <v>78.7</v>
+        <v>80.5</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2008,18 +2018,18 @@
   </sheetPr>
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.0918367346939"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.5714285714286"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="33.75"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.71938775510204"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.1740890688259"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.7085020242915"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="34.0647773279352"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.74898785425101"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.24696356275304"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.35627530364373"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2039,7 +2049,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>4</v>
       </c>
@@ -2050,7 +2060,7 @@
         <v>87</v>
       </c>
       <c r="E2" s="8" t="n">
-        <v>76.81</v>
+        <v>78.94</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2187,18 +2197,18 @@
   </sheetPr>
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.0918367346939"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.4285714285714"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="40.0918367346939"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.71938775510204"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="6" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.1740890688259"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.6720647773279"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="40.3846153846154"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.74898785425101"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="6" width="8.24696356275304"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.35627530364373"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2218,7 +2228,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>4</v>
       </c>
@@ -2229,7 +2239,7 @@
         <v>90</v>
       </c>
       <c r="E2" s="8" t="n">
-        <v>77.73</v>
+        <v>79.91</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2371,17 +2381,17 @@
   </sheetPr>
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="P33" activeCellId="0" sqref="P33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.0918367346939"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.4285714285714"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="40.0918367346939"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.71938775510204"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.1740890688259"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.6720647773279"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="40.3846153846154"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.74898785425101"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.35627530364373"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2537,16 +2547,17 @@
   </sheetPr>
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.2295918367347"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.8928571428571"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="29.4285714285714"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="27.8061224489796"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.2834008097166"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.1012145748988"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="29.6720647773279"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="27.9595141700405"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.67611336032389"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2695,17 +2706,17 @@
   </sheetPr>
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.0918367346939"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.4285714285714"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="40.0918367346939"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.71938775510204"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.1740890688259"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.6720647773279"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="40.3846153846154"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.74898785425101"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.35627530364373"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2861,18 +2872,18 @@
   </sheetPr>
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.0918367346939"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.4285714285714"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="40.0918367346939"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.71938775510204"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="6" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.1740890688259"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.6720647773279"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="40.3846153846154"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.74898785425101"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="6" width="8.24696356275304"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.35627530364373"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2892,7 +2903,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>4</v>
       </c>
@@ -2903,7 +2914,7 @@
         <v>101</v>
       </c>
       <c r="E2" s="8" t="n">
-        <v>75.66</v>
+        <v>78.29</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3045,17 +3056,17 @@
   </sheetPr>
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.0918367346939"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.4285714285714"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="40.0918367346939"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.71938775510204"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.1740890688259"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.6720647773279"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="40.3846153846154"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.74898785425101"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.35627530364373"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3212,17 +3223,17 @@
   </sheetPr>
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.0918367346939"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.4285714285714"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="40.0918367346939"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.71938775510204"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.1740890688259"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.6720647773279"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="40.3846153846154"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.74898785425101"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.35627530364373"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3378,17 +3389,18 @@
   </sheetPr>
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C16" activeCellId="0" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.2295918367347"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.8316326530612"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="38.7448979591837"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="29.8316326530612"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="6" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.2834008097166"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.9919028340081"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="39.0971659919028"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="29.9919028340081"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="6" width="11.3562753036437"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.67611336032389"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3408,7 +3420,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>4</v>
       </c>
@@ -3419,7 +3431,7 @@
         <v>109</v>
       </c>
       <c r="E2" s="8" t="n">
-        <v>63.36</v>
+        <v>69.19</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3554,17 +3566,18 @@
   </sheetPr>
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.2295918367347"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.8316326530612"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="38.7448979591837"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="29.8316326530612"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="6" width="7.96428571428571"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.2834008097166"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.9919028340081"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="39.0971659919028"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="29.9919028340081"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="6" width="8.03238866396761"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.67611336032389"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3584,7 +3597,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>4</v>
       </c>
@@ -3595,7 +3608,7 @@
         <v>113</v>
       </c>
       <c r="E2" s="8" t="n">
-        <v>63.36</v>
+        <v>68.14</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3730,17 +3743,18 @@
   </sheetPr>
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.2295918367347"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.8316326530612"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="38.7448979591837"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="29.8316326530612"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="6" width="7.96428571428571"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.2834008097166"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.9919028340081"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="39.0971659919028"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="29.9919028340081"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="6" width="8.03238866396761"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.67611336032389"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3760,7 +3774,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>4</v>
       </c>
@@ -3771,7 +3785,7 @@
         <v>115</v>
       </c>
       <c r="E2" s="8" t="n">
-        <v>80.33</v>
+        <v>80.75</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3906,17 +3920,18 @@
   </sheetPr>
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.2295918367347"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.8316326530612"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="38.7448979591837"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="29.8316326530612"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="6" width="7.96428571428571"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.2834008097166"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.9919028340081"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="39.0971659919028"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="29.9919028340081"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="6" width="8.03238866396761"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.67611336032389"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3936,7 +3951,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>4</v>
       </c>
@@ -3947,7 +3962,7 @@
         <v>119</v>
       </c>
       <c r="E2" s="8" t="n">
-        <v>78.99</v>
+        <v>80.4</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4080,17 +4095,18 @@
   </sheetPr>
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.2295918367347"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.8316326530612"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="38.7448979591837"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="29.8316326530612"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.2834008097166"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.9919028340081"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="39.0971659919028"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="29.9919028340081"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.57085020242915"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.67611336032389"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4110,7 +4126,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>4</v>
       </c>
@@ -4121,7 +4137,7 @@
         <v>123</v>
       </c>
       <c r="E2" s="8" t="n">
-        <v>84.11</v>
+        <v>78.97</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4258,17 +4274,18 @@
   </sheetPr>
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="N1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.2295918367347"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.8316326530612"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="38.7448979591837"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="29.8316326530612"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="6" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.2834008097166"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.9919028340081"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="39.0971659919028"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="29.9919028340081"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="6" width="11.3562753036437"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.67611336032389"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4288,7 +4305,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>4</v>
       </c>
@@ -4299,7 +4316,7 @@
         <v>125</v>
       </c>
       <c r="E2" s="8" t="n">
-        <v>83.34</v>
+        <v>82.4</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4434,16 +4451,17 @@
   </sheetPr>
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D16" activeCellId="0" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.2295918367347"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.8928571428571"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="29.4285714285714"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="27.8061224489796"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.2834008097166"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.1012145748988"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="29.6720647773279"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="27.9595141700405"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.67611336032389"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4591,17 +4609,18 @@
   </sheetPr>
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E10" activeCellId="0" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.2295918367347"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.2755102040816"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="31.0459183673469"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="27.8061224489796"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="6" width="7.96428571428571"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.2834008097166"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.4939271255061"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="31.2793522267206"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="27.9595141700405"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="6" width="8.03238866396761"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.67611336032389"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4621,7 +4640,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>4</v>
       </c>
@@ -4632,7 +4651,7 @@
         <v>127</v>
       </c>
       <c r="E2" s="8" t="n">
-        <v>70.71</v>
+        <v>72.33</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4680,7 +4699,7 @@
       </c>
       <c r="E6" s="0"/>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
         <v>19</v>
       </c>
@@ -4694,7 +4713,7 @@
         <v>129</v>
       </c>
       <c r="E7" s="8" t="n">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4721,7 +4740,7 @@
       </c>
       <c r="E9" s="0"/>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
         <v>26</v>
       </c>
@@ -4729,7 +4748,7 @@
         <v>27</v>
       </c>
       <c r="E10" s="8" t="n">
-        <v>95.8</v>
+        <v>95</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4775,17 +4794,18 @@
   </sheetPr>
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E10" activeCellId="0" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.2295918367347"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.2755102040816"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="31.0459183673469"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="27.8061224489796"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="6" width="7.96428571428571"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.2834008097166"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.4939271255061"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="31.2793522267206"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="27.9595141700405"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="6" width="8.03238866396761"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.67611336032389"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4805,7 +4825,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>4</v>
       </c>
@@ -4816,7 +4836,7 @@
         <v>132</v>
       </c>
       <c r="E2" s="8" t="n">
-        <v>73.8</v>
+        <v>75.76</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4864,7 +4884,7 @@
       </c>
       <c r="E6" s="0"/>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
         <v>19</v>
       </c>
@@ -4878,7 +4898,7 @@
         <v>129</v>
       </c>
       <c r="E7" s="8" t="n">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4905,7 +4925,7 @@
       </c>
       <c r="E9" s="0"/>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
         <v>26</v>
       </c>
@@ -4913,7 +4933,7 @@
         <v>27</v>
       </c>
       <c r="E10" s="8" t="n">
-        <v>95.8</v>
+        <v>95</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4959,17 +4979,18 @@
   </sheetPr>
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E10" activeCellId="0" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.2295918367347"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.2755102040816"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="32.6683673469388"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="27.8061224489796"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="6" width="7.96428571428571"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.2834008097166"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.4939271255061"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="32.8866396761134"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="27.9595141700405"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="6" width="8.03238866396761"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.67611336032389"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4989,7 +5010,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>4</v>
       </c>
@@ -5000,7 +5021,7 @@
         <v>135</v>
       </c>
       <c r="E2" s="8" t="n">
-        <v>70.7</v>
+        <v>72.38</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5062,7 +5083,7 @@
         <v>129</v>
       </c>
       <c r="E7" s="8" t="n">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5089,7 +5110,7 @@
       </c>
       <c r="E9" s="0"/>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
         <v>26</v>
       </c>
@@ -5097,7 +5118,7 @@
         <v>27</v>
       </c>
       <c r="E10" s="8" t="n">
-        <v>95.8</v>
+        <v>95</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5143,17 +5164,18 @@
   </sheetPr>
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E10" activeCellId="0" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.2295918367347"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.2755102040816"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="32.6683673469388"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="27.8061224489796"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="6" width="7.96428571428571"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.2834008097166"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.4939271255061"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="32.8866396761134"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="27.9595141700405"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="6" width="8.03238866396761"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.67611336032389"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5173,7 +5195,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>4</v>
       </c>
@@ -5184,7 +5206,7 @@
         <v>137</v>
       </c>
       <c r="E2" s="8" t="n">
-        <v>69.52</v>
+        <v>71.41</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5246,7 +5268,7 @@
         <v>129</v>
       </c>
       <c r="E7" s="8" t="n">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5273,7 +5295,7 @@
       </c>
       <c r="E9" s="0"/>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
         <v>26</v>
       </c>
@@ -5281,7 +5303,7 @@
         <v>27</v>
       </c>
       <c r="E10" s="8" t="n">
-        <v>95.8</v>
+        <v>95</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5327,17 +5349,18 @@
   </sheetPr>
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E10" activeCellId="0" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.2295918367347"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.8928571428571"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="29.4285714285714"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="27.8061224489796"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="6" width="7.96428571428571"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.2834008097166"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.1012145748988"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="29.6720647773279"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="27.9595141700405"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="6" width="8.03238866396761"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.67611336032389"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5357,7 +5380,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>4</v>
       </c>
@@ -5368,7 +5391,7 @@
         <v>139</v>
       </c>
       <c r="E2" s="8" t="n">
-        <v>65.15</v>
+        <v>66.47</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5430,7 +5453,7 @@
         <v>141</v>
       </c>
       <c r="E7" s="8" t="n">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5457,7 +5480,7 @@
       </c>
       <c r="E9" s="0"/>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
         <v>26</v>
       </c>
@@ -5465,7 +5488,7 @@
         <v>27</v>
       </c>
       <c r="E10" s="8" t="n">
-        <v>95.8</v>
+        <v>95</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5511,17 +5534,18 @@
   </sheetPr>
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E10" activeCellId="0" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.2295918367347"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.8928571428571"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="29.4285714285714"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="27.8061224489796"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="6" width="7.96428571428571"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.2834008097166"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.1012145748988"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="29.6720647773279"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="27.9595141700405"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="6" width="8.03238866396761"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.67611336032389"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5541,7 +5565,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>4</v>
       </c>
@@ -5552,7 +5576,7 @@
         <v>144</v>
       </c>
       <c r="E2" s="8" t="n">
-        <v>67.43</v>
+        <v>69.18</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5614,7 +5638,7 @@
         <v>141</v>
       </c>
       <c r="E7" s="8" t="n">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5641,7 +5665,7 @@
       </c>
       <c r="E9" s="0"/>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
         <v>26</v>
       </c>
@@ -5649,7 +5673,7 @@
         <v>27</v>
       </c>
       <c r="E10" s="8" t="n">
-        <v>95.8</v>
+        <v>95</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5695,17 +5719,18 @@
   </sheetPr>
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D25" activeCellId="0" sqref="D25"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E10" activeCellId="0" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.2295918367347"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.8928571428571"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="33.8826530612245"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="27.8061224489796"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="6" width="8.77551020408163"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.2834008097166"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.1012145748988"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="34.17004048583"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="27.9595141700405"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="6" width="8.78542510121457"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.67611336032389"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5725,7 +5750,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>4</v>
       </c>
@@ -5736,7 +5761,7 @@
         <v>146</v>
       </c>
       <c r="E2" s="8" t="n">
-        <v>66.35</v>
+        <v>68.73</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5798,7 +5823,7 @@
         <v>141</v>
       </c>
       <c r="E7" s="8" t="n">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5825,7 +5850,7 @@
       </c>
       <c r="E9" s="0"/>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
         <v>26</v>
       </c>
@@ -5833,7 +5858,7 @@
         <v>27</v>
       </c>
       <c r="E10" s="8" t="n">
-        <v>95.8</v>
+        <v>95</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5879,17 +5904,18 @@
   </sheetPr>
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J16" activeCellId="0" sqref="J16"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.2295918367347"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.8928571428571"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="34.2857142857143"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="27.8061224489796"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.2834008097166"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.1012145748988"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="34.5991902834008"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="27.9595141700405"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.57085020242915"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.67611336032389"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5909,7 +5935,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>4</v>
       </c>
@@ -5920,7 +5946,7 @@
         <v>150</v>
       </c>
       <c r="E2" s="8" t="n">
-        <v>68.22</v>
+        <v>69.98</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5982,7 +6008,7 @@
         <v>141</v>
       </c>
       <c r="E7" s="8" t="n">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6009,7 +6035,7 @@
       </c>
       <c r="E9" s="6"/>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
         <v>26</v>
       </c>
@@ -6017,7 +6043,7 @@
         <v>27</v>
       </c>
       <c r="E10" s="8" t="n">
-        <v>95.8</v>
+        <v>95</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6065,16 +6091,17 @@
   </sheetPr>
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.2295918367347"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.2755102040816"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="29.4285714285714"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="27.8061224489796"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.2834008097166"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.4939271255061"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="29.6720647773279"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="27.9595141700405"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.67611336032389"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6222,16 +6249,17 @@
   </sheetPr>
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.2295918367347"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.8928571428571"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="29.4285714285714"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="27.8061224489796"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.2834008097166"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.1012145748988"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="29.6720647773279"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="27.9595141700405"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.67611336032389"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6379,16 +6407,17 @@
   </sheetPr>
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.2295918367347"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.8316326530612"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="38.7448979591837"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="29.8316326530612"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.2834008097166"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.9919028340081"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="39.0971659919028"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="29.9919028340081"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.67611336032389"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6536,16 +6565,17 @@
   </sheetPr>
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.2295918367347"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.8316326530612"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="38.7448979591837"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="29.8316326530612"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.2834008097166"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.9919028340081"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="39.0971659919028"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="29.9919028340081"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.67611336032389"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6693,16 +6723,17 @@
   </sheetPr>
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.2295918367347"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.8316326530612"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="38.7448979591837"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="29.8316326530612"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.2834008097166"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.9919028340081"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="39.0971659919028"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="29.9919028340081"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.67611336032389"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6850,16 +6881,17 @@
   </sheetPr>
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.2295918367347"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.8316326530612"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="38.7448979591837"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="29.8316326530612"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.2834008097166"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.9919028340081"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="39.0971659919028"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="29.9919028340081"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.67611336032389"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/Projects/CCRU_SAND/Data/KPI_Source.xlsx
+++ b/Projects/CCRU_SAND/Data/KPI_Source.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="POS" sheetId="1" state="visible" r:id="rId2"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2096" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2096" uniqueCount="234">
   <si>
     <t xml:space="preserve">POS</t>
   </si>
@@ -632,6 +632,12 @@
     <t xml:space="preserve">KPIs_2019/Target Execution 2019.xlsx</t>
   </si>
   <si>
+    <t xml:space="preserve">Target Execution 2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KPIs_2020/Target Execution 2020.xlsx</t>
+  </si>
+  <si>
     <t xml:space="preserve">Equipment Execution 2019</t>
   </si>
   <si>
@@ -659,6 +665,24 @@
     <t xml:space="preserve">MT - Hyper-Super</t>
   </si>
   <si>
+    <t xml:space="preserve">Equipment Execution 2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KPIs_2020/Contract Execution 2020.xlsx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IC - BarNight-CoffeeShop</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IC - Cinema</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IC - RestCafe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IC - QSR</t>
+  </si>
+  <si>
     <t xml:space="preserve">Top SKU</t>
   </si>
   <si>
@@ -668,7 +692,13 @@
     <t xml:space="preserve">KPIs_2019/KPIConversion2019.xlsx</t>
   </si>
   <si>
+    <t xml:space="preserve">KPIs_2020/KPIConversion2020.xlsx</t>
+  </si>
+  <si>
     <t xml:space="preserve">Contract Execution 2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contract Execution 2020</t>
   </si>
   <si>
     <t xml:space="preserve">Spirits 2018 - FT</t>
@@ -817,7 +847,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -851,6 +881,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -916,7 +950,7 @@
       <rgbColor rgb="FFFF9900"/>
       <rgbColor rgb="FFFF6600"/>
       <rgbColor rgb="FF666699"/>
-      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF999999"/>
       <rgbColor rgb="FF003366"/>
       <rgbColor rgb="FF339966"/>
       <rgbColor rgb="FF003300"/>
@@ -938,20 +972,20 @@
   <dimension ref="A1:F78"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="C36" activeCellId="0" sqref="C36"/>
+      <selection pane="bottomLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="49.8178137651822"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="51.5303643724696"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="67.9838056680162"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="22.7368421052632"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="22.3967611336032"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="22.7368421052632"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="9.1417004048583"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="53.587044534413"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="55.417004048583"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="73.1255060728745"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="24.4534412955466"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="24.1093117408907"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="24.4534412955466"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="9.71255060728745"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2416,6 +2450,7 @@
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
+    <tabColor rgb="FF999999"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:E78"/>
@@ -2428,12 +2463,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.85"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="49.8178137651822"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="51.5303643724696"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="67.9838056680162"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="22.7368421052632"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="22.3967611336032"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="9.1417004048583"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="53.587044534413"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="55.417004048583"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="73.1255060728745"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="24.4534412955466"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="24.1093117408907"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="9.71255060728745"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2458,7 +2493,7 @@
         <v>6</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>223</v>
+        <v>233</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
@@ -2469,7 +2504,7 @@
         <v>8</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>223</v>
+        <v>233</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
@@ -2480,7 +2515,7 @@
         <v>10</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>223</v>
+        <v>233</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
@@ -2491,7 +2526,7 @@
         <v>12</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>223</v>
+        <v>233</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
@@ -2502,7 +2537,7 @@
         <v>14</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>223</v>
+        <v>233</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
@@ -2513,7 +2548,7 @@
         <v>16</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>223</v>
+        <v>233</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
@@ -2524,7 +2559,7 @@
         <v>18</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>223</v>
+        <v>233</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
@@ -2535,7 +2570,7 @@
         <v>20</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>223</v>
+        <v>233</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
@@ -2546,7 +2581,7 @@
         <v>22</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>223</v>
+        <v>233</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
@@ -2557,7 +2592,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>223</v>
+        <v>233</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
@@ -2568,7 +2603,7 @@
         <v>26</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>223</v>
+        <v>233</v>
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
@@ -2579,7 +2614,7 @@
         <v>28</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>223</v>
+        <v>233</v>
       </c>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
@@ -2590,7 +2625,7 @@
         <v>30</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>223</v>
+        <v>233</v>
       </c>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
@@ -2601,7 +2636,7 @@
         <v>32</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>223</v>
+        <v>233</v>
       </c>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
@@ -2612,7 +2647,7 @@
         <v>34</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>223</v>
+        <v>233</v>
       </c>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
@@ -2623,7 +2658,7 @@
         <v>36</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>223</v>
+        <v>233</v>
       </c>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
@@ -2634,7 +2669,7 @@
         <v>38</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>223</v>
+        <v>233</v>
       </c>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
@@ -2645,7 +2680,7 @@
         <v>40</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>223</v>
+        <v>233</v>
       </c>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
@@ -2656,7 +2691,7 @@
         <v>42</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>223</v>
+        <v>233</v>
       </c>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
@@ -2667,7 +2702,7 @@
         <v>44</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>223</v>
+        <v>233</v>
       </c>
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
@@ -2678,7 +2713,7 @@
         <v>46</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>223</v>
+        <v>233</v>
       </c>
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
@@ -2689,7 +2724,7 @@
         <v>48</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>223</v>
+        <v>233</v>
       </c>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
@@ -2700,7 +2735,7 @@
         <v>50</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>223</v>
+        <v>233</v>
       </c>
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
@@ -2711,7 +2746,7 @@
         <v>52</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>223</v>
+        <v>233</v>
       </c>
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
@@ -2722,7 +2757,7 @@
         <v>54</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>223</v>
+        <v>233</v>
       </c>
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
@@ -2733,7 +2768,7 @@
         <v>56</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>223</v>
+        <v>233</v>
       </c>
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
@@ -3008,6 +3043,7 @@
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
+    <tabColor rgb="FF999999"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:E78"/>
@@ -3015,17 +3051,17 @@
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="C67" activeCellId="0" sqref="C67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.85"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="49.8178137651822"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="51.5303643724696"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="67.9838056680162"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="22.7368421052632"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="22.3967611336032"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="9.1417004048583"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="53.587044534413"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="55.417004048583"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="73.1255060728745"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="24.4534412955466"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="24.1093117408907"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="9.71255060728745"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3560,12 +3596,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.85"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="49.8178137651822"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="51.5303643724696"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="67.9838056680162"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="22.7368421052632"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="22.3967611336032"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="9.1417004048583"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="53.587044534413"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="55.417004048583"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="73.1255060728745"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="24.4534412955466"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="24.1093117408907"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="9.71255060728745"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4248,7 +4284,7 @@
   </sheetPr>
   <dimension ref="A1:E78"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="bottomLeft" activeCell="C58" activeCellId="0" sqref="C58"/>
@@ -4256,12 +4292,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.85"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="49.8178137651822"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="51.5303643724696"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="67.9838056680162"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="22.7368421052632"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="22.3967611336032"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="9.1417004048583"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="53.587044534413"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="55.417004048583"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="73.1255060728745"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="24.4534412955466"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="24.1093117408907"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="9.71255060728745"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5307,17 +5343,17 @@
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="B36" activeCellId="0" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.85"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="49.8178137651822"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="51.5303643724696"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="67.9838056680162"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="22.7368421052632"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="22.3967611336032"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="9.1417004048583"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="53.587044534413"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="55.417004048583"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="73.1255060728745"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="24.4534412955466"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="24.1093117408907"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="9.71255060728745"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5659,565 +5695,565 @@
       <c r="D27" s="4"/>
       <c r="E27" s="5"/>
     </row>
-    <row r="28" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="B28" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B28" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="B29" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B29" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="B30" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B30" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="B31" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B31" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="C31" s="10" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="B32" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B32" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="C32" s="10" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="B33" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B33" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="C33" s="10" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="B34" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B34" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="C34" s="10" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="B35" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B35" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="C35" s="10" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="B36" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B36" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="C36" s="10" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="B37" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B37" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="C37" s="10" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="B38" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B38" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="C38" s="10" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="B39" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B39" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="C39" s="10" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="B40" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B40" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="C40" s="10" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="B41" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B41" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="C41" s="10" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="B42" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="C42" s="4" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B42" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="C42" s="10" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="B43" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="C43" s="4" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B43" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="C43" s="10" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="B44" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="C44" s="4" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B44" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="C44" s="10" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="B45" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="C45" s="4" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B45" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="C45" s="10" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="B46" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="C46" s="4" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B46" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="C46" s="10" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="B47" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="C47" s="4" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B47" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="C47" s="10" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="B48" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="C48" s="4" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B48" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="C48" s="10" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="B49" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="C49" s="4" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B49" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="C49" s="10" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="B50" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="C50" s="4" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="51" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B50" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="C50" s="10" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="B51" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="C51" s="4" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="52" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B51" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="C51" s="10" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="B52" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="C52" s="4" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="53" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B52" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="C52" s="10" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="B53" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="C53" s="4" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="54" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B53" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="C53" s="10" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="B54" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="C54" s="4" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="55" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B54" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="C54" s="10" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="B55" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="C55" s="4" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="56" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B55" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="C55" s="10" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="B56" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="C56" s="4" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="57" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B56" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="C56" s="10" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="B57" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="C57" s="4" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="58" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B57" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="C57" s="10" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="B58" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="C58" s="4" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="59" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B58" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="C58" s="10" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="B59" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="C59" s="4" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="60" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B59" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="C59" s="10" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="B60" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="C60" s="4" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="61" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B60" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="C60" s="10" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="B61" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="C61" s="4" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="62" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B61" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="C61" s="10" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="B62" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="C62" s="4" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="63" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B62" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="C62" s="10" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="B63" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="C63" s="4" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="64" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B63" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="C63" s="10" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="B64" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="C64" s="4" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="65" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B64" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="C64" s="10" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="B65" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="C65" s="4" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="66" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B65" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="C65" s="10" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="8" t="s">
         <v>138</v>
       </c>
-      <c r="B66" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="C66" s="4" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="67" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B66" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="C66" s="10" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="8" t="s">
         <v>140</v>
       </c>
-      <c r="B67" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="C67" s="4" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="68" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B67" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="C67" s="10" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="B68" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="C68" s="4" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="69" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B68" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="C68" s="10" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="B69" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="C69" s="4" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="70" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B69" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="C69" s="10" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="B70" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="C70" s="4" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="71" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B70" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="C70" s="10" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="8" t="s">
         <v>148</v>
       </c>
-      <c r="B71" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="C71" s="4" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="72" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B71" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="C71" s="10" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="8" t="s">
         <v>150</v>
       </c>
-      <c r="B72" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="C72" s="4" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="73" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B72" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="C72" s="10" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="B73" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="C73" s="4" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="74" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B73" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="C73" s="10" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="B74" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="C74" s="4" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="75" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B74" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="C74" s="10" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="8" t="s">
         <v>156</v>
       </c>
-      <c r="B75" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="C75" s="4" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="76" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B75" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="C75" s="10" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="8" t="s">
         <v>158</v>
       </c>
-      <c r="B76" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="C76" s="4" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="77" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B76" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="C76" s="10" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="8" t="s">
         <v>160</v>
       </c>
-      <c r="B77" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="C77" s="4" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="78" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B77" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="C77" s="10" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="8" t="s">
         <v>162</v>
       </c>
-      <c r="B78" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="C78" s="4" t="s">
-        <v>199</v>
+      <c r="B78" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="C78" s="10" t="s">
+        <v>201</v>
       </c>
     </row>
   </sheetData>
@@ -6241,17 +6277,17 @@
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="C81" activeCellId="0" sqref="C81"/>
+      <selection pane="bottomLeft" activeCell="D43" activeCellId="0" sqref="D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="49.8178137651822"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="51.5303643724696"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="67.9838056680162"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="22.7368421052632"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="22.3967611336032"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="9.1417004048583"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="53.587044534413"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="55.417004048583"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="73.1255060728745"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="24.4534412955466"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="24.1093117408907"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="9.71255060728745"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6312,13 +6348,13 @@
         <v>14</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="E6" s="5"/>
     </row>
@@ -6327,13 +6363,13 @@
         <v>16</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="E7" s="5"/>
     </row>
@@ -6342,13 +6378,13 @@
         <v>18</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="E8" s="5"/>
     </row>
@@ -6357,13 +6393,13 @@
         <v>20</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="E9" s="5"/>
     </row>
@@ -6372,13 +6408,13 @@
         <v>22</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="E10" s="5"/>
     </row>
@@ -6387,13 +6423,13 @@
         <v>24</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="E11" s="5"/>
     </row>
@@ -6402,13 +6438,13 @@
         <v>26</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="E12" s="5"/>
     </row>
@@ -6417,13 +6453,13 @@
         <v>28</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="E13" s="5"/>
     </row>
@@ -6432,13 +6468,13 @@
         <v>30</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="E14" s="5"/>
     </row>
@@ -6447,13 +6483,13 @@
         <v>32</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="E15" s="5"/>
     </row>
@@ -6462,13 +6498,13 @@
         <v>34</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="E16" s="5"/>
     </row>
@@ -6477,13 +6513,13 @@
         <v>36</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="E17" s="5"/>
     </row>
@@ -6492,13 +6528,13 @@
         <v>38</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="E18" s="5"/>
     </row>
@@ -6507,13 +6543,13 @@
         <v>40</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="E19" s="5"/>
     </row>
@@ -6522,13 +6558,13 @@
         <v>42</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="E20" s="5"/>
     </row>
@@ -6537,13 +6573,13 @@
         <v>44</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="E21" s="5"/>
     </row>
@@ -6552,13 +6588,13 @@
         <v>46</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="E22" s="5"/>
     </row>
@@ -6567,13 +6603,13 @@
         <v>48</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="E23" s="5"/>
     </row>
@@ -6582,13 +6618,13 @@
         <v>50</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="E24" s="5"/>
     </row>
@@ -6597,13 +6633,13 @@
         <v>52</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="E25" s="5"/>
     </row>
@@ -6612,13 +6648,13 @@
         <v>54</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="E26" s="5"/>
     </row>
@@ -6627,13 +6663,13 @@
         <v>56</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="E27" s="5"/>
     </row>
@@ -6727,354 +6763,354 @@
       </c>
       <c r="B42" s="9"/>
     </row>
-    <row r="43" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="B43" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="C43" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="D43" s="4" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B43" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="C43" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="D43" s="10" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="B44" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="C44" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="D44" s="4" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B44" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="C44" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="D44" s="10" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="B45" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="C45" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="D45" s="4" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B45" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="C45" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="D45" s="10" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="B46" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="C46" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="D46" s="4" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B46" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="C46" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="D46" s="10" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="B47" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="C47" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="D47" s="4" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B47" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="C47" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="D47" s="10" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="B48" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="C48" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="D48" s="4" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B48" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="C48" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="D48" s="10" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="B49" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="C49" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="D49" s="4" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B49" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="C49" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="D49" s="10" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="B50" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="C50" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="D50" s="4" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="51" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B50" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="C50" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="D50" s="10" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="B51" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="C51" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="D51" s="4" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="52" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B51" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="C51" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="D51" s="10" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="B52" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="C52" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="D52" s="4" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="53" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B52" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="C52" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="D52" s="10" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="B53" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="C53" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="D53" s="4" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="54" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B53" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="C53" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="D53" s="10" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="B54" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="C54" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="D54" s="4" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="55" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B54" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="C54" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="D54" s="10" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="B55" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="C55" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="D55" s="4" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="56" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B55" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="C55" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="D55" s="10" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="B56" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="C56" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="D56" s="4" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="57" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B56" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="C56" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="D56" s="10" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="B57" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="C57" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="D57" s="4" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="58" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B57" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="C57" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="D57" s="10" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="B58" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="C58" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="D58" s="4" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="59" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B58" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="C58" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="D58" s="10" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="B59" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="C59" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="D59" s="4" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="60" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B59" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="C59" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="D59" s="10" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="B60" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="C60" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="D60" s="4" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="61" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B60" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="C60" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="D60" s="10" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="B61" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="C61" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="D61" s="4" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="62" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B61" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="C61" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="D61" s="10" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="B62" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="C62" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="D62" s="4" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="63" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B62" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="C62" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="D62" s="10" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="B63" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="C63" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="D63" s="4" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="64" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B63" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="C63" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="D63" s="10" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="B64" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="C64" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="D64" s="4" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="65" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B64" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="C64" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="D64" s="10" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="B65" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="C65" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="D65" s="4" t="s">
-        <v>203</v>
+      <c r="B65" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="C65" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="D65" s="10" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="8" t="s">
         <v>138</v>
       </c>
-      <c r="B66" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="C66" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="D66" s="4" t="s">
-        <v>203</v>
+      <c r="B66" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="C66" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="D66" s="10" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="8" t="s">
         <v>140</v>
       </c>
-      <c r="B67" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="C67" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="D67" s="4" t="s">
-        <v>203</v>
+      <c r="B67" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="C67" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="D67" s="10" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7173,19 +7209,19 @@
   <dimension ref="A1:E78"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.85"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="49.8178137651822"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="51.5303643724696"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="67.9838056680162"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="22.7368421052632"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="22.3967611336032"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="9.1417004048583"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="53.587044534413"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="55.417004048583"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="73.1255060728745"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="24.4534412955466"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="24.1093117408907"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="9.71255060728745"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7210,7 +7246,7 @@
         <v>6</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
@@ -7221,7 +7257,7 @@
         <v>8</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
@@ -7232,7 +7268,7 @@
         <v>10</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
@@ -7243,7 +7279,7 @@
         <v>12</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
@@ -7254,7 +7290,7 @@
         <v>14</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
@@ -7265,7 +7301,7 @@
         <v>16</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
@@ -7276,7 +7312,7 @@
         <v>18</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
@@ -7287,7 +7323,7 @@
         <v>20</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
@@ -7298,7 +7334,7 @@
         <v>22</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
@@ -7309,7 +7345,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
@@ -7320,7 +7356,7 @@
         <v>26</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
@@ -7331,7 +7367,7 @@
         <v>28</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
@@ -7342,7 +7378,7 @@
         <v>30</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
@@ -7353,7 +7389,7 @@
         <v>32</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
@@ -7364,7 +7400,7 @@
         <v>34</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
@@ -7375,7 +7411,7 @@
         <v>36</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
@@ -7386,7 +7422,7 @@
         <v>38</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
@@ -7397,7 +7433,7 @@
         <v>40</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
@@ -7408,7 +7444,7 @@
         <v>42</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
@@ -7421,7 +7457,7 @@
         <v>44</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
@@ -7434,7 +7470,7 @@
         <v>46</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
@@ -7447,7 +7483,7 @@
         <v>48</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
@@ -7460,7 +7496,7 @@
         <v>50</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
@@ -7473,7 +7509,7 @@
         <v>52</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
@@ -7486,7 +7522,7 @@
         <v>54</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
@@ -7499,7 +7535,7 @@
         <v>56</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
@@ -7512,7 +7548,7 @@
         <v>58</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="E28" s="0"/>
     </row>
@@ -7521,7 +7557,7 @@
         <v>62</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="E29" s="0"/>
     </row>
@@ -7530,7 +7566,7 @@
         <v>64</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="E30" s="0"/>
     </row>
@@ -7539,7 +7575,7 @@
         <v>66</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="E31" s="0"/>
     </row>
@@ -7548,7 +7584,7 @@
         <v>68</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="E32" s="0"/>
     </row>
@@ -7557,7 +7593,7 @@
         <v>70</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="E33" s="0"/>
     </row>
@@ -7566,7 +7602,7 @@
         <v>72</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="E34" s="0"/>
     </row>
@@ -7575,7 +7611,7 @@
         <v>74</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="E35" s="0"/>
     </row>
@@ -7584,7 +7620,7 @@
         <v>76</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="E36" s="0"/>
     </row>
@@ -7593,7 +7629,7 @@
         <v>78</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="E37" s="0"/>
     </row>
@@ -7602,7 +7638,7 @@
         <v>80</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="E38" s="0"/>
     </row>
@@ -7611,7 +7647,7 @@
         <v>82</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="E39" s="0"/>
     </row>
@@ -7620,7 +7656,7 @@
         <v>84</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="E40" s="0"/>
     </row>
@@ -7629,7 +7665,7 @@
         <v>86</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="E41" s="0"/>
     </row>
@@ -7638,7 +7674,7 @@
         <v>88</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="E42" s="0"/>
     </row>
@@ -7647,7 +7683,7 @@
         <v>90</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="E43" s="5" t="n">
         <v>95</v>
@@ -7658,7 +7694,7 @@
         <v>93</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="E44" s="5" t="n">
         <v>95</v>
@@ -7669,7 +7705,7 @@
         <v>95</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="E45" s="5" t="n">
         <v>95</v>
@@ -7680,7 +7716,7 @@
         <v>97</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="E46" s="5" t="n">
         <v>95</v>
@@ -7691,7 +7727,7 @@
         <v>99</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="E47" s="5" t="n">
         <v>95</v>
@@ -7702,7 +7738,7 @@
         <v>101</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="E48" s="5" t="n">
         <v>95</v>
@@ -7713,7 +7749,7 @@
         <v>103</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="E49" s="5" t="n">
         <v>95</v>
@@ -7724,7 +7760,7 @@
         <v>105</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="E50" s="5" t="n">
         <v>95</v>
@@ -7735,7 +7771,7 @@
         <v>107</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="E51" s="5" t="n">
         <v>95</v>
@@ -7746,7 +7782,7 @@
         <v>109</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="E52" s="5" t="n">
         <v>95</v>
@@ -7757,7 +7793,7 @@
         <v>111</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="E53" s="5" t="n">
         <v>95</v>
@@ -7768,7 +7804,7 @@
         <v>113</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="E54" s="5" t="n">
         <v>95</v>
@@ -7779,7 +7815,7 @@
         <v>115</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7787,7 +7823,7 @@
         <v>118</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7795,7 +7831,7 @@
         <v>120</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7803,7 +7839,7 @@
         <v>122</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7811,7 +7847,7 @@
         <v>124</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7819,7 +7855,7 @@
         <v>126</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7827,7 +7863,7 @@
         <v>128</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7835,7 +7871,7 @@
         <v>130</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7843,7 +7879,7 @@
         <v>132</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7851,7 +7887,7 @@
         <v>134</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7859,7 +7895,7 @@
         <v>136</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7867,7 +7903,7 @@
         <v>138</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7875,7 +7911,7 @@
         <v>140</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7883,7 +7919,7 @@
         <v>142</v>
       </c>
       <c r="B68" s="0" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7891,7 +7927,7 @@
         <v>144</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7899,7 +7935,7 @@
         <v>146</v>
       </c>
       <c r="B70" s="0" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7907,7 +7943,7 @@
         <v>148</v>
       </c>
       <c r="B71" s="0" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7915,7 +7951,7 @@
         <v>150</v>
       </c>
       <c r="B72" s="0" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7923,7 +7959,7 @@
         <v>152</v>
       </c>
       <c r="B73" s="0" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7931,7 +7967,7 @@
         <v>154</v>
       </c>
       <c r="B74" s="0" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7939,7 +7975,7 @@
         <v>156</v>
       </c>
       <c r="B75" s="0" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7947,7 +7983,7 @@
         <v>158</v>
       </c>
       <c r="B76" s="0" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7955,7 +7991,7 @@
         <v>160</v>
       </c>
       <c r="B77" s="0" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7963,7 +7999,7 @@
         <v>162</v>
       </c>
       <c r="B78" s="0" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
     </row>
   </sheetData>
@@ -7984,20 +8020,20 @@
   </sheetPr>
   <dimension ref="A1:E65536"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="C61" activeCellId="0" sqref="C61"/>
+      <selection pane="bottomLeft" activeCell="B43" activeCellId="0" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="49.8178137651822"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="51.5303643724696"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="67.9838056680162"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="22.7368421052632"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="22.3967611336032"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="9.1417004048583"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="53.587044534413"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="55.417004048583"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="73.1255060728745"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="24.4534412955466"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="24.1093117408907"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="9.71255060728745"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8058,10 +8094,10 @@
         <v>14</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="5"/>
@@ -8071,10 +8107,10 @@
         <v>16</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="5"/>
@@ -8084,10 +8120,10 @@
         <v>18</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="5"/>
@@ -8097,10 +8133,10 @@
         <v>20</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="5"/>
@@ -8110,10 +8146,10 @@
         <v>22</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="5"/>
@@ -8123,10 +8159,10 @@
         <v>24</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="5"/>
@@ -8136,10 +8172,10 @@
         <v>26</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="5"/>
@@ -8149,10 +8185,10 @@
         <v>28</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="5"/>
@@ -8162,10 +8198,10 @@
         <v>30</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="D14" s="4"/>
       <c r="E14" s="5"/>
@@ -8175,10 +8211,10 @@
         <v>32</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="D15" s="4"/>
       <c r="E15" s="5"/>
@@ -8188,10 +8224,10 @@
         <v>34</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="D16" s="4"/>
       <c r="E16" s="5"/>
@@ -8201,10 +8237,10 @@
         <v>36</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="D17" s="4"/>
       <c r="E17" s="5"/>
@@ -8214,10 +8250,10 @@
         <v>38</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="D18" s="4"/>
       <c r="E18" s="5"/>
@@ -8227,10 +8263,10 @@
         <v>40</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="D19" s="4"/>
       <c r="E19" s="5"/>
@@ -8240,10 +8276,10 @@
         <v>42</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="D20" s="4"/>
       <c r="E20" s="5"/>
@@ -8253,10 +8289,10 @@
         <v>44</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="D21" s="4"/>
       <c r="E21" s="5"/>
@@ -8266,10 +8302,10 @@
         <v>46</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="D22" s="4"/>
       <c r="E22" s="5"/>
@@ -8279,10 +8315,10 @@
         <v>48</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="D23" s="4"/>
       <c r="E23" s="5"/>
@@ -8292,10 +8328,10 @@
         <v>50</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="D24" s="4"/>
       <c r="E24" s="5"/>
@@ -8305,10 +8341,10 @@
         <v>52</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="D25" s="4"/>
       <c r="E25" s="5"/>
@@ -8318,10 +8354,10 @@
         <v>54</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="D26" s="4"/>
       <c r="E26" s="5"/>
@@ -8331,10 +8367,10 @@
         <v>56</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="D27" s="4"/>
       <c r="E27" s="5"/>
@@ -8414,279 +8450,279 @@
         <v>88</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="B43" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="C43" s="4" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B43" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="C43" s="10" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="B44" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="C44" s="4" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B44" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="C44" s="10" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="B45" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="C45" s="4" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B45" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="C45" s="10" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="B46" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="C46" s="4" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B46" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="C46" s="10" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="B47" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="C47" s="4" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B47" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="C47" s="10" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="B48" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="C48" s="4" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B48" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="C48" s="10" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="B49" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="C49" s="4" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B49" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="C49" s="10" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="B50" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="C50" s="4" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="51" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B50" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="C50" s="10" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="B51" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="C51" s="4" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="52" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B51" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="C51" s="10" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="B52" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="C52" s="4" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="53" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B52" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="C52" s="10" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="B53" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="C53" s="4" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="54" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B53" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="C53" s="10" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="B54" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="C54" s="4" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="55" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B54" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="C54" s="10" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="B55" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="C55" s="4" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="56" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B55" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="C55" s="10" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="B56" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="C56" s="4" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="57" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B56" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="C56" s="10" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="B57" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="C57" s="4" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="58" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B57" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="C57" s="10" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="B58" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="C58" s="4" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="59" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B58" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="C58" s="10" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="B59" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="C59" s="4" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="60" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B59" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="C59" s="10" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="B60" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="C60" s="4" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="61" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B60" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="C60" s="10" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="B61" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="C61" s="4" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="62" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B61" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="C61" s="10" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="B62" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="C62" s="4" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="63" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B62" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="C62" s="10" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="B63" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="C63" s="4" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="64" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B63" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="C63" s="10" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="B64" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="C64" s="4" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="65" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B64" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="C64" s="10" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="B65" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="C65" s="4" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="66" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B65" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="C65" s="10" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="8" t="s">
         <v>138</v>
       </c>
-      <c r="B66" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="C66" s="4" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="67" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B66" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="C66" s="10" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="8" t="s">
         <v>140</v>
       </c>
-      <c r="B67" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="C67" s="4" t="s">
-        <v>211</v>
+      <c r="B67" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="C67" s="10" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8796,19 +8832,19 @@
   <dimension ref="A1:E65536"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="C81" activeCellId="0" sqref="C81"/>
+      <selection pane="bottomLeft" activeCell="B31" activeCellId="0" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="49.8178137651822"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="51.5303643724696"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="67.9838056680162"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="22.7368421052632"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="22.3967611336032"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="9.1417004048583"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="53.587044534413"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="55.417004048583"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="73.1255060728745"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="24.4534412955466"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="24.1093117408907"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="9.71255060728745"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8869,13 +8905,13 @@
         <v>14</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>212</v>
+        <v>221</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="E6" s="5" t="n">
         <v>95</v>
@@ -8886,13 +8922,13 @@
         <v>16</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>212</v>
+        <v>221</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="E7" s="5" t="n">
         <v>95</v>
@@ -8903,13 +8939,13 @@
         <v>18</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>212</v>
+        <v>221</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="E8" s="5" t="n">
         <v>95</v>
@@ -8920,13 +8956,13 @@
         <v>20</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>212</v>
+        <v>221</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="E9" s="5" t="n">
         <v>95</v>
@@ -8937,13 +8973,13 @@
         <v>22</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>212</v>
+        <v>221</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="E10" s="5" t="n">
         <v>95</v>
@@ -8954,13 +8990,13 @@
         <v>24</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>212</v>
+        <v>221</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="E11" s="5" t="n">
         <v>95</v>
@@ -8971,13 +9007,13 @@
         <v>26</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>212</v>
+        <v>221</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="E12" s="5"/>
     </row>
@@ -8986,13 +9022,13 @@
         <v>28</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>212</v>
+        <v>221</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="E13" s="5"/>
     </row>
@@ -9001,13 +9037,13 @@
         <v>30</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>212</v>
+        <v>221</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="E14" s="5" t="n">
         <v>95</v>
@@ -9018,13 +9054,13 @@
         <v>32</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>212</v>
+        <v>221</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="E15" s="5"/>
     </row>
@@ -9033,13 +9069,13 @@
         <v>34</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>212</v>
+        <v>221</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="E16" s="5"/>
     </row>
@@ -9048,13 +9084,13 @@
         <v>36</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>212</v>
+        <v>221</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="E17" s="5" t="n">
         <v>95</v>
@@ -9065,13 +9101,13 @@
         <v>38</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>212</v>
+        <v>221</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="E18" s="5" t="n">
         <v>95</v>
@@ -9082,13 +9118,13 @@
         <v>40</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>212</v>
+        <v>221</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="E19" s="5"/>
     </row>
@@ -9097,13 +9133,13 @@
         <v>42</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>212</v>
+        <v>221</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="E20" s="5" t="n">
         <v>95</v>
@@ -9114,13 +9150,13 @@
         <v>44</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>212</v>
+        <v>221</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="E21" s="5" t="n">
         <v>95</v>
@@ -9131,13 +9167,13 @@
         <v>46</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>212</v>
+        <v>221</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="E22" s="5" t="n">
         <v>95</v>
@@ -9148,13 +9184,13 @@
         <v>48</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>212</v>
+        <v>221</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="E23" s="5" t="n">
         <v>95</v>
@@ -9165,13 +9201,13 @@
         <v>50</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>212</v>
+        <v>221</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="E24" s="5" t="n">
         <v>95</v>
@@ -9182,13 +9218,13 @@
         <v>52</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>212</v>
+        <v>221</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="E25" s="5" t="n">
         <v>95</v>
@@ -9199,13 +9235,13 @@
         <v>54</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>212</v>
+        <v>221</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="E26" s="5" t="n">
         <v>95</v>
@@ -9216,13 +9252,13 @@
         <v>56</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>212</v>
+        <v>221</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="E27" s="5" t="n">
         <v>95</v>
@@ -9333,426 +9369,426 @@
       <c r="B42" s="9"/>
       <c r="E42" s="0"/>
     </row>
-    <row r="43" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="B43" s="4" t="s">
+      <c r="B43" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="C43" s="10" t="s">
         <v>212</v>
       </c>
-      <c r="C43" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="D43" s="4" t="s">
-        <v>207</v>
+      <c r="D43" s="10" t="s">
+        <v>209</v>
       </c>
       <c r="E43" s="5" t="n">
         <v>95</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="B44" s="4" t="s">
+      <c r="B44" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="C44" s="10" t="s">
         <v>212</v>
       </c>
-      <c r="C44" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="D44" s="4" t="s">
-        <v>207</v>
+      <c r="D44" s="10" t="s">
+        <v>209</v>
       </c>
       <c r="E44" s="5" t="n">
         <v>95</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="B45" s="4" t="s">
+      <c r="B45" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="C45" s="10" t="s">
         <v>212</v>
       </c>
-      <c r="C45" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="D45" s="4" t="s">
-        <v>208</v>
+      <c r="D45" s="10" t="s">
+        <v>210</v>
       </c>
       <c r="E45" s="5" t="n">
         <v>95</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="B46" s="4" t="s">
+      <c r="B46" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="C46" s="10" t="s">
         <v>212</v>
       </c>
-      <c r="C46" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="D46" s="4" t="s">
-        <v>208</v>
+      <c r="D46" s="10" t="s">
+        <v>210</v>
       </c>
       <c r="E46" s="5" t="n">
         <v>95</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="B47" s="4" t="s">
+      <c r="B47" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="C47" s="10" t="s">
         <v>212</v>
       </c>
-      <c r="C47" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="D47" s="4" t="s">
-        <v>207</v>
+      <c r="D47" s="10" t="s">
+        <v>209</v>
       </c>
       <c r="E47" s="5" t="n">
         <v>95</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="B48" s="4" t="s">
+      <c r="B48" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="C48" s="10" t="s">
         <v>212</v>
       </c>
-      <c r="C48" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="D48" s="4" t="s">
-        <v>207</v>
+      <c r="D48" s="10" t="s">
+        <v>209</v>
       </c>
       <c r="E48" s="5" t="n">
         <v>95</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="B49" s="4" t="s">
+      <c r="B49" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="C49" s="10" t="s">
         <v>212</v>
       </c>
-      <c r="C49" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="D49" s="4" t="s">
-        <v>208</v>
+      <c r="D49" s="10" t="s">
+        <v>210</v>
       </c>
       <c r="E49" s="5" t="n">
         <v>95</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="B50" s="4" t="s">
+      <c r="B50" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="C50" s="10" t="s">
         <v>212</v>
       </c>
-      <c r="C50" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="D50" s="4" t="s">
-        <v>208</v>
+      <c r="D50" s="10" t="s">
+        <v>210</v>
       </c>
       <c r="E50" s="5" t="n">
         <v>95</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="B51" s="4" t="s">
+      <c r="B51" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="C51" s="10" t="s">
         <v>212</v>
       </c>
-      <c r="C51" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="D51" s="4" t="s">
-        <v>207</v>
+      <c r="D51" s="10" t="s">
+        <v>209</v>
       </c>
       <c r="E51" s="5" t="n">
         <v>95</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="B52" s="4" t="s">
+      <c r="B52" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="C52" s="10" t="s">
         <v>212</v>
       </c>
-      <c r="C52" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="D52" s="4" t="s">
-        <v>207</v>
+      <c r="D52" s="10" t="s">
+        <v>209</v>
       </c>
       <c r="E52" s="5" t="n">
         <v>95</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="B53" s="4" t="s">
+      <c r="B53" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="C53" s="10" t="s">
         <v>212</v>
       </c>
-      <c r="C53" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="D53" s="4" t="s">
-        <v>208</v>
+      <c r="D53" s="10" t="s">
+        <v>210</v>
       </c>
       <c r="E53" s="5" t="n">
         <v>95</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="B54" s="4" t="s">
+      <c r="B54" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="C54" s="10" t="s">
         <v>212</v>
       </c>
-      <c r="C54" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="D54" s="4" t="s">
-        <v>208</v>
+      <c r="D54" s="10" t="s">
+        <v>210</v>
       </c>
       <c r="E54" s="5" t="n">
         <v>95</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="B55" s="4" t="s">
+      <c r="B55" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="C55" s="10" t="s">
         <v>212</v>
       </c>
-      <c r="C55" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="D55" s="4" t="s">
-        <v>205</v>
+      <c r="D55" s="10" t="s">
+        <v>213</v>
       </c>
       <c r="E55" s="5" t="n">
         <v>95</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="B56" s="4" t="s">
+      <c r="B56" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="C56" s="10" t="s">
         <v>212</v>
       </c>
-      <c r="C56" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="D56" s="4" t="s">
-        <v>202</v>
+      <c r="D56" s="10" t="s">
+        <v>204</v>
       </c>
       <c r="E56" s="5" t="n">
         <v>95</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="B57" s="4" t="s">
+      <c r="B57" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="C57" s="10" t="s">
         <v>212</v>
       </c>
-      <c r="C57" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="D57" s="4" t="s">
-        <v>202</v>
+      <c r="D57" s="10" t="s">
+        <v>204</v>
       </c>
       <c r="E57" s="5" t="n">
         <v>95</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="B58" s="4" t="s">
+      <c r="B58" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="C58" s="10" t="s">
         <v>212</v>
       </c>
-      <c r="C58" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="D58" s="4" t="s">
-        <v>203</v>
+      <c r="D58" s="10" t="s">
+        <v>214</v>
       </c>
       <c r="E58" s="5" t="n">
         <v>95</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="B59" s="4" t="s">
+      <c r="B59" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="C59" s="10" t="s">
         <v>212</v>
       </c>
-      <c r="C59" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="D59" s="4" t="s">
-        <v>205</v>
+      <c r="D59" s="10" t="s">
+        <v>213</v>
       </c>
       <c r="E59" s="5" t="n">
         <v>95</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="B60" s="4" t="s">
+      <c r="B60" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="C60" s="10" t="s">
         <v>212</v>
       </c>
-      <c r="C60" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="D60" s="4" t="s">
-        <v>205</v>
+      <c r="D60" s="10" t="s">
+        <v>215</v>
       </c>
       <c r="E60" s="5" t="n">
         <v>95</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="B61" s="4" t="s">
+      <c r="B61" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="C61" s="10" t="s">
         <v>212</v>
       </c>
-      <c r="C61" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="D61" s="4" t="s">
-        <v>204</v>
+      <c r="D61" s="10" t="s">
+        <v>206</v>
       </c>
       <c r="E61" s="5" t="n">
         <v>95</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="B62" s="4" t="s">
+      <c r="B62" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="C62" s="10" t="s">
         <v>212</v>
       </c>
-      <c r="C62" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="D62" s="4" t="s">
-        <v>206</v>
+      <c r="D62" s="10" t="s">
+        <v>208</v>
       </c>
       <c r="E62" s="5" t="n">
         <v>95</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="B63" s="4" t="s">
+      <c r="B63" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="C63" s="10" t="s">
         <v>212</v>
       </c>
-      <c r="C63" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="D63" s="4" t="s">
-        <v>206</v>
+      <c r="D63" s="10" t="s">
+        <v>208</v>
       </c>
       <c r="E63" s="5" t="n">
         <v>95</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="B64" s="4" t="s">
+      <c r="B64" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="C64" s="10" t="s">
         <v>212</v>
       </c>
-      <c r="C64" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="D64" s="4" t="s">
-        <v>206</v>
+      <c r="D64" s="10" t="s">
+        <v>208</v>
       </c>
       <c r="E64" s="5" t="n">
         <v>95</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="B65" s="4" t="s">
+      <c r="B65" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="C65" s="10" t="s">
         <v>212</v>
       </c>
-      <c r="C65" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="D65" s="4" t="s">
-        <v>203</v>
+      <c r="D65" s="10" t="s">
+        <v>216</v>
       </c>
       <c r="E65" s="5" t="n">
         <v>95</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="8" t="s">
         <v>138</v>
       </c>
-      <c r="B66" s="4" t="s">
+      <c r="B66" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="C66" s="10" t="s">
         <v>212</v>
       </c>
-      <c r="C66" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="D66" s="4" t="s">
-        <v>203</v>
+      <c r="D66" s="10" t="s">
+        <v>216</v>
       </c>
       <c r="E66" s="5" t="n">
         <v>95</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="8" t="s">
         <v>140</v>
       </c>
-      <c r="B67" s="4" t="s">
+      <c r="B67" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="C67" s="10" t="s">
         <v>212</v>
       </c>
-      <c r="C67" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="D67" s="4" t="s">
-        <v>203</v>
+      <c r="D67" s="10" t="s">
+        <v>216</v>
       </c>
       <c r="E67" s="5" t="n">
         <v>95</v>
@@ -9849,6 +9885,7 @@
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
+    <tabColor rgb="FF999999"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:E65536"/>
@@ -9856,17 +9893,17 @@
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="B39" activeCellId="0" sqref="B39"/>
+      <selection pane="bottomLeft" activeCell="B60" activeCellId="0" sqref="B60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="49.8178137651822"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="51.5303643724696"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="67.9838056680162"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="22.7368421052632"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="22.3967611336032"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="9.1417004048583"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="53.587044534413"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="55.417004048583"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="73.1255060728745"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="24.4534412955466"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="24.1093117408907"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="9.71255060728745"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9891,10 +9928,10 @@
         <v>6</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>213</v>
+        <v>223</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>214</v>
+        <v>224</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="5"/>
@@ -9904,10 +9941,10 @@
         <v>8</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>213</v>
+        <v>223</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>214</v>
+        <v>224</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="5"/>
@@ -9917,10 +9954,10 @@
         <v>10</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>213</v>
+        <v>223</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>214</v>
+        <v>224</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="5"/>
@@ -9930,10 +9967,10 @@
         <v>12</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>213</v>
+        <v>223</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>214</v>
+        <v>224</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="5"/>
@@ -9988,10 +10025,10 @@
         <v>24</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>215</v>
+        <v>225</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>216</v>
+        <v>226</v>
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="5"/>
@@ -10001,10 +10038,10 @@
         <v>26</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>215</v>
+        <v>225</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>216</v>
+        <v>226</v>
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="5"/>
@@ -10014,10 +10051,10 @@
         <v>28</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>215</v>
+        <v>225</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>216</v>
+        <v>226</v>
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="5"/>
@@ -10027,10 +10064,10 @@
         <v>30</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>215</v>
+        <v>225</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>216</v>
+        <v>226</v>
       </c>
       <c r="D14" s="4"/>
       <c r="E14" s="5"/>
@@ -10040,10 +10077,10 @@
         <v>32</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>215</v>
+        <v>225</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>216</v>
+        <v>226</v>
       </c>
       <c r="D15" s="4"/>
       <c r="E15" s="5"/>
@@ -10053,10 +10090,10 @@
         <v>34</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>215</v>
+        <v>225</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>216</v>
+        <v>226</v>
       </c>
       <c r="D16" s="4"/>
       <c r="E16" s="5"/>
@@ -10093,10 +10130,10 @@
         <v>42</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>217</v>
+        <v>227</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>218</v>
+        <v>228</v>
       </c>
       <c r="D20" s="4"/>
       <c r="E20" s="5"/>
@@ -10106,10 +10143,10 @@
         <v>44</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>217</v>
+        <v>227</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>218</v>
+        <v>228</v>
       </c>
       <c r="D21" s="4"/>
       <c r="E21" s="5"/>
@@ -10119,10 +10156,10 @@
         <v>46</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>217</v>
+        <v>227</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>218</v>
+        <v>228</v>
       </c>
       <c r="D22" s="4"/>
       <c r="E22" s="5"/>
@@ -10132,10 +10169,10 @@
         <v>48</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>217</v>
+        <v>227</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>218</v>
+        <v>228</v>
       </c>
       <c r="D23" s="4"/>
       <c r="E23" s="5"/>
@@ -10145,10 +10182,10 @@
         <v>50</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="D24" s="4"/>
       <c r="E24" s="5"/>
@@ -10158,10 +10195,10 @@
         <v>52</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="D25" s="4"/>
       <c r="E25" s="5"/>
@@ -10171,10 +10208,10 @@
         <v>54</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>221</v>
+        <v>231</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>222</v>
+        <v>232</v>
       </c>
       <c r="D26" s="4"/>
       <c r="E26" s="5"/>
@@ -10184,10 +10221,10 @@
         <v>56</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>221</v>
+        <v>231</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>222</v>
+        <v>232</v>
       </c>
       <c r="D27" s="4"/>
       <c r="E27" s="5"/>

--- a/Projects/CCRU_SAND/Data/KPI_Source.xlsx
+++ b/Projects/CCRU_SAND/Data/KPI_Source.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="6"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="POS" sheetId="1" state="visible" r:id="rId2"/>
@@ -17,8 +17,9 @@
     <sheet name="KPI_CONVERSION" sheetId="7" state="visible" r:id="rId8"/>
     <sheet name="CONTRACT" sheetId="8" state="visible" r:id="rId9"/>
     <sheet name="SPIRITS" sheetId="9" state="visible" r:id="rId10"/>
-    <sheet name="INTEGRATION" sheetId="10" state="visible" r:id="rId11"/>
-    <sheet name="MARKETING" sheetId="11" state="visible" r:id="rId12"/>
+    <sheet name="MARKETING" sheetId="10" state="visible" r:id="rId11"/>
+    <sheet name="INTEGRATION" sheetId="11" state="visible" r:id="rId12"/>
+    <sheet name="COOLER_AUDIT" sheetId="12" state="visible" r:id="rId13"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2096" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2409" uniqueCount="236">
   <si>
     <t xml:space="preserve">POS</t>
   </si>
@@ -732,6 +733,12 @@
   </si>
   <si>
     <t xml:space="preserve">CCH Integration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COOLER_AUDIT_TOTAL_SCORE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KPIs_2020/Cooler Quality 2020.xlsx</t>
   </si>
 </sst>
 </file>
@@ -847,7 +854,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -881,10 +888,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -972,20 +975,20 @@
   <dimension ref="A1:F78"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="bottomLeft" activeCell="C34" activeCellId="0" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="53.587044534413"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="55.417004048583"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="73.1255060728745"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="24.4534412955466"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="24.1093117408907"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="24.4534412955466"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="9.71255060728745"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="54.417004048583"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="56.3441295546559"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="74.3400809716599"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="24.8502024291498"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="24.5303643724696"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="24.8502024291498"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="9.85425101214575"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2456,19 +2459,19 @@
   <dimension ref="A1:E78"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="C67" activeCellId="0" sqref="C67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.85"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="53.587044534413"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="55.417004048583"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="73.1255060728745"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="24.4534412955466"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="24.1093117408907"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="9.71255060728745"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="54.417004048583"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="56.3441295546559"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="74.3400809716599"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="24.8502024291498"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="24.5303643724696"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="9.85425101214575"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2492,9 +2495,7 @@
       <c r="A2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>233</v>
-      </c>
+      <c r="B2" s="4"/>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
       <c r="E2" s="5"/>
@@ -2503,9 +2504,7 @@
       <c r="A3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>233</v>
-      </c>
+      <c r="B3" s="4"/>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
       <c r="E3" s="5"/>
@@ -2514,9 +2513,7 @@
       <c r="A4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>233</v>
-      </c>
+      <c r="B4" s="4"/>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
       <c r="E4" s="5"/>
@@ -2525,9 +2522,7 @@
       <c r="A5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>233</v>
-      </c>
+      <c r="B5" s="4"/>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
       <c r="E5" s="5"/>
@@ -2536,9 +2531,7 @@
       <c r="A6" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>233</v>
-      </c>
+      <c r="B6" s="4"/>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
       <c r="E6" s="5"/>
@@ -2547,9 +2540,7 @@
       <c r="A7" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>233</v>
-      </c>
+      <c r="B7" s="4"/>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
       <c r="E7" s="5"/>
@@ -2558,9 +2549,7 @@
       <c r="A8" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>233</v>
-      </c>
+      <c r="B8" s="4"/>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
       <c r="E8" s="5"/>
@@ -2569,9 +2558,7 @@
       <c r="A9" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>233</v>
-      </c>
+      <c r="B9" s="4"/>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
       <c r="E9" s="5"/>
@@ -2580,9 +2567,7 @@
       <c r="A10" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>233</v>
-      </c>
+      <c r="B10" s="4"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
       <c r="E10" s="5"/>
@@ -2591,9 +2576,7 @@
       <c r="A11" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>233</v>
-      </c>
+      <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
       <c r="E11" s="5"/>
@@ -2602,9 +2585,7 @@
       <c r="A12" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="4" t="s">
-        <v>233</v>
-      </c>
+      <c r="B12" s="4"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
       <c r="E12" s="5"/>
@@ -2613,9 +2594,7 @@
       <c r="A13" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B13" s="4" t="s">
-        <v>233</v>
-      </c>
+      <c r="B13" s="4"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
       <c r="E13" s="5"/>
@@ -2624,9 +2603,7 @@
       <c r="A14" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B14" s="4" t="s">
-        <v>233</v>
-      </c>
+      <c r="B14" s="4"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
       <c r="E14" s="5"/>
@@ -2635,9 +2612,7 @@
       <c r="A15" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B15" s="4" t="s">
-        <v>233</v>
-      </c>
+      <c r="B15" s="4"/>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
       <c r="E15" s="5"/>
@@ -2646,9 +2621,7 @@
       <c r="A16" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B16" s="4" t="s">
-        <v>233</v>
-      </c>
+      <c r="B16" s="4"/>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
       <c r="E16" s="5"/>
@@ -2657,9 +2630,7 @@
       <c r="A17" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B17" s="4" t="s">
-        <v>233</v>
-      </c>
+      <c r="B17" s="4"/>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
       <c r="E17" s="5"/>
@@ -2668,9 +2639,7 @@
       <c r="A18" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B18" s="4" t="s">
-        <v>233</v>
-      </c>
+      <c r="B18" s="4"/>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
       <c r="E18" s="5"/>
@@ -2679,9 +2648,7 @@
       <c r="A19" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B19" s="4" t="s">
-        <v>233</v>
-      </c>
+      <c r="B19" s="4"/>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
       <c r="E19" s="5"/>
@@ -2690,9 +2657,7 @@
       <c r="A20" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B20" s="4" t="s">
-        <v>233</v>
-      </c>
+      <c r="B20" s="4"/>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
       <c r="E20" s="5"/>
@@ -2701,9 +2666,7 @@
       <c r="A21" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B21" s="4" t="s">
-        <v>233</v>
-      </c>
+      <c r="B21" s="4"/>
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
       <c r="E21" s="5"/>
@@ -2712,9 +2675,7 @@
       <c r="A22" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="B22" s="4" t="s">
-        <v>233</v>
-      </c>
+      <c r="B22" s="4"/>
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
       <c r="E22" s="5"/>
@@ -2723,9 +2684,7 @@
       <c r="A23" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="B23" s="4" t="s">
-        <v>233</v>
-      </c>
+      <c r="B23" s="4"/>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
       <c r="E23" s="5"/>
@@ -2734,9 +2693,7 @@
       <c r="A24" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="B24" s="4" t="s">
-        <v>233</v>
-      </c>
+      <c r="B24" s="4"/>
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
       <c r="E24" s="5"/>
@@ -2745,9 +2702,7 @@
       <c r="A25" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="B25" s="4" t="s">
-        <v>233</v>
-      </c>
+      <c r="B25" s="4"/>
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
       <c r="E25" s="5"/>
@@ -2756,9 +2711,7 @@
       <c r="A26" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="B26" s="4" t="s">
-        <v>233</v>
-      </c>
+      <c r="B26" s="4"/>
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
       <c r="E26" s="5"/>
@@ -2767,9 +2720,7 @@
       <c r="A27" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="B27" s="4" t="s">
-        <v>233</v>
-      </c>
+      <c r="B27" s="4"/>
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
       <c r="E27" s="5"/>
@@ -3049,19 +3000,19 @@
   <dimension ref="A1:E78"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="C67" activeCellId="0" sqref="C67"/>
+      <selection pane="bottomLeft" activeCell="B24" activeCellId="0" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.85"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="53.587044534413"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="55.417004048583"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="73.1255060728745"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="24.4534412955466"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="24.1093117408907"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="9.71255060728745"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="54.417004048583"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="56.3441295546559"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="74.3400809716599"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="24.8502024291498"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="24.5303643724696"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="9.85425101214575"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3085,7 +3036,9 @@
       <c r="A2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="4"/>
+      <c r="B2" s="4" t="s">
+        <v>233</v>
+      </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
       <c r="E2" s="5"/>
@@ -3094,7 +3047,9 @@
       <c r="A3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="4"/>
+      <c r="B3" s="4" t="s">
+        <v>233</v>
+      </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
       <c r="E3" s="5"/>
@@ -3103,7 +3058,9 @@
       <c r="A4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="4"/>
+      <c r="B4" s="4" t="s">
+        <v>233</v>
+      </c>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
       <c r="E4" s="5"/>
@@ -3112,7 +3069,9 @@
       <c r="A5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="4"/>
+      <c r="B5" s="4" t="s">
+        <v>233</v>
+      </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
       <c r="E5" s="5"/>
@@ -3121,7 +3080,9 @@
       <c r="A6" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="4"/>
+      <c r="B6" s="4" t="s">
+        <v>233</v>
+      </c>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
       <c r="E6" s="5"/>
@@ -3130,7 +3091,9 @@
       <c r="A7" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="4"/>
+      <c r="B7" s="4" t="s">
+        <v>233</v>
+      </c>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
       <c r="E7" s="5"/>
@@ -3139,7 +3102,9 @@
       <c r="A8" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="4"/>
+      <c r="B8" s="4" t="s">
+        <v>233</v>
+      </c>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
       <c r="E8" s="5"/>
@@ -3148,7 +3113,9 @@
       <c r="A9" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="4"/>
+      <c r="B9" s="4" t="s">
+        <v>233</v>
+      </c>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
       <c r="E9" s="5"/>
@@ -3157,7 +3124,9 @@
       <c r="A10" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="4"/>
+      <c r="B10" s="4" t="s">
+        <v>233</v>
+      </c>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
       <c r="E10" s="5"/>
@@ -3166,7 +3135,9 @@
       <c r="A11" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="4"/>
+      <c r="B11" s="4" t="s">
+        <v>233</v>
+      </c>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
       <c r="E11" s="5"/>
@@ -3175,7 +3146,9 @@
       <c r="A12" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="4"/>
+      <c r="B12" s="4" t="s">
+        <v>233</v>
+      </c>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
       <c r="E12" s="5"/>
@@ -3184,7 +3157,9 @@
       <c r="A13" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B13" s="4"/>
+      <c r="B13" s="4" t="s">
+        <v>233</v>
+      </c>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
       <c r="E13" s="5"/>
@@ -3193,7 +3168,9 @@
       <c r="A14" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B14" s="4"/>
+      <c r="B14" s="4" t="s">
+        <v>233</v>
+      </c>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
       <c r="E14" s="5"/>
@@ -3202,7 +3179,9 @@
       <c r="A15" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B15" s="4"/>
+      <c r="B15" s="4" t="s">
+        <v>233</v>
+      </c>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
       <c r="E15" s="5"/>
@@ -3211,7 +3190,9 @@
       <c r="A16" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B16" s="4"/>
+      <c r="B16" s="4" t="s">
+        <v>233</v>
+      </c>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
       <c r="E16" s="5"/>
@@ -3220,7 +3201,9 @@
       <c r="A17" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B17" s="4"/>
+      <c r="B17" s="4" t="s">
+        <v>233</v>
+      </c>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
       <c r="E17" s="5"/>
@@ -3229,7 +3212,9 @@
       <c r="A18" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B18" s="4"/>
+      <c r="B18" s="4" t="s">
+        <v>233</v>
+      </c>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
       <c r="E18" s="5"/>
@@ -3238,7 +3223,9 @@
       <c r="A19" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B19" s="4"/>
+      <c r="B19" s="4" t="s">
+        <v>233</v>
+      </c>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
       <c r="E19" s="5"/>
@@ -3247,7 +3234,9 @@
       <c r="A20" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B20" s="4"/>
+      <c r="B20" s="4" t="s">
+        <v>233</v>
+      </c>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
       <c r="E20" s="5"/>
@@ -3256,7 +3245,9 @@
       <c r="A21" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B21" s="4"/>
+      <c r="B21" s="4" t="s">
+        <v>233</v>
+      </c>
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
       <c r="E21" s="5"/>
@@ -3265,7 +3256,9 @@
       <c r="A22" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="B22" s="4"/>
+      <c r="B22" s="4" t="s">
+        <v>233</v>
+      </c>
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
       <c r="E22" s="5"/>
@@ -3274,7 +3267,9 @@
       <c r="A23" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="B23" s="4"/>
+      <c r="B23" s="4" t="s">
+        <v>233</v>
+      </c>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
       <c r="E23" s="5"/>
@@ -3283,7 +3278,9 @@
       <c r="A24" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="B24" s="4"/>
+      <c r="B24" s="4" t="s">
+        <v>233</v>
+      </c>
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
       <c r="E24" s="5"/>
@@ -3292,7 +3289,9 @@
       <c r="A25" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="B25" s="4"/>
+      <c r="B25" s="4" t="s">
+        <v>233</v>
+      </c>
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
       <c r="E25" s="5"/>
@@ -3301,7 +3300,9 @@
       <c r="A26" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="B26" s="4"/>
+      <c r="B26" s="4" t="s">
+        <v>233</v>
+      </c>
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
       <c r="E26" s="5"/>
@@ -3310,7 +3311,9 @@
       <c r="A27" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="B27" s="4"/>
+      <c r="B27" s="4" t="s">
+        <v>233</v>
+      </c>
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
       <c r="E27" s="5"/>
@@ -3568,6 +3571,1136 @@
     <row r="78" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="8" t="s">
         <v>162</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <tabColor rgb="FFFFCC00"/>
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:E78"/>
+  <sheetViews>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="D69" activeCellId="0" sqref="D69"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="41.4534412955466"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.3603238866397"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="38.0283400809717"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="24.8502024291498"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="24.5303643724696"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="9.85425101214575"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="D20" s="0" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="D21" s="0" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="D22" s="0" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="D23" s="0" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="D24" s="0" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="D25" s="0" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="D26" s="0" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="D27" s="0" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="D28" s="0" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="D29" s="0" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="D30" s="0" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="D31" s="0" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="D32" s="0" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="C33" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="D33" s="0" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="D34" s="0" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="B35" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="C35" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="D35" s="0" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="C36" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="D36" s="0" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="B37" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="C37" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="D37" s="0" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="B38" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="C38" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="D38" s="0" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="B39" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="C39" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="D39" s="0" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="B40" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="C40" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="D40" s="0" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="B41" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="C41" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="D41" s="0" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="B42" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="C42" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="D42" s="0" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="B43" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="C43" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="D43" s="0" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="B44" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="C44" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="D44" s="0" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="B45" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="C45" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="D45" s="0" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="B46" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="C46" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="D46" s="0" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="B47" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="C47" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="D47" s="0" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="B48" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="C48" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="D48" s="0" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="B49" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="C49" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="D49" s="0" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="B50" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="C50" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="D50" s="0" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="B51" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="C51" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="D51" s="0" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="B52" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="C52" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="D52" s="0" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="B53" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="C53" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="D53" s="0" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="B54" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="C54" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="D54" s="0" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="B55" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="C55" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="D55" s="0" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="B56" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="C56" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="D56" s="0" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="B57" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="C57" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="D57" s="0" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="B58" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="C58" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="D58" s="0" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="B59" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="C59" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="D59" s="0" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="B60" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="C60" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="D60" s="0" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="B61" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="C61" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="D61" s="0" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="B62" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="C62" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="D62" s="0" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="B63" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="C63" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="D63" s="0" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="B64" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="C64" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="D64" s="0" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="B65" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="C65" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="D65" s="0" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="B66" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="C66" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="D66" s="0" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="B67" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="C67" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="D67" s="0" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="B68" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="C68" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="D68" s="0" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="B69" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="C69" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="D69" s="0" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="B70" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="C70" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="D70" s="0" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="B71" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="C71" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="D71" s="0" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="B72" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="C72" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="D72" s="0" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="B73" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="C73" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="D73" s="0" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="B74" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="C74" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="D74" s="0" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="B75" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="C75" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="D75" s="0" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="B76" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="C76" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="D76" s="0" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="B77" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="C77" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="D77" s="0" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="B78" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="C78" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="D78" s="0" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -3589,19 +4722,19 @@
   <dimension ref="A1:E78"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="C26" activeCellId="0" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.85"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="53.587044534413"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="55.417004048583"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="73.1255060728745"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="24.4534412955466"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="24.1093117408907"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="9.71255060728745"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="54.417004048583"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="56.3441295546559"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="74.3400809716599"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="24.8502024291498"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="24.5303643724696"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="9.85425101214575"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4292,12 +5425,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.85"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="53.587044534413"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="55.417004048583"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="73.1255060728745"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="24.4534412955466"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="24.1093117408907"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="9.71255060728745"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="54.417004048583"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="56.3441295546559"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="74.3400809716599"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="24.8502024291498"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="24.5303643724696"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="9.85425101214575"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5341,19 +6474,19 @@
   <dimension ref="A1:E78"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="bottomLeft" activeCell="B36" activeCellId="0" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.85"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="53.587044534413"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="55.417004048583"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="73.1255060728745"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="24.4534412955466"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="24.1093117408907"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="9.71255060728745"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="54.417004048583"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="56.3441295546559"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="74.3400809716599"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="24.8502024291498"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="24.5303643724696"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="9.85425101214575"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5699,10 +6832,10 @@
       <c r="A28" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="B28" s="10" t="s">
+      <c r="B28" s="9" t="s">
         <v>200</v>
       </c>
-      <c r="C28" s="10" t="s">
+      <c r="C28" s="9" t="s">
         <v>201</v>
       </c>
     </row>
@@ -5710,10 +6843,10 @@
       <c r="A29" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="B29" s="10" t="s">
+      <c r="B29" s="9" t="s">
         <v>200</v>
       </c>
-      <c r="C29" s="10" t="s">
+      <c r="C29" s="9" t="s">
         <v>201</v>
       </c>
     </row>
@@ -5721,10 +6854,10 @@
       <c r="A30" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="B30" s="10" t="s">
+      <c r="B30" s="9" t="s">
         <v>200</v>
       </c>
-      <c r="C30" s="10" t="s">
+      <c r="C30" s="9" t="s">
         <v>201</v>
       </c>
     </row>
@@ -5732,10 +6865,10 @@
       <c r="A31" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="B31" s="10" t="s">
+      <c r="B31" s="9" t="s">
         <v>200</v>
       </c>
-      <c r="C31" s="10" t="s">
+      <c r="C31" s="9" t="s">
         <v>201</v>
       </c>
     </row>
@@ -5743,10 +6876,10 @@
       <c r="A32" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="B32" s="10" t="s">
+      <c r="B32" s="9" t="s">
         <v>200</v>
       </c>
-      <c r="C32" s="10" t="s">
+      <c r="C32" s="9" t="s">
         <v>201</v>
       </c>
     </row>
@@ -5754,10 +6887,10 @@
       <c r="A33" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="B33" s="10" t="s">
+      <c r="B33" s="9" t="s">
         <v>200</v>
       </c>
-      <c r="C33" s="10" t="s">
+      <c r="C33" s="9" t="s">
         <v>201</v>
       </c>
     </row>
@@ -5765,10 +6898,10 @@
       <c r="A34" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="B34" s="10" t="s">
+      <c r="B34" s="9" t="s">
         <v>200</v>
       </c>
-      <c r="C34" s="10" t="s">
+      <c r="C34" s="9" t="s">
         <v>201</v>
       </c>
     </row>
@@ -5776,10 +6909,10 @@
       <c r="A35" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="B35" s="10" t="s">
+      <c r="B35" s="9" t="s">
         <v>200</v>
       </c>
-      <c r="C35" s="10" t="s">
+      <c r="C35" s="9" t="s">
         <v>201</v>
       </c>
     </row>
@@ -5787,10 +6920,10 @@
       <c r="A36" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="B36" s="10" t="s">
+      <c r="B36" s="9" t="s">
         <v>200</v>
       </c>
-      <c r="C36" s="10" t="s">
+      <c r="C36" s="9" t="s">
         <v>201</v>
       </c>
     </row>
@@ -5798,10 +6931,10 @@
       <c r="A37" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="B37" s="10" t="s">
+      <c r="B37" s="9" t="s">
         <v>200</v>
       </c>
-      <c r="C37" s="10" t="s">
+      <c r="C37" s="9" t="s">
         <v>201</v>
       </c>
     </row>
@@ -5809,10 +6942,10 @@
       <c r="A38" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="B38" s="10" t="s">
+      <c r="B38" s="9" t="s">
         <v>200</v>
       </c>
-      <c r="C38" s="10" t="s">
+      <c r="C38" s="9" t="s">
         <v>201</v>
       </c>
     </row>
@@ -5820,10 +6953,10 @@
       <c r="A39" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="B39" s="10" t="s">
+      <c r="B39" s="9" t="s">
         <v>200</v>
       </c>
-      <c r="C39" s="10" t="s">
+      <c r="C39" s="9" t="s">
         <v>201</v>
       </c>
     </row>
@@ -5831,10 +6964,10 @@
       <c r="A40" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="B40" s="10" t="s">
+      <c r="B40" s="9" t="s">
         <v>200</v>
       </c>
-      <c r="C40" s="10" t="s">
+      <c r="C40" s="9" t="s">
         <v>201</v>
       </c>
     </row>
@@ -5842,10 +6975,10 @@
       <c r="A41" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="B41" s="10" t="s">
+      <c r="B41" s="9" t="s">
         <v>200</v>
       </c>
-      <c r="C41" s="10" t="s">
+      <c r="C41" s="9" t="s">
         <v>201</v>
       </c>
     </row>
@@ -5853,10 +6986,10 @@
       <c r="A42" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="B42" s="10" t="s">
+      <c r="B42" s="9" t="s">
         <v>200</v>
       </c>
-      <c r="C42" s="10" t="s">
+      <c r="C42" s="9" t="s">
         <v>201</v>
       </c>
     </row>
@@ -5864,10 +6997,10 @@
       <c r="A43" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="B43" s="10" t="s">
+      <c r="B43" s="9" t="s">
         <v>200</v>
       </c>
-      <c r="C43" s="10" t="s">
+      <c r="C43" s="9" t="s">
         <v>201</v>
       </c>
     </row>
@@ -5875,10 +7008,10 @@
       <c r="A44" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="B44" s="10" t="s">
+      <c r="B44" s="9" t="s">
         <v>200</v>
       </c>
-      <c r="C44" s="10" t="s">
+      <c r="C44" s="9" t="s">
         <v>201</v>
       </c>
     </row>
@@ -5886,10 +7019,10 @@
       <c r="A45" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="B45" s="10" t="s">
+      <c r="B45" s="9" t="s">
         <v>200</v>
       </c>
-      <c r="C45" s="10" t="s">
+      <c r="C45" s="9" t="s">
         <v>201</v>
       </c>
     </row>
@@ -5897,10 +7030,10 @@
       <c r="A46" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="B46" s="10" t="s">
+      <c r="B46" s="9" t="s">
         <v>200</v>
       </c>
-      <c r="C46" s="10" t="s">
+      <c r="C46" s="9" t="s">
         <v>201</v>
       </c>
     </row>
@@ -5908,10 +7041,10 @@
       <c r="A47" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="B47" s="10" t="s">
+      <c r="B47" s="9" t="s">
         <v>200</v>
       </c>
-      <c r="C47" s="10" t="s">
+      <c r="C47" s="9" t="s">
         <v>201</v>
       </c>
     </row>
@@ -5919,10 +7052,10 @@
       <c r="A48" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="B48" s="10" t="s">
+      <c r="B48" s="9" t="s">
         <v>200</v>
       </c>
-      <c r="C48" s="10" t="s">
+      <c r="C48" s="9" t="s">
         <v>201</v>
       </c>
     </row>
@@ -5930,10 +7063,10 @@
       <c r="A49" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="B49" s="10" t="s">
+      <c r="B49" s="9" t="s">
         <v>200</v>
       </c>
-      <c r="C49" s="10" t="s">
+      <c r="C49" s="9" t="s">
         <v>201</v>
       </c>
     </row>
@@ -5941,10 +7074,10 @@
       <c r="A50" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="B50" s="10" t="s">
+      <c r="B50" s="9" t="s">
         <v>200</v>
       </c>
-      <c r="C50" s="10" t="s">
+      <c r="C50" s="9" t="s">
         <v>201</v>
       </c>
     </row>
@@ -5952,10 +7085,10 @@
       <c r="A51" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="B51" s="10" t="s">
+      <c r="B51" s="9" t="s">
         <v>200</v>
       </c>
-      <c r="C51" s="10" t="s">
+      <c r="C51" s="9" t="s">
         <v>201</v>
       </c>
     </row>
@@ -5963,10 +7096,10 @@
       <c r="A52" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="B52" s="10" t="s">
+      <c r="B52" s="9" t="s">
         <v>200</v>
       </c>
-      <c r="C52" s="10" t="s">
+      <c r="C52" s="9" t="s">
         <v>201</v>
       </c>
     </row>
@@ -5974,10 +7107,10 @@
       <c r="A53" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="B53" s="10" t="s">
+      <c r="B53" s="9" t="s">
         <v>200</v>
       </c>
-      <c r="C53" s="10" t="s">
+      <c r="C53" s="9" t="s">
         <v>201</v>
       </c>
     </row>
@@ -5985,10 +7118,10 @@
       <c r="A54" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="B54" s="10" t="s">
+      <c r="B54" s="9" t="s">
         <v>200</v>
       </c>
-      <c r="C54" s="10" t="s">
+      <c r="C54" s="9" t="s">
         <v>201</v>
       </c>
     </row>
@@ -5996,10 +7129,10 @@
       <c r="A55" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="B55" s="10" t="s">
+      <c r="B55" s="9" t="s">
         <v>200</v>
       </c>
-      <c r="C55" s="10" t="s">
+      <c r="C55" s="9" t="s">
         <v>201</v>
       </c>
     </row>
@@ -6007,10 +7140,10 @@
       <c r="A56" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="B56" s="10" t="s">
+      <c r="B56" s="9" t="s">
         <v>200</v>
       </c>
-      <c r="C56" s="10" t="s">
+      <c r="C56" s="9" t="s">
         <v>201</v>
       </c>
     </row>
@@ -6018,10 +7151,10 @@
       <c r="A57" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="B57" s="10" t="s">
+      <c r="B57" s="9" t="s">
         <v>200</v>
       </c>
-      <c r="C57" s="10" t="s">
+      <c r="C57" s="9" t="s">
         <v>201</v>
       </c>
     </row>
@@ -6029,10 +7162,10 @@
       <c r="A58" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="B58" s="10" t="s">
+      <c r="B58" s="9" t="s">
         <v>200</v>
       </c>
-      <c r="C58" s="10" t="s">
+      <c r="C58" s="9" t="s">
         <v>201</v>
       </c>
     </row>
@@ -6040,10 +7173,10 @@
       <c r="A59" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="B59" s="10" t="s">
+      <c r="B59" s="9" t="s">
         <v>200</v>
       </c>
-      <c r="C59" s="10" t="s">
+      <c r="C59" s="9" t="s">
         <v>201</v>
       </c>
     </row>
@@ -6051,10 +7184,10 @@
       <c r="A60" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="B60" s="10" t="s">
+      <c r="B60" s="9" t="s">
         <v>200</v>
       </c>
-      <c r="C60" s="10" t="s">
+      <c r="C60" s="9" t="s">
         <v>201</v>
       </c>
     </row>
@@ -6062,10 +7195,10 @@
       <c r="A61" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="B61" s="10" t="s">
+      <c r="B61" s="9" t="s">
         <v>200</v>
       </c>
-      <c r="C61" s="10" t="s">
+      <c r="C61" s="9" t="s">
         <v>201</v>
       </c>
     </row>
@@ -6073,10 +7206,10 @@
       <c r="A62" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="B62" s="10" t="s">
+      <c r="B62" s="9" t="s">
         <v>200</v>
       </c>
-      <c r="C62" s="10" t="s">
+      <c r="C62" s="9" t="s">
         <v>201</v>
       </c>
     </row>
@@ -6084,10 +7217,10 @@
       <c r="A63" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="B63" s="10" t="s">
+      <c r="B63" s="9" t="s">
         <v>200</v>
       </c>
-      <c r="C63" s="10" t="s">
+      <c r="C63" s="9" t="s">
         <v>201</v>
       </c>
     </row>
@@ -6095,10 +7228,10 @@
       <c r="A64" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="B64" s="10" t="s">
+      <c r="B64" s="9" t="s">
         <v>200</v>
       </c>
-      <c r="C64" s="10" t="s">
+      <c r="C64" s="9" t="s">
         <v>201</v>
       </c>
     </row>
@@ -6106,10 +7239,10 @@
       <c r="A65" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="B65" s="10" t="s">
+      <c r="B65" s="9" t="s">
         <v>200</v>
       </c>
-      <c r="C65" s="10" t="s">
+      <c r="C65" s="9" t="s">
         <v>201</v>
       </c>
     </row>
@@ -6117,10 +7250,10 @@
       <c r="A66" s="8" t="s">
         <v>138</v>
       </c>
-      <c r="B66" s="10" t="s">
+      <c r="B66" s="9" t="s">
         <v>200</v>
       </c>
-      <c r="C66" s="10" t="s">
+      <c r="C66" s="9" t="s">
         <v>201</v>
       </c>
     </row>
@@ -6128,10 +7261,10 @@
       <c r="A67" s="8" t="s">
         <v>140</v>
       </c>
-      <c r="B67" s="10" t="s">
+      <c r="B67" s="9" t="s">
         <v>200</v>
       </c>
-      <c r="C67" s="10" t="s">
+      <c r="C67" s="9" t="s">
         <v>201</v>
       </c>
     </row>
@@ -6139,10 +7272,10 @@
       <c r="A68" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="B68" s="10" t="s">
+      <c r="B68" s="9" t="s">
         <v>200</v>
       </c>
-      <c r="C68" s="10" t="s">
+      <c r="C68" s="9" t="s">
         <v>201</v>
       </c>
     </row>
@@ -6150,10 +7283,10 @@
       <c r="A69" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="B69" s="10" t="s">
+      <c r="B69" s="9" t="s">
         <v>200</v>
       </c>
-      <c r="C69" s="10" t="s">
+      <c r="C69" s="9" t="s">
         <v>201</v>
       </c>
     </row>
@@ -6161,10 +7294,10 @@
       <c r="A70" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="B70" s="10" t="s">
+      <c r="B70" s="9" t="s">
         <v>200</v>
       </c>
-      <c r="C70" s="10" t="s">
+      <c r="C70" s="9" t="s">
         <v>201</v>
       </c>
     </row>
@@ -6172,10 +7305,10 @@
       <c r="A71" s="8" t="s">
         <v>148</v>
       </c>
-      <c r="B71" s="10" t="s">
+      <c r="B71" s="9" t="s">
         <v>200</v>
       </c>
-      <c r="C71" s="10" t="s">
+      <c r="C71" s="9" t="s">
         <v>201</v>
       </c>
     </row>
@@ -6183,10 +7316,10 @@
       <c r="A72" s="8" t="s">
         <v>150</v>
       </c>
-      <c r="B72" s="10" t="s">
+      <c r="B72" s="9" t="s">
         <v>200</v>
       </c>
-      <c r="C72" s="10" t="s">
+      <c r="C72" s="9" t="s">
         <v>201</v>
       </c>
     </row>
@@ -6194,10 +7327,10 @@
       <c r="A73" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="B73" s="10" t="s">
+      <c r="B73" s="9" t="s">
         <v>200</v>
       </c>
-      <c r="C73" s="10" t="s">
+      <c r="C73" s="9" t="s">
         <v>201</v>
       </c>
     </row>
@@ -6205,10 +7338,10 @@
       <c r="A74" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="B74" s="10" t="s">
+      <c r="B74" s="9" t="s">
         <v>200</v>
       </c>
-      <c r="C74" s="10" t="s">
+      <c r="C74" s="9" t="s">
         <v>201</v>
       </c>
     </row>
@@ -6216,10 +7349,10 @@
       <c r="A75" s="8" t="s">
         <v>156</v>
       </c>
-      <c r="B75" s="10" t="s">
+      <c r="B75" s="9" t="s">
         <v>200</v>
       </c>
-      <c r="C75" s="10" t="s">
+      <c r="C75" s="9" t="s">
         <v>201</v>
       </c>
     </row>
@@ -6227,10 +7360,10 @@
       <c r="A76" s="8" t="s">
         <v>158</v>
       </c>
-      <c r="B76" s="10" t="s">
+      <c r="B76" s="9" t="s">
         <v>200</v>
       </c>
-      <c r="C76" s="10" t="s">
+      <c r="C76" s="9" t="s">
         <v>201</v>
       </c>
     </row>
@@ -6238,10 +7371,10 @@
       <c r="A77" s="8" t="s">
         <v>160</v>
       </c>
-      <c r="B77" s="10" t="s">
+      <c r="B77" s="9" t="s">
         <v>200</v>
       </c>
-      <c r="C77" s="10" t="s">
+      <c r="C77" s="9" t="s">
         <v>201</v>
       </c>
     </row>
@@ -6249,10 +7382,10 @@
       <c r="A78" s="8" t="s">
         <v>162</v>
       </c>
-      <c r="B78" s="10" t="s">
+      <c r="B78" s="9" t="s">
         <v>200</v>
       </c>
-      <c r="C78" s="10" t="s">
+      <c r="C78" s="9" t="s">
         <v>201</v>
       </c>
     </row>
@@ -6282,12 +7415,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="53.587044534413"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="55.417004048583"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="73.1255060728745"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="24.4534412955466"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="24.1093117408907"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="9.71255060728745"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="54.417004048583"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="56.3441295546559"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="74.3400809716599"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="24.8502024291498"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="24.5303643724696"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="9.85425101214575"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6767,13 +7900,13 @@
       <c r="A43" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="B43" s="10" t="s">
+      <c r="B43" s="9" t="s">
         <v>211</v>
       </c>
-      <c r="C43" s="10" t="s">
+      <c r="C43" s="9" t="s">
         <v>212</v>
       </c>
-      <c r="D43" s="10" t="s">
+      <c r="D43" s="9" t="s">
         <v>209</v>
       </c>
     </row>
@@ -6781,13 +7914,13 @@
       <c r="A44" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="B44" s="10" t="s">
+      <c r="B44" s="9" t="s">
         <v>211</v>
       </c>
-      <c r="C44" s="10" t="s">
+      <c r="C44" s="9" t="s">
         <v>212</v>
       </c>
-      <c r="D44" s="10" t="s">
+      <c r="D44" s="9" t="s">
         <v>209</v>
       </c>
     </row>
@@ -6795,13 +7928,13 @@
       <c r="A45" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="B45" s="10" t="s">
+      <c r="B45" s="9" t="s">
         <v>211</v>
       </c>
-      <c r="C45" s="10" t="s">
+      <c r="C45" s="9" t="s">
         <v>212</v>
       </c>
-      <c r="D45" s="10" t="s">
+      <c r="D45" s="9" t="s">
         <v>210</v>
       </c>
     </row>
@@ -6809,13 +7942,13 @@
       <c r="A46" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="B46" s="10" t="s">
+      <c r="B46" s="9" t="s">
         <v>211</v>
       </c>
-      <c r="C46" s="10" t="s">
+      <c r="C46" s="9" t="s">
         <v>212</v>
       </c>
-      <c r="D46" s="10" t="s">
+      <c r="D46" s="9" t="s">
         <v>210</v>
       </c>
     </row>
@@ -6823,13 +7956,13 @@
       <c r="A47" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="B47" s="10" t="s">
+      <c r="B47" s="9" t="s">
         <v>211</v>
       </c>
-      <c r="C47" s="10" t="s">
+      <c r="C47" s="9" t="s">
         <v>212</v>
       </c>
-      <c r="D47" s="10" t="s">
+      <c r="D47" s="9" t="s">
         <v>209</v>
       </c>
     </row>
@@ -6837,13 +7970,13 @@
       <c r="A48" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="B48" s="10" t="s">
+      <c r="B48" s="9" t="s">
         <v>211</v>
       </c>
-      <c r="C48" s="10" t="s">
+      <c r="C48" s="9" t="s">
         <v>212</v>
       </c>
-      <c r="D48" s="10" t="s">
+      <c r="D48" s="9" t="s">
         <v>209</v>
       </c>
     </row>
@@ -6851,13 +7984,13 @@
       <c r="A49" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="B49" s="10" t="s">
+      <c r="B49" s="9" t="s">
         <v>211</v>
       </c>
-      <c r="C49" s="10" t="s">
+      <c r="C49" s="9" t="s">
         <v>212</v>
       </c>
-      <c r="D49" s="10" t="s">
+      <c r="D49" s="9" t="s">
         <v>210</v>
       </c>
     </row>
@@ -6865,13 +7998,13 @@
       <c r="A50" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="B50" s="10" t="s">
+      <c r="B50" s="9" t="s">
         <v>211</v>
       </c>
-      <c r="C50" s="10" t="s">
+      <c r="C50" s="9" t="s">
         <v>212</v>
       </c>
-      <c r="D50" s="10" t="s">
+      <c r="D50" s="9" t="s">
         <v>210</v>
       </c>
     </row>
@@ -6879,13 +8012,13 @@
       <c r="A51" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="B51" s="10" t="s">
+      <c r="B51" s="9" t="s">
         <v>211</v>
       </c>
-      <c r="C51" s="10" t="s">
+      <c r="C51" s="9" t="s">
         <v>212</v>
       </c>
-      <c r="D51" s="10" t="s">
+      <c r="D51" s="9" t="s">
         <v>209</v>
       </c>
     </row>
@@ -6893,13 +8026,13 @@
       <c r="A52" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="B52" s="10" t="s">
+      <c r="B52" s="9" t="s">
         <v>211</v>
       </c>
-      <c r="C52" s="10" t="s">
+      <c r="C52" s="9" t="s">
         <v>212</v>
       </c>
-      <c r="D52" s="10" t="s">
+      <c r="D52" s="9" t="s">
         <v>209</v>
       </c>
     </row>
@@ -6907,13 +8040,13 @@
       <c r="A53" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="B53" s="10" t="s">
+      <c r="B53" s="9" t="s">
         <v>211</v>
       </c>
-      <c r="C53" s="10" t="s">
+      <c r="C53" s="9" t="s">
         <v>212</v>
       </c>
-      <c r="D53" s="10" t="s">
+      <c r="D53" s="9" t="s">
         <v>210</v>
       </c>
     </row>
@@ -6921,13 +8054,13 @@
       <c r="A54" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="B54" s="10" t="s">
+      <c r="B54" s="9" t="s">
         <v>211</v>
       </c>
-      <c r="C54" s="10" t="s">
+      <c r="C54" s="9" t="s">
         <v>212</v>
       </c>
-      <c r="D54" s="10" t="s">
+      <c r="D54" s="9" t="s">
         <v>210</v>
       </c>
     </row>
@@ -6935,13 +8068,13 @@
       <c r="A55" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="B55" s="10" t="s">
+      <c r="B55" s="9" t="s">
         <v>211</v>
       </c>
-      <c r="C55" s="10" t="s">
+      <c r="C55" s="9" t="s">
         <v>212</v>
       </c>
-      <c r="D55" s="10" t="s">
+      <c r="D55" s="9" t="s">
         <v>213</v>
       </c>
     </row>
@@ -6949,13 +8082,13 @@
       <c r="A56" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="B56" s="10" t="s">
+      <c r="B56" s="9" t="s">
         <v>211</v>
       </c>
-      <c r="C56" s="10" t="s">
+      <c r="C56" s="9" t="s">
         <v>212</v>
       </c>
-      <c r="D56" s="10" t="s">
+      <c r="D56" s="9" t="s">
         <v>204</v>
       </c>
     </row>
@@ -6963,13 +8096,13 @@
       <c r="A57" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="B57" s="10" t="s">
+      <c r="B57" s="9" t="s">
         <v>211</v>
       </c>
-      <c r="C57" s="10" t="s">
+      <c r="C57" s="9" t="s">
         <v>212</v>
       </c>
-      <c r="D57" s="10" t="s">
+      <c r="D57" s="9" t="s">
         <v>204</v>
       </c>
     </row>
@@ -6977,13 +8110,13 @@
       <c r="A58" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="B58" s="10" t="s">
+      <c r="B58" s="9" t="s">
         <v>211</v>
       </c>
-      <c r="C58" s="10" t="s">
+      <c r="C58" s="9" t="s">
         <v>212</v>
       </c>
-      <c r="D58" s="10" t="s">
+      <c r="D58" s="9" t="s">
         <v>214</v>
       </c>
     </row>
@@ -6991,13 +8124,13 @@
       <c r="A59" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="B59" s="10" t="s">
+      <c r="B59" s="9" t="s">
         <v>211</v>
       </c>
-      <c r="C59" s="10" t="s">
+      <c r="C59" s="9" t="s">
         <v>212</v>
       </c>
-      <c r="D59" s="10" t="s">
+      <c r="D59" s="9" t="s">
         <v>213</v>
       </c>
     </row>
@@ -7005,13 +8138,13 @@
       <c r="A60" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="B60" s="10" t="s">
+      <c r="B60" s="9" t="s">
         <v>211</v>
       </c>
-      <c r="C60" s="10" t="s">
+      <c r="C60" s="9" t="s">
         <v>212</v>
       </c>
-      <c r="D60" s="10" t="s">
+      <c r="D60" s="9" t="s">
         <v>215</v>
       </c>
     </row>
@@ -7019,13 +8152,13 @@
       <c r="A61" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="B61" s="10" t="s">
+      <c r="B61" s="9" t="s">
         <v>211</v>
       </c>
-      <c r="C61" s="10" t="s">
+      <c r="C61" s="9" t="s">
         <v>212</v>
       </c>
-      <c r="D61" s="10" t="s">
+      <c r="D61" s="9" t="s">
         <v>206</v>
       </c>
     </row>
@@ -7033,13 +8166,13 @@
       <c r="A62" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="B62" s="10" t="s">
+      <c r="B62" s="9" t="s">
         <v>211</v>
       </c>
-      <c r="C62" s="10" t="s">
+      <c r="C62" s="9" t="s">
         <v>212</v>
       </c>
-      <c r="D62" s="10" t="s">
+      <c r="D62" s="9" t="s">
         <v>208</v>
       </c>
     </row>
@@ -7047,13 +8180,13 @@
       <c r="A63" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="B63" s="10" t="s">
+      <c r="B63" s="9" t="s">
         <v>211</v>
       </c>
-      <c r="C63" s="10" t="s">
+      <c r="C63" s="9" t="s">
         <v>212</v>
       </c>
-      <c r="D63" s="10" t="s">
+      <c r="D63" s="9" t="s">
         <v>208</v>
       </c>
     </row>
@@ -7061,13 +8194,13 @@
       <c r="A64" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="B64" s="10" t="s">
+      <c r="B64" s="9" t="s">
         <v>211</v>
       </c>
-      <c r="C64" s="10" t="s">
+      <c r="C64" s="9" t="s">
         <v>212</v>
       </c>
-      <c r="D64" s="10" t="s">
+      <c r="D64" s="9" t="s">
         <v>208</v>
       </c>
     </row>
@@ -7075,13 +8208,13 @@
       <c r="A65" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="B65" s="10" t="s">
+      <c r="B65" s="9" t="s">
         <v>211</v>
       </c>
-      <c r="C65" s="10" t="s">
+      <c r="C65" s="9" t="s">
         <v>212</v>
       </c>
-      <c r="D65" s="10" t="s">
+      <c r="D65" s="9" t="s">
         <v>216</v>
       </c>
     </row>
@@ -7089,13 +8222,13 @@
       <c r="A66" s="8" t="s">
         <v>138</v>
       </c>
-      <c r="B66" s="10" t="s">
+      <c r="B66" s="9" t="s">
         <v>211</v>
       </c>
-      <c r="C66" s="10" t="s">
+      <c r="C66" s="9" t="s">
         <v>212</v>
       </c>
-      <c r="D66" s="10" t="s">
+      <c r="D66" s="9" t="s">
         <v>216</v>
       </c>
     </row>
@@ -7103,13 +8236,13 @@
       <c r="A67" s="8" t="s">
         <v>140</v>
       </c>
-      <c r="B67" s="10" t="s">
+      <c r="B67" s="9" t="s">
         <v>211</v>
       </c>
-      <c r="C67" s="10" t="s">
+      <c r="C67" s="9" t="s">
         <v>212</v>
       </c>
-      <c r="D67" s="10" t="s">
+      <c r="D67" s="9" t="s">
         <v>216</v>
       </c>
     </row>
@@ -7209,19 +8342,19 @@
   <dimension ref="A1:E78"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="B42" activeCellId="0" sqref="B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.85"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="53.587044534413"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="55.417004048583"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="73.1255060728745"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="24.4534412955466"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="24.1093117408907"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="9.71255060728745"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="54.417004048583"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="56.3441295546559"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="74.3400809716599"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="24.8502024291498"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="24.5303643724696"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="9.85425101214575"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8020,20 +9153,20 @@
   </sheetPr>
   <dimension ref="A1:E65536"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="bottomLeft" activeCell="B43" activeCellId="0" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="53.587044534413"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="55.417004048583"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="73.1255060728745"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="24.4534412955466"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="24.1093117408907"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="9.71255060728745"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="54.417004048583"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="56.3441295546559"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="74.3400809716599"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="24.8502024291498"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="24.5303643724696"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="9.85425101214575"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8454,10 +9587,10 @@
       <c r="A43" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="B43" s="10" t="s">
+      <c r="B43" s="9" t="s">
         <v>218</v>
       </c>
-      <c r="C43" s="10" t="s">
+      <c r="C43" s="9" t="s">
         <v>220</v>
       </c>
     </row>
@@ -8465,10 +9598,10 @@
       <c r="A44" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="B44" s="10" t="s">
+      <c r="B44" s="9" t="s">
         <v>218</v>
       </c>
-      <c r="C44" s="10" t="s">
+      <c r="C44" s="9" t="s">
         <v>220</v>
       </c>
     </row>
@@ -8476,10 +9609,10 @@
       <c r="A45" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="B45" s="10" t="s">
+      <c r="B45" s="9" t="s">
         <v>218</v>
       </c>
-      <c r="C45" s="10" t="s">
+      <c r="C45" s="9" t="s">
         <v>220</v>
       </c>
     </row>
@@ -8487,10 +9620,10 @@
       <c r="A46" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="B46" s="10" t="s">
+      <c r="B46" s="9" t="s">
         <v>218</v>
       </c>
-      <c r="C46" s="10" t="s">
+      <c r="C46" s="9" t="s">
         <v>220</v>
       </c>
     </row>
@@ -8498,10 +9631,10 @@
       <c r="A47" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="B47" s="10" t="s">
+      <c r="B47" s="9" t="s">
         <v>218</v>
       </c>
-      <c r="C47" s="10" t="s">
+      <c r="C47" s="9" t="s">
         <v>220</v>
       </c>
     </row>
@@ -8509,10 +9642,10 @@
       <c r="A48" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="B48" s="10" t="s">
+      <c r="B48" s="9" t="s">
         <v>218</v>
       </c>
-      <c r="C48" s="10" t="s">
+      <c r="C48" s="9" t="s">
         <v>220</v>
       </c>
     </row>
@@ -8520,10 +9653,10 @@
       <c r="A49" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="B49" s="10" t="s">
+      <c r="B49" s="9" t="s">
         <v>218</v>
       </c>
-      <c r="C49" s="10" t="s">
+      <c r="C49" s="9" t="s">
         <v>220</v>
       </c>
     </row>
@@ -8531,10 +9664,10 @@
       <c r="A50" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="B50" s="10" t="s">
+      <c r="B50" s="9" t="s">
         <v>218</v>
       </c>
-      <c r="C50" s="10" t="s">
+      <c r="C50" s="9" t="s">
         <v>220</v>
       </c>
     </row>
@@ -8542,10 +9675,10 @@
       <c r="A51" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="B51" s="10" t="s">
+      <c r="B51" s="9" t="s">
         <v>218</v>
       </c>
-      <c r="C51" s="10" t="s">
+      <c r="C51" s="9" t="s">
         <v>220</v>
       </c>
     </row>
@@ -8553,10 +9686,10 @@
       <c r="A52" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="B52" s="10" t="s">
+      <c r="B52" s="9" t="s">
         <v>218</v>
       </c>
-      <c r="C52" s="10" t="s">
+      <c r="C52" s="9" t="s">
         <v>220</v>
       </c>
     </row>
@@ -8564,10 +9697,10 @@
       <c r="A53" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="B53" s="10" t="s">
+      <c r="B53" s="9" t="s">
         <v>218</v>
       </c>
-      <c r="C53" s="10" t="s">
+      <c r="C53" s="9" t="s">
         <v>220</v>
       </c>
     </row>
@@ -8575,10 +9708,10 @@
       <c r="A54" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="B54" s="10" t="s">
+      <c r="B54" s="9" t="s">
         <v>218</v>
       </c>
-      <c r="C54" s="10" t="s">
+      <c r="C54" s="9" t="s">
         <v>220</v>
       </c>
     </row>
@@ -8586,10 +9719,10 @@
       <c r="A55" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="B55" s="10" t="s">
+      <c r="B55" s="9" t="s">
         <v>218</v>
       </c>
-      <c r="C55" s="10" t="s">
+      <c r="C55" s="9" t="s">
         <v>220</v>
       </c>
     </row>
@@ -8597,10 +9730,10 @@
       <c r="A56" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="B56" s="10" t="s">
+      <c r="B56" s="9" t="s">
         <v>218</v>
       </c>
-      <c r="C56" s="10" t="s">
+      <c r="C56" s="9" t="s">
         <v>220</v>
       </c>
     </row>
@@ -8608,10 +9741,10 @@
       <c r="A57" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="B57" s="10" t="s">
+      <c r="B57" s="9" t="s">
         <v>218</v>
       </c>
-      <c r="C57" s="10" t="s">
+      <c r="C57" s="9" t="s">
         <v>220</v>
       </c>
     </row>
@@ -8619,10 +9752,10 @@
       <c r="A58" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="B58" s="10" t="s">
+      <c r="B58" s="9" t="s">
         <v>218</v>
       </c>
-      <c r="C58" s="10" t="s">
+      <c r="C58" s="9" t="s">
         <v>220</v>
       </c>
     </row>
@@ -8630,10 +9763,10 @@
       <c r="A59" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="B59" s="10" t="s">
+      <c r="B59" s="9" t="s">
         <v>218</v>
       </c>
-      <c r="C59" s="10" t="s">
+      <c r="C59" s="9" t="s">
         <v>220</v>
       </c>
     </row>
@@ -8641,10 +9774,10 @@
       <c r="A60" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="B60" s="10" t="s">
+      <c r="B60" s="9" t="s">
         <v>218</v>
       </c>
-      <c r="C60" s="10" t="s">
+      <c r="C60" s="9" t="s">
         <v>220</v>
       </c>
     </row>
@@ -8652,10 +9785,10 @@
       <c r="A61" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="B61" s="10" t="s">
+      <c r="B61" s="9" t="s">
         <v>218</v>
       </c>
-      <c r="C61" s="10" t="s">
+      <c r="C61" s="9" t="s">
         <v>220</v>
       </c>
     </row>
@@ -8663,10 +9796,10 @@
       <c r="A62" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="B62" s="10" t="s">
+      <c r="B62" s="9" t="s">
         <v>218</v>
       </c>
-      <c r="C62" s="10" t="s">
+      <c r="C62" s="9" t="s">
         <v>220</v>
       </c>
     </row>
@@ -8674,10 +9807,10 @@
       <c r="A63" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="B63" s="10" t="s">
+      <c r="B63" s="9" t="s">
         <v>218</v>
       </c>
-      <c r="C63" s="10" t="s">
+      <c r="C63" s="9" t="s">
         <v>220</v>
       </c>
     </row>
@@ -8685,10 +9818,10 @@
       <c r="A64" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="B64" s="10" t="s">
+      <c r="B64" s="9" t="s">
         <v>218</v>
       </c>
-      <c r="C64" s="10" t="s">
+      <c r="C64" s="9" t="s">
         <v>220</v>
       </c>
     </row>
@@ -8696,10 +9829,10 @@
       <c r="A65" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="B65" s="10" t="s">
+      <c r="B65" s="9" t="s">
         <v>218</v>
       </c>
-      <c r="C65" s="10" t="s">
+      <c r="C65" s="9" t="s">
         <v>220</v>
       </c>
     </row>
@@ -8707,10 +9840,10 @@
       <c r="A66" s="8" t="s">
         <v>138</v>
       </c>
-      <c r="B66" s="10" t="s">
+      <c r="B66" s="9" t="s">
         <v>218</v>
       </c>
-      <c r="C66" s="10" t="s">
+      <c r="C66" s="9" t="s">
         <v>220</v>
       </c>
     </row>
@@ -8718,10 +9851,10 @@
       <c r="A67" s="8" t="s">
         <v>140</v>
       </c>
-      <c r="B67" s="10" t="s">
+      <c r="B67" s="9" t="s">
         <v>218</v>
       </c>
-      <c r="C67" s="10" t="s">
+      <c r="C67" s="9" t="s">
         <v>220</v>
       </c>
     </row>
@@ -8832,19 +9965,19 @@
   <dimension ref="A1:E65536"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="B31" activeCellId="0" sqref="B31"/>
+      <selection pane="bottomLeft" activeCell="C52" activeCellId="0" sqref="C52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="53.587044534413"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="55.417004048583"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="73.1255060728745"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="24.4534412955466"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="24.1093117408907"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="9.71255060728745"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="54.417004048583"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="56.3441295546559"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="74.3400809716599"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="24.8502024291498"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="24.5303643724696"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="9.85425101214575"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9373,13 +10506,13 @@
       <c r="A43" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="B43" s="10" t="s">
+      <c r="B43" s="9" t="s">
         <v>222</v>
       </c>
-      <c r="C43" s="10" t="s">
+      <c r="C43" s="9" t="s">
         <v>212</v>
       </c>
-      <c r="D43" s="10" t="s">
+      <c r="D43" s="9" t="s">
         <v>209</v>
       </c>
       <c r="E43" s="5" t="n">
@@ -9390,13 +10523,13 @@
       <c r="A44" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="B44" s="10" t="s">
+      <c r="B44" s="9" t="s">
         <v>222</v>
       </c>
-      <c r="C44" s="10" t="s">
+      <c r="C44" s="9" t="s">
         <v>212</v>
       </c>
-      <c r="D44" s="10" t="s">
+      <c r="D44" s="9" t="s">
         <v>209</v>
       </c>
       <c r="E44" s="5" t="n">
@@ -9407,13 +10540,13 @@
       <c r="A45" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="B45" s="10" t="s">
+      <c r="B45" s="9" t="s">
         <v>222</v>
       </c>
-      <c r="C45" s="10" t="s">
+      <c r="C45" s="9" t="s">
         <v>212</v>
       </c>
-      <c r="D45" s="10" t="s">
+      <c r="D45" s="9" t="s">
         <v>210</v>
       </c>
       <c r="E45" s="5" t="n">
@@ -9424,13 +10557,13 @@
       <c r="A46" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="B46" s="10" t="s">
+      <c r="B46" s="9" t="s">
         <v>222</v>
       </c>
-      <c r="C46" s="10" t="s">
+      <c r="C46" s="9" t="s">
         <v>212</v>
       </c>
-      <c r="D46" s="10" t="s">
+      <c r="D46" s="9" t="s">
         <v>210</v>
       </c>
       <c r="E46" s="5" t="n">
@@ -9441,13 +10574,13 @@
       <c r="A47" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="B47" s="10" t="s">
+      <c r="B47" s="9" t="s">
         <v>222</v>
       </c>
-      <c r="C47" s="10" t="s">
+      <c r="C47" s="9" t="s">
         <v>212</v>
       </c>
-      <c r="D47" s="10" t="s">
+      <c r="D47" s="9" t="s">
         <v>209</v>
       </c>
       <c r="E47" s="5" t="n">
@@ -9458,13 +10591,13 @@
       <c r="A48" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="B48" s="10" t="s">
+      <c r="B48" s="9" t="s">
         <v>222</v>
       </c>
-      <c r="C48" s="10" t="s">
+      <c r="C48" s="9" t="s">
         <v>212</v>
       </c>
-      <c r="D48" s="10" t="s">
+      <c r="D48" s="9" t="s">
         <v>209</v>
       </c>
       <c r="E48" s="5" t="n">
@@ -9475,13 +10608,13 @@
       <c r="A49" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="B49" s="10" t="s">
+      <c r="B49" s="9" t="s">
         <v>222</v>
       </c>
-      <c r="C49" s="10" t="s">
+      <c r="C49" s="9" t="s">
         <v>212</v>
       </c>
-      <c r="D49" s="10" t="s">
+      <c r="D49" s="9" t="s">
         <v>210</v>
       </c>
       <c r="E49" s="5" t="n">
@@ -9492,13 +10625,13 @@
       <c r="A50" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="B50" s="10" t="s">
+      <c r="B50" s="9" t="s">
         <v>222</v>
       </c>
-      <c r="C50" s="10" t="s">
+      <c r="C50" s="9" t="s">
         <v>212</v>
       </c>
-      <c r="D50" s="10" t="s">
+      <c r="D50" s="9" t="s">
         <v>210</v>
       </c>
       <c r="E50" s="5" t="n">
@@ -9509,13 +10642,13 @@
       <c r="A51" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="B51" s="10" t="s">
+      <c r="B51" s="9" t="s">
         <v>222</v>
       </c>
-      <c r="C51" s="10" t="s">
+      <c r="C51" s="9" t="s">
         <v>212</v>
       </c>
-      <c r="D51" s="10" t="s">
+      <c r="D51" s="9" t="s">
         <v>209</v>
       </c>
       <c r="E51" s="5" t="n">
@@ -9526,13 +10659,13 @@
       <c r="A52" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="B52" s="10" t="s">
+      <c r="B52" s="9" t="s">
         <v>222</v>
       </c>
-      <c r="C52" s="10" t="s">
+      <c r="C52" s="9" t="s">
         <v>212</v>
       </c>
-      <c r="D52" s="10" t="s">
+      <c r="D52" s="9" t="s">
         <v>209</v>
       </c>
       <c r="E52" s="5" t="n">
@@ -9543,13 +10676,13 @@
       <c r="A53" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="B53" s="10" t="s">
+      <c r="B53" s="9" t="s">
         <v>222</v>
       </c>
-      <c r="C53" s="10" t="s">
+      <c r="C53" s="9" t="s">
         <v>212</v>
       </c>
-      <c r="D53" s="10" t="s">
+      <c r="D53" s="9" t="s">
         <v>210</v>
       </c>
       <c r="E53" s="5" t="n">
@@ -9560,13 +10693,13 @@
       <c r="A54" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="B54" s="10" t="s">
+      <c r="B54" s="9" t="s">
         <v>222</v>
       </c>
-      <c r="C54" s="10" t="s">
+      <c r="C54" s="9" t="s">
         <v>212</v>
       </c>
-      <c r="D54" s="10" t="s">
+      <c r="D54" s="9" t="s">
         <v>210</v>
       </c>
       <c r="E54" s="5" t="n">
@@ -9577,13 +10710,13 @@
       <c r="A55" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="B55" s="10" t="s">
+      <c r="B55" s="9" t="s">
         <v>222</v>
       </c>
-      <c r="C55" s="10" t="s">
+      <c r="C55" s="9" t="s">
         <v>212</v>
       </c>
-      <c r="D55" s="10" t="s">
+      <c r="D55" s="9" t="s">
         <v>213</v>
       </c>
       <c r="E55" s="5" t="n">
@@ -9594,13 +10727,13 @@
       <c r="A56" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="B56" s="10" t="s">
+      <c r="B56" s="9" t="s">
         <v>222</v>
       </c>
-      <c r="C56" s="10" t="s">
+      <c r="C56" s="9" t="s">
         <v>212</v>
       </c>
-      <c r="D56" s="10" t="s">
+      <c r="D56" s="9" t="s">
         <v>204</v>
       </c>
       <c r="E56" s="5" t="n">
@@ -9611,13 +10744,13 @@
       <c r="A57" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="B57" s="10" t="s">
+      <c r="B57" s="9" t="s">
         <v>222</v>
       </c>
-      <c r="C57" s="10" t="s">
+      <c r="C57" s="9" t="s">
         <v>212</v>
       </c>
-      <c r="D57" s="10" t="s">
+      <c r="D57" s="9" t="s">
         <v>204</v>
       </c>
       <c r="E57" s="5" t="n">
@@ -9628,13 +10761,13 @@
       <c r="A58" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="B58" s="10" t="s">
+      <c r="B58" s="9" t="s">
         <v>222</v>
       </c>
-      <c r="C58" s="10" t="s">
+      <c r="C58" s="9" t="s">
         <v>212</v>
       </c>
-      <c r="D58" s="10" t="s">
+      <c r="D58" s="9" t="s">
         <v>214</v>
       </c>
       <c r="E58" s="5" t="n">
@@ -9645,13 +10778,13 @@
       <c r="A59" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="B59" s="10" t="s">
+      <c r="B59" s="9" t="s">
         <v>222</v>
       </c>
-      <c r="C59" s="10" t="s">
+      <c r="C59" s="9" t="s">
         <v>212</v>
       </c>
-      <c r="D59" s="10" t="s">
+      <c r="D59" s="9" t="s">
         <v>213</v>
       </c>
       <c r="E59" s="5" t="n">
@@ -9662,13 +10795,13 @@
       <c r="A60" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="B60" s="10" t="s">
+      <c r="B60" s="9" t="s">
         <v>222</v>
       </c>
-      <c r="C60" s="10" t="s">
+      <c r="C60" s="9" t="s">
         <v>212</v>
       </c>
-      <c r="D60" s="10" t="s">
+      <c r="D60" s="9" t="s">
         <v>215</v>
       </c>
       <c r="E60" s="5" t="n">
@@ -9679,13 +10812,13 @@
       <c r="A61" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="B61" s="10" t="s">
+      <c r="B61" s="9" t="s">
         <v>222</v>
       </c>
-      <c r="C61" s="10" t="s">
+      <c r="C61" s="9" t="s">
         <v>212</v>
       </c>
-      <c r="D61" s="10" t="s">
+      <c r="D61" s="9" t="s">
         <v>206</v>
       </c>
       <c r="E61" s="5" t="n">
@@ -9696,13 +10829,13 @@
       <c r="A62" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="B62" s="10" t="s">
+      <c r="B62" s="9" t="s">
         <v>222</v>
       </c>
-      <c r="C62" s="10" t="s">
+      <c r="C62" s="9" t="s">
         <v>212</v>
       </c>
-      <c r="D62" s="10" t="s">
+      <c r="D62" s="9" t="s">
         <v>208</v>
       </c>
       <c r="E62" s="5" t="n">
@@ -9713,13 +10846,13 @@
       <c r="A63" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="B63" s="10" t="s">
+      <c r="B63" s="9" t="s">
         <v>222</v>
       </c>
-      <c r="C63" s="10" t="s">
+      <c r="C63" s="9" t="s">
         <v>212</v>
       </c>
-      <c r="D63" s="10" t="s">
+      <c r="D63" s="9" t="s">
         <v>208</v>
       </c>
       <c r="E63" s="5" t="n">
@@ -9730,13 +10863,13 @@
       <c r="A64" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="B64" s="10" t="s">
+      <c r="B64" s="9" t="s">
         <v>222</v>
       </c>
-      <c r="C64" s="10" t="s">
+      <c r="C64" s="9" t="s">
         <v>212</v>
       </c>
-      <c r="D64" s="10" t="s">
+      <c r="D64" s="9" t="s">
         <v>208</v>
       </c>
       <c r="E64" s="5" t="n">
@@ -9747,13 +10880,13 @@
       <c r="A65" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="B65" s="10" t="s">
+      <c r="B65" s="9" t="s">
         <v>222</v>
       </c>
-      <c r="C65" s="10" t="s">
+      <c r="C65" s="9" t="s">
         <v>212</v>
       </c>
-      <c r="D65" s="10" t="s">
+      <c r="D65" s="9" t="s">
         <v>216</v>
       </c>
       <c r="E65" s="5" t="n">
@@ -9764,13 +10897,13 @@
       <c r="A66" s="8" t="s">
         <v>138</v>
       </c>
-      <c r="B66" s="10" t="s">
+      <c r="B66" s="9" t="s">
         <v>222</v>
       </c>
-      <c r="C66" s="10" t="s">
+      <c r="C66" s="9" t="s">
         <v>212</v>
       </c>
-      <c r="D66" s="10" t="s">
+      <c r="D66" s="9" t="s">
         <v>216</v>
       </c>
       <c r="E66" s="5" t="n">
@@ -9781,13 +10914,13 @@
       <c r="A67" s="8" t="s">
         <v>140</v>
       </c>
-      <c r="B67" s="10" t="s">
+      <c r="B67" s="9" t="s">
         <v>222</v>
       </c>
-      <c r="C67" s="10" t="s">
+      <c r="C67" s="9" t="s">
         <v>212</v>
       </c>
-      <c r="D67" s="10" t="s">
+      <c r="D67" s="9" t="s">
         <v>216</v>
       </c>
       <c r="E67" s="5" t="n">
@@ -9891,19 +11024,19 @@
   <dimension ref="A1:E65536"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="B60" activeCellId="0" sqref="B60"/>
+      <selection pane="bottomLeft" activeCell="C33" activeCellId="0" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="53.587044534413"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="55.417004048583"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="73.1255060728745"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="24.4534412955466"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="24.1093117408907"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="9.71255060728745"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="54.417004048583"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="56.3441295546559"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="74.3400809716599"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="24.8502024291498"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="24.5303643724696"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="9.85425101214575"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/Projects/CCRU_SAND/Data/KPI_Source.xlsx
+++ b/Projects/CCRU_SAND/Data/KPI_Source.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="11"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="POS" sheetId="1" state="visible" r:id="rId2"/>
@@ -19,7 +19,6 @@
     <sheet name="SPIRITS" sheetId="9" state="visible" r:id="rId10"/>
     <sheet name="MARKETING" sheetId="10" state="visible" r:id="rId11"/>
     <sheet name="INTEGRATION" sheetId="11" state="visible" r:id="rId12"/>
-    <sheet name="COOLER_AUDIT" sheetId="12" state="visible" r:id="rId13"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -31,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2409" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2096" uniqueCount="234">
   <si>
     <t xml:space="preserve">POS</t>
   </si>
@@ -733,12 +732,6 @@
   </si>
   <si>
     <t xml:space="preserve">CCH Integration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COOLER_AUDIT_TOTAL_SCORE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KPIs_2020/Cooler Quality 2020.xlsx</t>
   </si>
 </sst>
 </file>
@@ -982,13 +975,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="54.417004048583"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="56.3441295546559"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="74.3400809716599"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="24.8502024291498"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="24.5303643724696"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="24.8502024291498"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="9.85425101214575"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="54.9514170040486"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="56.7732793522267"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="74.9838056680162"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="25.0647773279352"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="24.7449392712551"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="25.0647773279352"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2466,12 +2458,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.85"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="54.417004048583"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="56.3441295546559"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="74.3400809716599"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="24.8502024291498"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="24.5303643724696"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="9.85425101214575"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="54.9514170040486"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="56.7732793522267"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="74.9838056680162"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="25.0647773279352"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="24.7449392712551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2999,20 +2990,19 @@
   </sheetPr>
   <dimension ref="A1:E78"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="B24" activeCellId="0" sqref="B24"/>
+      <selection pane="bottomLeft" activeCell="C39" activeCellId="0" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.85"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="54.417004048583"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="56.3441295546559"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="74.3400809716599"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="24.8502024291498"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="24.5303643724696"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="9.85425101214575"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="54.9514170040486"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="56.7732793522267"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="74.9838056680162"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="25.0647773279352"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="24.7449392712551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3571,1136 +3561,6 @@
     <row r="78" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="8" t="s">
         <v>162</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <tabColor rgb="FFFFCC00"/>
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:E78"/>
-  <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="D69" activeCellId="0" sqref="D69"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="41.4534412955466"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.3603238866397"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="38.0283400809717"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="24.8502024291498"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="24.5303643724696"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="9.85425101214575"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>234</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>235</v>
-      </c>
-      <c r="D2" s="0" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>234</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>235</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>234</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>235</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>234</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>235</v>
-      </c>
-      <c r="D5" s="0" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>234</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>235</v>
-      </c>
-      <c r="D6" s="0" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>234</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>235</v>
-      </c>
-      <c r="D7" s="0" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>234</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>235</v>
-      </c>
-      <c r="D8" s="0" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>234</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>235</v>
-      </c>
-      <c r="D9" s="0" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>234</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>235</v>
-      </c>
-      <c r="D10" s="0" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>234</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>235</v>
-      </c>
-      <c r="D11" s="0" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>234</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>235</v>
-      </c>
-      <c r="D12" s="0" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>234</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>235</v>
-      </c>
-      <c r="D13" s="0" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>234</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>235</v>
-      </c>
-      <c r="D14" s="0" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B15" s="9" t="s">
-        <v>234</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>235</v>
-      </c>
-      <c r="D15" s="0" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B16" s="9" t="s">
-        <v>234</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>235</v>
-      </c>
-      <c r="D16" s="0" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B17" s="9" t="s">
-        <v>234</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>235</v>
-      </c>
-      <c r="D17" s="0" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B18" s="9" t="s">
-        <v>234</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>235</v>
-      </c>
-      <c r="D18" s="0" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B19" s="9" t="s">
-        <v>234</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>235</v>
-      </c>
-      <c r="D19" s="0" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B20" s="9" t="s">
-        <v>234</v>
-      </c>
-      <c r="C20" s="9" t="s">
-        <v>235</v>
-      </c>
-      <c r="D20" s="0" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="B21" s="9" t="s">
-        <v>234</v>
-      </c>
-      <c r="C21" s="9" t="s">
-        <v>235</v>
-      </c>
-      <c r="D21" s="0" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="B22" s="9" t="s">
-        <v>234</v>
-      </c>
-      <c r="C22" s="9" t="s">
-        <v>235</v>
-      </c>
-      <c r="D22" s="0" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B23" s="9" t="s">
-        <v>234</v>
-      </c>
-      <c r="C23" s="9" t="s">
-        <v>235</v>
-      </c>
-      <c r="D23" s="0" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="B24" s="9" t="s">
-        <v>234</v>
-      </c>
-      <c r="C24" s="9" t="s">
-        <v>235</v>
-      </c>
-      <c r="D24" s="0" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="B25" s="9" t="s">
-        <v>234</v>
-      </c>
-      <c r="C25" s="9" t="s">
-        <v>235</v>
-      </c>
-      <c r="D25" s="0" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="B26" s="9" t="s">
-        <v>234</v>
-      </c>
-      <c r="C26" s="9" t="s">
-        <v>235</v>
-      </c>
-      <c r="D26" s="0" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="B27" s="9" t="s">
-        <v>234</v>
-      </c>
-      <c r="C27" s="9" t="s">
-        <v>235</v>
-      </c>
-      <c r="D27" s="0" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="B28" s="9" t="s">
-        <v>234</v>
-      </c>
-      <c r="C28" s="9" t="s">
-        <v>235</v>
-      </c>
-      <c r="D28" s="0" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="B29" s="9" t="s">
-        <v>234</v>
-      </c>
-      <c r="C29" s="9" t="s">
-        <v>235</v>
-      </c>
-      <c r="D29" s="0" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="B30" s="9" t="s">
-        <v>234</v>
-      </c>
-      <c r="C30" s="9" t="s">
-        <v>235</v>
-      </c>
-      <c r="D30" s="0" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="B31" s="9" t="s">
-        <v>234</v>
-      </c>
-      <c r="C31" s="9" t="s">
-        <v>235</v>
-      </c>
-      <c r="D31" s="0" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="B32" s="9" t="s">
-        <v>234</v>
-      </c>
-      <c r="C32" s="9" t="s">
-        <v>235</v>
-      </c>
-      <c r="D32" s="0" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="B33" s="9" t="s">
-        <v>234</v>
-      </c>
-      <c r="C33" s="9" t="s">
-        <v>235</v>
-      </c>
-      <c r="D33" s="0" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="B34" s="9" t="s">
-        <v>234</v>
-      </c>
-      <c r="C34" s="9" t="s">
-        <v>235</v>
-      </c>
-      <c r="D34" s="0" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="B35" s="9" t="s">
-        <v>234</v>
-      </c>
-      <c r="C35" s="9" t="s">
-        <v>235</v>
-      </c>
-      <c r="D35" s="0" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B36" s="9" t="s">
-        <v>234</v>
-      </c>
-      <c r="C36" s="9" t="s">
-        <v>235</v>
-      </c>
-      <c r="D36" s="0" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="B37" s="9" t="s">
-        <v>234</v>
-      </c>
-      <c r="C37" s="9" t="s">
-        <v>235</v>
-      </c>
-      <c r="D37" s="0" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="B38" s="9" t="s">
-        <v>234</v>
-      </c>
-      <c r="C38" s="9" t="s">
-        <v>235</v>
-      </c>
-      <c r="D38" s="0" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="B39" s="9" t="s">
-        <v>234</v>
-      </c>
-      <c r="C39" s="9" t="s">
-        <v>235</v>
-      </c>
-      <c r="D39" s="0" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="B40" s="9" t="s">
-        <v>234</v>
-      </c>
-      <c r="C40" s="9" t="s">
-        <v>235</v>
-      </c>
-      <c r="D40" s="0" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="B41" s="9" t="s">
-        <v>234</v>
-      </c>
-      <c r="C41" s="9" t="s">
-        <v>235</v>
-      </c>
-      <c r="D41" s="0" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="B42" s="9" t="s">
-        <v>234</v>
-      </c>
-      <c r="C42" s="9" t="s">
-        <v>235</v>
-      </c>
-      <c r="D42" s="0" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="B43" s="9" t="s">
-        <v>234</v>
-      </c>
-      <c r="C43" s="9" t="s">
-        <v>235</v>
-      </c>
-      <c r="D43" s="0" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="B44" s="9" t="s">
-        <v>234</v>
-      </c>
-      <c r="C44" s="9" t="s">
-        <v>235</v>
-      </c>
-      <c r="D44" s="0" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="B45" s="9" t="s">
-        <v>234</v>
-      </c>
-      <c r="C45" s="9" t="s">
-        <v>235</v>
-      </c>
-      <c r="D45" s="0" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="B46" s="9" t="s">
-        <v>234</v>
-      </c>
-      <c r="C46" s="9" t="s">
-        <v>235</v>
-      </c>
-      <c r="D46" s="0" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="B47" s="9" t="s">
-        <v>234</v>
-      </c>
-      <c r="C47" s="9" t="s">
-        <v>235</v>
-      </c>
-      <c r="D47" s="0" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="B48" s="9" t="s">
-        <v>234</v>
-      </c>
-      <c r="C48" s="9" t="s">
-        <v>235</v>
-      </c>
-      <c r="D48" s="0" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="B49" s="9" t="s">
-        <v>234</v>
-      </c>
-      <c r="C49" s="9" t="s">
-        <v>235</v>
-      </c>
-      <c r="D49" s="0" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="B50" s="9" t="s">
-        <v>234</v>
-      </c>
-      <c r="C50" s="9" t="s">
-        <v>235</v>
-      </c>
-      <c r="D50" s="0" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="B51" s="9" t="s">
-        <v>234</v>
-      </c>
-      <c r="C51" s="9" t="s">
-        <v>235</v>
-      </c>
-      <c r="D51" s="0" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="B52" s="9" t="s">
-        <v>234</v>
-      </c>
-      <c r="C52" s="9" t="s">
-        <v>235</v>
-      </c>
-      <c r="D52" s="0" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="B53" s="9" t="s">
-        <v>234</v>
-      </c>
-      <c r="C53" s="9" t="s">
-        <v>235</v>
-      </c>
-      <c r="D53" s="0" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="B54" s="9" t="s">
-        <v>234</v>
-      </c>
-      <c r="C54" s="9" t="s">
-        <v>235</v>
-      </c>
-      <c r="D54" s="0" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="B55" s="9" t="s">
-        <v>234</v>
-      </c>
-      <c r="C55" s="9" t="s">
-        <v>235</v>
-      </c>
-      <c r="D55" s="0" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="B56" s="9" t="s">
-        <v>234</v>
-      </c>
-      <c r="C56" s="9" t="s">
-        <v>235</v>
-      </c>
-      <c r="D56" s="0" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="B57" s="9" t="s">
-        <v>234</v>
-      </c>
-      <c r="C57" s="9" t="s">
-        <v>235</v>
-      </c>
-      <c r="D57" s="0" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="B58" s="9" t="s">
-        <v>234</v>
-      </c>
-      <c r="C58" s="9" t="s">
-        <v>235</v>
-      </c>
-      <c r="D58" s="0" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="B59" s="9" t="s">
-        <v>234</v>
-      </c>
-      <c r="C59" s="9" t="s">
-        <v>235</v>
-      </c>
-      <c r="D59" s="0" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="B60" s="9" t="s">
-        <v>234</v>
-      </c>
-      <c r="C60" s="9" t="s">
-        <v>235</v>
-      </c>
-      <c r="D60" s="0" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="B61" s="9" t="s">
-        <v>234</v>
-      </c>
-      <c r="C61" s="9" t="s">
-        <v>235</v>
-      </c>
-      <c r="D61" s="0" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="B62" s="9" t="s">
-        <v>234</v>
-      </c>
-      <c r="C62" s="9" t="s">
-        <v>235</v>
-      </c>
-      <c r="D62" s="0" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="8" t="s">
-        <v>132</v>
-      </c>
-      <c r="B63" s="9" t="s">
-        <v>234</v>
-      </c>
-      <c r="C63" s="9" t="s">
-        <v>235</v>
-      </c>
-      <c r="D63" s="0" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="B64" s="9" t="s">
-        <v>234</v>
-      </c>
-      <c r="C64" s="9" t="s">
-        <v>235</v>
-      </c>
-      <c r="D64" s="0" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="B65" s="9" t="s">
-        <v>234</v>
-      </c>
-      <c r="C65" s="9" t="s">
-        <v>235</v>
-      </c>
-      <c r="D65" s="0" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="B66" s="9" t="s">
-        <v>234</v>
-      </c>
-      <c r="C66" s="9" t="s">
-        <v>235</v>
-      </c>
-      <c r="D66" s="0" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="B67" s="9" t="s">
-        <v>234</v>
-      </c>
-      <c r="C67" s="9" t="s">
-        <v>235</v>
-      </c>
-      <c r="D67" s="0" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="B68" s="9" t="s">
-        <v>234</v>
-      </c>
-      <c r="C68" s="9" t="s">
-        <v>235</v>
-      </c>
-      <c r="D68" s="0" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="B69" s="9" t="s">
-        <v>234</v>
-      </c>
-      <c r="C69" s="9" t="s">
-        <v>235</v>
-      </c>
-      <c r="D69" s="0" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="B70" s="9" t="s">
-        <v>234</v>
-      </c>
-      <c r="C70" s="9" t="s">
-        <v>235</v>
-      </c>
-      <c r="D70" s="0" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="B71" s="9" t="s">
-        <v>234</v>
-      </c>
-      <c r="C71" s="9" t="s">
-        <v>235</v>
-      </c>
-      <c r="D71" s="0" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="B72" s="9" t="s">
-        <v>234</v>
-      </c>
-      <c r="C72" s="9" t="s">
-        <v>235</v>
-      </c>
-      <c r="D72" s="0" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="B73" s="9" t="s">
-        <v>234</v>
-      </c>
-      <c r="C73" s="9" t="s">
-        <v>235</v>
-      </c>
-      <c r="D73" s="0" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="8" t="s">
-        <v>154</v>
-      </c>
-      <c r="B74" s="9" t="s">
-        <v>234</v>
-      </c>
-      <c r="C74" s="9" t="s">
-        <v>235</v>
-      </c>
-      <c r="D74" s="0" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="B75" s="9" t="s">
-        <v>234</v>
-      </c>
-      <c r="C75" s="9" t="s">
-        <v>235</v>
-      </c>
-      <c r="D75" s="0" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="8" t="s">
-        <v>158</v>
-      </c>
-      <c r="B76" s="9" t="s">
-        <v>234</v>
-      </c>
-      <c r="C76" s="9" t="s">
-        <v>235</v>
-      </c>
-      <c r="D76" s="0" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="8" t="s">
-        <v>160</v>
-      </c>
-      <c r="B77" s="9" t="s">
-        <v>234</v>
-      </c>
-      <c r="C77" s="9" t="s">
-        <v>235</v>
-      </c>
-      <c r="D77" s="0" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="8" t="s">
-        <v>162</v>
-      </c>
-      <c r="B78" s="9" t="s">
-        <v>234</v>
-      </c>
-      <c r="C78" s="9" t="s">
-        <v>235</v>
-      </c>
-      <c r="D78" s="0" t="s">
-        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -4729,12 +3589,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.85"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="54.417004048583"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="56.3441295546559"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="74.3400809716599"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="24.8502024291498"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="24.5303643724696"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="9.85425101214575"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="54.9514170040486"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="56.7732793522267"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="74.9838056680162"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="25.0647773279352"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="24.7449392712551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5425,12 +4284,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.85"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="54.417004048583"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="56.3441295546559"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="74.3400809716599"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="24.8502024291498"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="24.5303643724696"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="9.85425101214575"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="54.9514170040486"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="56.7732793522267"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="74.9838056680162"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="25.0647773279352"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="24.7449392712551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6481,12 +5339,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.85"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="54.417004048583"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="56.3441295546559"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="74.3400809716599"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="24.8502024291498"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="24.5303643724696"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="9.85425101214575"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="54.9514170040486"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="56.7732793522267"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="74.9838056680162"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="25.0647773279352"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="24.7449392712551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7415,12 +6272,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="54.417004048583"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="56.3441295546559"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="74.3400809716599"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="24.8502024291498"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="24.5303643724696"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="9.85425101214575"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="54.9514170040486"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="56.7732793522267"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="74.9838056680162"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="25.0647773279352"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="24.7449392712551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8349,12 +7205,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.85"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="54.417004048583"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="56.3441295546559"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="74.3400809716599"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="24.8502024291498"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="24.5303643724696"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="9.85425101214575"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="54.9514170040486"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="56.7732793522267"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="74.9838056680162"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="25.0647773279352"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="24.7449392712551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9161,12 +8016,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="54.417004048583"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="56.3441295546559"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="74.3400809716599"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="24.8502024291498"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="24.5303643724696"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="9.85425101214575"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="54.9514170040486"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="56.7732793522267"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="74.9838056680162"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="25.0647773279352"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="24.7449392712551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9972,12 +8826,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="54.417004048583"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="56.3441295546559"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="74.3400809716599"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="24.8502024291498"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="24.5303643724696"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="9.85425101214575"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="54.9514170040486"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="56.7732793522267"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="74.9838056680162"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="25.0647773279352"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="24.7449392712551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11031,12 +9884,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="54.417004048583"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="56.3441295546559"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="74.3400809716599"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="24.8502024291498"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="24.5303643724696"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="9.85425101214575"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="54.9514170040486"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="56.7732793522267"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="74.9838056680162"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="25.0647773279352"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="24.7449392712551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
